--- a/BackTest/2020-01-22 BackTest AE.xlsx
+++ b/BackTest/2020-01-22 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>185.2</v>
+        <v>186.8</v>
       </c>
       <c r="C2" t="n">
-        <v>185</v>
+        <v>186.8</v>
       </c>
       <c r="D2" t="n">
-        <v>185.2</v>
+        <v>186.8</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>186.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1808.1238</v>
+        <v>240.4507</v>
       </c>
       <c r="G2" t="n">
-        <v>187.0650000000001</v>
+        <v>187.0016666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C3" t="n">
         <v>185</v>
       </c>
-      <c r="C3" t="n">
-        <v>186</v>
-      </c>
       <c r="D3" t="n">
-        <v>188.8</v>
+        <v>185.2</v>
       </c>
       <c r="E3" t="n">
         <v>185</v>
       </c>
       <c r="F3" t="n">
-        <v>252.2576</v>
+        <v>1808.1238</v>
       </c>
       <c r="G3" t="n">
-        <v>187.1116666666668</v>
+        <v>187.0650000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C4" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" t="n">
-        <v>188</v>
+        <v>188.8</v>
       </c>
       <c r="E4" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" t="n">
-        <v>209.5578</v>
+        <v>252.2576</v>
       </c>
       <c r="G4" t="n">
-        <v>187.2250000000001</v>
+        <v>187.1116666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>184.6</v>
+        <v>188</v>
       </c>
       <c r="C5" t="n">
-        <v>184.6</v>
+        <v>188</v>
       </c>
       <c r="D5" t="n">
-        <v>184.6</v>
+        <v>188</v>
       </c>
       <c r="E5" t="n">
-        <v>184.6</v>
+        <v>186</v>
       </c>
       <c r="F5" t="n">
-        <v>509.1591</v>
+        <v>209.5578</v>
       </c>
       <c r="G5" t="n">
-        <v>187.2200000000001</v>
+        <v>187.2250000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>187.9</v>
+        <v>184.6</v>
       </c>
       <c r="C6" t="n">
-        <v>187.9</v>
+        <v>184.6</v>
       </c>
       <c r="D6" t="n">
-        <v>187.9</v>
+        <v>184.6</v>
       </c>
       <c r="E6" t="n">
-        <v>187.9</v>
+        <v>184.6</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>509.1591</v>
       </c>
       <c r="G6" t="n">
-        <v>187.2866666666668</v>
+        <v>187.2200000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>185.4</v>
+        <v>187.9</v>
       </c>
       <c r="C7" t="n">
-        <v>185.4</v>
+        <v>187.9</v>
       </c>
       <c r="D7" t="n">
-        <v>185.4</v>
+        <v>187.9</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4</v>
+        <v>187.9</v>
       </c>
       <c r="F7" t="n">
-        <v>108.8645</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>187.3116666666668</v>
+        <v>187.2866666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>187.9</v>
+        <v>185.4</v>
       </c>
       <c r="C8" t="n">
-        <v>187.9</v>
+        <v>185.4</v>
       </c>
       <c r="D8" t="n">
-        <v>187.9</v>
+        <v>185.4</v>
       </c>
       <c r="E8" t="n">
-        <v>187.9</v>
+        <v>185.4</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>108.8645</v>
       </c>
       <c r="G8" t="n">
-        <v>187.3783333333335</v>
+        <v>187.3116666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185.7</v>
+        <v>187.9</v>
       </c>
       <c r="C9" t="n">
-        <v>185.7</v>
+        <v>187.9</v>
       </c>
       <c r="D9" t="n">
-        <v>185.7</v>
+        <v>187.9</v>
       </c>
       <c r="E9" t="n">
-        <v>185.7</v>
+        <v>187.9</v>
       </c>
       <c r="F9" t="n">
-        <v>190.8285</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>187.3683333333335</v>
+        <v>187.3783333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>184.7</v>
+        <v>185.7</v>
       </c>
       <c r="C10" t="n">
-        <v>184.7</v>
+        <v>185.7</v>
       </c>
       <c r="D10" t="n">
-        <v>184.7</v>
+        <v>185.7</v>
       </c>
       <c r="E10" t="n">
-        <v>184.7</v>
+        <v>185.7</v>
       </c>
       <c r="F10" t="n">
-        <v>11741.9782</v>
+        <v>190.8285</v>
       </c>
       <c r="G10" t="n">
-        <v>187.3383333333335</v>
+        <v>187.3683333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>184.7</v>
       </c>
       <c r="F11" t="n">
-        <v>96.8565</v>
+        <v>11741.9782</v>
       </c>
       <c r="G11" t="n">
-        <v>187.2916666666669</v>
+        <v>187.3383333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>183.4</v>
+        <v>184.7</v>
       </c>
       <c r="C12" t="n">
-        <v>187.6</v>
+        <v>184.7</v>
       </c>
       <c r="D12" t="n">
-        <v>187.6</v>
+        <v>184.7</v>
       </c>
       <c r="E12" t="n">
-        <v>183.4</v>
+        <v>184.7</v>
       </c>
       <c r="F12" t="n">
-        <v>11660.2783</v>
+        <v>96.8565</v>
       </c>
       <c r="G12" t="n">
-        <v>187.2816666666668</v>
+        <v>187.2916666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>186.9</v>
+        <v>183.4</v>
       </c>
       <c r="C13" t="n">
-        <v>186.9</v>
+        <v>187.6</v>
       </c>
       <c r="D13" t="n">
-        <v>186.9</v>
+        <v>187.6</v>
       </c>
       <c r="E13" t="n">
-        <v>186.9</v>
+        <v>183.4</v>
       </c>
       <c r="F13" t="n">
-        <v>1143.1234</v>
+        <v>11660.2783</v>
       </c>
       <c r="G13" t="n">
-        <v>187.2933333333335</v>
+        <v>187.2816666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184.6</v>
+        <v>186.9</v>
       </c>
       <c r="C14" t="n">
-        <v>183</v>
+        <v>186.9</v>
       </c>
       <c r="D14" t="n">
-        <v>184.6</v>
+        <v>186.9</v>
       </c>
       <c r="E14" t="n">
-        <v>183</v>
+        <v>186.9</v>
       </c>
       <c r="F14" t="n">
-        <v>33413.2556</v>
+        <v>1143.1234</v>
       </c>
       <c r="G14" t="n">
-        <v>187.2400000000002</v>
+        <v>187.2933333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184.4</v>
+        <v>184.6</v>
       </c>
       <c r="C15" t="n">
-        <v>186.3</v>
+        <v>183</v>
       </c>
       <c r="D15" t="n">
-        <v>186.6</v>
+        <v>184.6</v>
       </c>
       <c r="E15" t="n">
-        <v>183.9</v>
+        <v>183</v>
       </c>
       <c r="F15" t="n">
-        <v>23223.571</v>
+        <v>33413.2556</v>
       </c>
       <c r="G15" t="n">
-        <v>187.2333333333335</v>
+        <v>187.2400000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184.5</v>
+        <v>184.4</v>
       </c>
       <c r="C16" t="n">
-        <v>184.5</v>
+        <v>186.3</v>
       </c>
       <c r="D16" t="n">
-        <v>184.5</v>
+        <v>186.6</v>
       </c>
       <c r="E16" t="n">
-        <v>184.5</v>
+        <v>183.9</v>
       </c>
       <c r="F16" t="n">
-        <v>72</v>
+        <v>23223.571</v>
       </c>
       <c r="G16" t="n">
         <v>187.2333333333335</v>
@@ -970,7 +970,7 @@
         <v>184.5</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G17" t="n">
         <v>187.2333333333335</v>
@@ -996,19 +996,19 @@
         <v>184.5</v>
       </c>
       <c r="C18" t="n">
-        <v>184.7</v>
+        <v>184.5</v>
       </c>
       <c r="D18" t="n">
-        <v>184.7</v>
+        <v>184.5</v>
       </c>
       <c r="E18" t="n">
         <v>184.5</v>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>187.2450000000001</v>
+        <v>187.2333333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>184.7</v>
+        <v>184.5</v>
       </c>
       <c r="C19" t="n">
         <v>184.7</v>
@@ -1037,13 +1037,13 @@
         <v>184.7</v>
       </c>
       <c r="E19" t="n">
-        <v>184.7</v>
+        <v>184.5</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2100000000002</v>
+        <v>187.2450000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>184.5</v>
+        <v>184.7</v>
       </c>
       <c r="C20" t="n">
-        <v>184.5</v>
+        <v>184.7</v>
       </c>
       <c r="D20" t="n">
-        <v>184.5</v>
+        <v>184.7</v>
       </c>
       <c r="E20" t="n">
-        <v>184.5</v>
+        <v>184.7</v>
       </c>
       <c r="F20" t="n">
-        <v>33784000</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>187.1700000000002</v>
+        <v>187.2100000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>184.5</v>
       </c>
       <c r="F21" t="n">
-        <v>24720000</v>
+        <v>33784000</v>
       </c>
       <c r="G21" t="n">
-        <v>187.1116666666668</v>
+        <v>187.1700000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>186.6</v>
+        <v>184.5</v>
       </c>
       <c r="C22" t="n">
-        <v>186.6</v>
+        <v>184.5</v>
       </c>
       <c r="D22" t="n">
-        <v>186.6</v>
+        <v>184.5</v>
       </c>
       <c r="E22" t="n">
-        <v>186.6</v>
+        <v>184.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1132.8007</v>
+        <v>24720000</v>
       </c>
       <c r="G22" t="n">
-        <v>187.0883333333335</v>
+        <v>187.1116666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>188.4</v>
+        <v>186.6</v>
       </c>
       <c r="C23" t="n">
-        <v>186.2</v>
+        <v>186.6</v>
       </c>
       <c r="D23" t="n">
-        <v>188.4</v>
+        <v>186.6</v>
       </c>
       <c r="E23" t="n">
-        <v>186.2</v>
+        <v>186.6</v>
       </c>
       <c r="F23" t="n">
-        <v>430.6599</v>
+        <v>1132.8007</v>
       </c>
       <c r="G23" t="n">
-        <v>187.0733333333335</v>
+        <v>187.0883333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>188.3</v>
+        <v>188.4</v>
       </c>
       <c r="C24" t="n">
-        <v>185</v>
+        <v>186.2</v>
       </c>
       <c r="D24" t="n">
-        <v>188.3</v>
+        <v>188.4</v>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>186.2</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>430.6599</v>
       </c>
       <c r="G24" t="n">
-        <v>187.0383333333335</v>
+        <v>187.0733333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>185.1</v>
+        <v>188.3</v>
       </c>
       <c r="C25" t="n">
-        <v>184.1</v>
+        <v>185</v>
       </c>
       <c r="D25" t="n">
-        <v>185.1</v>
+        <v>188.3</v>
       </c>
       <c r="E25" t="n">
-        <v>184.1</v>
+        <v>185</v>
       </c>
       <c r="F25" t="n">
-        <v>7713.4861</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>186.9733333333335</v>
+        <v>187.0383333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>185</v>
+        <v>185.1</v>
       </c>
       <c r="C26" t="n">
-        <v>185</v>
+        <v>184.1</v>
       </c>
       <c r="D26" t="n">
-        <v>185</v>
+        <v>185.1</v>
       </c>
       <c r="E26" t="n">
-        <v>185</v>
+        <v>184.1</v>
       </c>
       <c r="F26" t="n">
-        <v>201.848</v>
+        <v>7713.4861</v>
       </c>
       <c r="G26" t="n">
-        <v>186.9233333333335</v>
+        <v>186.9733333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>185</v>
       </c>
       <c r="F27" t="n">
-        <v>88.68000000000001</v>
+        <v>201.848</v>
       </c>
       <c r="G27" t="n">
-        <v>186.8733333333335</v>
+        <v>186.9233333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>185</v>
       </c>
       <c r="F28" t="n">
-        <v>1274.5957</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>186.8233333333335</v>
+        <v>186.8733333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>185.2</v>
+        <v>185</v>
       </c>
       <c r="C29" t="n">
-        <v>185.2</v>
+        <v>185</v>
       </c>
       <c r="D29" t="n">
-        <v>185.2</v>
+        <v>185</v>
       </c>
       <c r="E29" t="n">
-        <v>185.2</v>
+        <v>185</v>
       </c>
       <c r="F29" t="n">
-        <v>543.2245</v>
+        <v>1274.5957</v>
       </c>
       <c r="G29" t="n">
-        <v>186.7700000000002</v>
+        <v>186.8233333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>185.2</v>
       </c>
       <c r="C30" t="n">
-        <v>185</v>
+        <v>185.2</v>
       </c>
       <c r="D30" t="n">
         <v>185.2</v>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>185.2</v>
       </c>
       <c r="F30" t="n">
-        <v>11660.6059</v>
+        <v>543.2245</v>
       </c>
       <c r="G30" t="n">
-        <v>186.6900000000002</v>
+        <v>186.7700000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>184.9</v>
+        <v>185.2</v>
       </c>
       <c r="C31" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="D31" t="n">
-        <v>184.9</v>
+        <v>185.2</v>
       </c>
       <c r="E31" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="F31" t="n">
-        <v>4758</v>
+        <v>11660.6059</v>
       </c>
       <c r="G31" t="n">
-        <v>186.5716666666669</v>
+        <v>186.6900000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>184.9</v>
       </c>
       <c r="F32" t="n">
-        <v>9828.773999999999</v>
+        <v>4758</v>
       </c>
       <c r="G32" t="n">
-        <v>186.5350000000002</v>
+        <v>186.5716666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="C33" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="D33" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="F33" t="n">
-        <v>548.7482</v>
+        <v>9828.773999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>186.3550000000002</v>
+        <v>186.5350000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>185</v>
       </c>
       <c r="C34" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="D34" t="n">
         <v>185</v>
       </c>
       <c r="E34" t="n">
-        <v>184.9</v>
+        <v>185</v>
       </c>
       <c r="F34" t="n">
-        <v>21270.5323</v>
+        <v>548.7482</v>
       </c>
       <c r="G34" t="n">
-        <v>186.3166666666669</v>
+        <v>186.3550000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>186.9</v>
+        <v>185</v>
       </c>
       <c r="C35" t="n">
-        <v>186.9</v>
+        <v>184.9</v>
       </c>
       <c r="D35" t="n">
-        <v>186.9</v>
+        <v>185</v>
       </c>
       <c r="E35" t="n">
-        <v>186.9</v>
+        <v>184.9</v>
       </c>
       <c r="F35" t="n">
-        <v>8387</v>
+        <v>21270.5323</v>
       </c>
       <c r="G35" t="n">
-        <v>186.2416666666668</v>
+        <v>186.3166666666669</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>186.9</v>
       </c>
       <c r="F36" t="n">
-        <v>860</v>
+        <v>8387</v>
       </c>
       <c r="G36" t="n">
-        <v>186.2366666666668</v>
+        <v>186.2416666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="C37" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="D37" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="E37" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="F37" t="n">
-        <v>3302.7338</v>
+        <v>860</v>
       </c>
       <c r="G37" t="n">
-        <v>186.2333333333335</v>
+        <v>186.2366666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C38" t="n">
-        <v>185.9</v>
+        <v>187</v>
       </c>
       <c r="D38" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" t="n">
-        <v>185.9</v>
+        <v>187</v>
       </c>
       <c r="F38" t="n">
-        <v>3108.336</v>
+        <v>3302.7338</v>
       </c>
       <c r="G38" t="n">
-        <v>186.2116666666668</v>
+        <v>186.2333333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="D39" t="n">
         <v>186</v>
       </c>
-      <c r="D39" t="n">
-        <v>188</v>
-      </c>
       <c r="E39" t="n">
-        <v>186</v>
+        <v>185.9</v>
       </c>
       <c r="F39" t="n">
-        <v>4964.7072</v>
+        <v>3108.336</v>
       </c>
       <c r="G39" t="n">
-        <v>186.1916666666668</v>
+        <v>186.2116666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>184.9</v>
+        <v>188</v>
       </c>
       <c r="C40" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D40" t="n">
-        <v>184.9</v>
+        <v>188</v>
       </c>
       <c r="E40" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F40" t="n">
-        <v>4765.2354</v>
+        <v>4964.7072</v>
       </c>
       <c r="G40" t="n">
-        <v>186.1383333333334</v>
+        <v>186.1916666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>186.8</v>
+        <v>184.9</v>
       </c>
       <c r="C41" t="n">
-        <v>186.9</v>
+        <v>184</v>
       </c>
       <c r="D41" t="n">
-        <v>186.9</v>
+        <v>184.9</v>
       </c>
       <c r="E41" t="n">
-        <v>186.8</v>
+        <v>184</v>
       </c>
       <c r="F41" t="n">
-        <v>502.2225</v>
+        <v>4765.2354</v>
       </c>
       <c r="G41" t="n">
-        <v>186.1333333333334</v>
+        <v>186.1383333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>185</v>
+        <v>186.8</v>
       </c>
       <c r="C42" t="n">
-        <v>185.9</v>
+        <v>186.9</v>
       </c>
       <c r="D42" t="n">
-        <v>185.9</v>
+        <v>186.9</v>
       </c>
       <c r="E42" t="n">
-        <v>184.7</v>
+        <v>186.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1108.609</v>
+        <v>502.2225</v>
       </c>
       <c r="G42" t="n">
-        <v>186.1133333333334</v>
+        <v>186.1333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>184.7</v>
+        <v>185</v>
       </c>
       <c r="C43" t="n">
-        <v>184.7</v>
+        <v>185.9</v>
       </c>
       <c r="D43" t="n">
-        <v>184.7</v>
+        <v>185.9</v>
       </c>
       <c r="E43" t="n">
         <v>184.7</v>
       </c>
       <c r="F43" t="n">
-        <v>15</v>
+        <v>1108.609</v>
       </c>
       <c r="G43" t="n">
-        <v>186.0733333333334</v>
+        <v>186.1133333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>184.7</v>
       </c>
       <c r="F44" t="n">
-        <v>51.906</v>
+        <v>15</v>
       </c>
       <c r="G44" t="n">
-        <v>186.0183333333334</v>
+        <v>186.0733333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>185.9</v>
+        <v>184.7</v>
       </c>
       <c r="C45" t="n">
-        <v>185.9</v>
+        <v>184.7</v>
       </c>
       <c r="D45" t="n">
-        <v>185.9</v>
+        <v>184.7</v>
       </c>
       <c r="E45" t="n">
-        <v>185.9</v>
+        <v>184.7</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>51.906</v>
       </c>
       <c r="G45" t="n">
-        <v>185.9683333333334</v>
+        <v>186.0183333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>185.8</v>
+        <v>185.9</v>
       </c>
       <c r="C46" t="n">
-        <v>183.9</v>
+        <v>185.9</v>
       </c>
       <c r="D46" t="n">
         <v>185.9</v>
       </c>
       <c r="E46" t="n">
-        <v>183.9</v>
+        <v>185.9</v>
       </c>
       <c r="F46" t="n">
-        <v>17304.3624</v>
+        <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>185.9566666666668</v>
+        <v>185.9683333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>183.7</v>
+        <v>185.8</v>
       </c>
       <c r="C47" t="n">
-        <v>186.8</v>
+        <v>183.9</v>
       </c>
       <c r="D47" t="n">
-        <v>186.8</v>
+        <v>185.9</v>
       </c>
       <c r="E47" t="n">
-        <v>183.4</v>
+        <v>183.9</v>
       </c>
       <c r="F47" t="n">
-        <v>334.9934</v>
+        <v>17304.3624</v>
       </c>
       <c r="G47" t="n">
-        <v>185.9416666666667</v>
+        <v>185.9566666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E48" t="n">
         <v>183.4</v>
       </c>
-      <c r="C48" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>183.3</v>
-      </c>
       <c r="F48" t="n">
-        <v>444.9557</v>
+        <v>334.9934</v>
       </c>
       <c r="G48" t="n">
-        <v>185.8666666666667</v>
+        <v>185.9416666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>183.4</v>
       </c>
       <c r="C49" t="n">
-        <v>183.1</v>
+        <v>183.3</v>
       </c>
       <c r="D49" t="n">
         <v>183.4</v>
       </c>
       <c r="E49" t="n">
-        <v>183.1</v>
+        <v>183.3</v>
       </c>
       <c r="F49" t="n">
-        <v>1132.8007</v>
+        <v>444.9557</v>
       </c>
       <c r="G49" t="n">
-        <v>185.8100000000001</v>
+        <v>185.8666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>183.9</v>
+        <v>183.4</v>
       </c>
       <c r="C50" t="n">
-        <v>183.2</v>
+        <v>183.1</v>
       </c>
       <c r="D50" t="n">
-        <v>183.9</v>
+        <v>183.4</v>
       </c>
       <c r="E50" t="n">
-        <v>183.2</v>
+        <v>183.1</v>
       </c>
       <c r="F50" t="n">
-        <v>11218.13</v>
+        <v>1132.8007</v>
       </c>
       <c r="G50" t="n">
-        <v>185.7450000000001</v>
+        <v>185.8100000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>183.2</v>
+        <v>183.9</v>
       </c>
       <c r="C51" t="n">
         <v>183.2</v>
       </c>
       <c r="D51" t="n">
-        <v>183.2</v>
+        <v>183.9</v>
       </c>
       <c r="E51" t="n">
         <v>183.2</v>
       </c>
       <c r="F51" t="n">
-        <v>8260</v>
+        <v>11218.13</v>
       </c>
       <c r="G51" t="n">
-        <v>185.6816666666668</v>
+        <v>185.7450000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>183.2</v>
       </c>
       <c r="F52" t="n">
-        <v>4350</v>
+        <v>8260</v>
       </c>
       <c r="G52" t="n">
-        <v>185.5850000000001</v>
+        <v>185.6816666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>183.3</v>
+        <v>183.2</v>
       </c>
       <c r="C53" t="n">
-        <v>183.3</v>
+        <v>183.2</v>
       </c>
       <c r="D53" t="n">
-        <v>183.3</v>
+        <v>183.2</v>
       </c>
       <c r="E53" t="n">
-        <v>183.3</v>
+        <v>183.2</v>
       </c>
       <c r="F53" t="n">
-        <v>2230</v>
+        <v>4350</v>
       </c>
       <c r="G53" t="n">
-        <v>185.5216666666667</v>
+        <v>185.5850000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>183.3</v>
       </c>
       <c r="F54" t="n">
-        <v>2170</v>
+        <v>2230</v>
       </c>
       <c r="G54" t="n">
-        <v>185.4566666666667</v>
+        <v>185.5216666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>183.8</v>
+        <v>183.3</v>
       </c>
       <c r="C55" t="n">
         <v>183.3</v>
       </c>
       <c r="D55" t="n">
-        <v>183.8</v>
+        <v>183.3</v>
       </c>
       <c r="E55" t="n">
         <v>183.3</v>
       </c>
       <c r="F55" t="n">
-        <v>454.9565</v>
+        <v>2170</v>
       </c>
       <c r="G55" t="n">
-        <v>185.3916666666667</v>
+        <v>185.4566666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="C56" t="n">
-        <v>184</v>
+        <v>183.3</v>
       </c>
       <c r="D56" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="E56" t="n">
-        <v>184</v>
+        <v>183.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1670</v>
+        <v>454.9565</v>
       </c>
       <c r="G56" t="n">
-        <v>185.3383333333333</v>
+        <v>185.3916666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="C57" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="D57" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="E57" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="F57" t="n">
-        <v>3049.8046</v>
+        <v>1670</v>
       </c>
       <c r="G57" t="n">
-        <v>185.3</v>
+        <v>185.3383333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>184.8</v>
+        <v>184.9</v>
       </c>
       <c r="C58" t="n">
-        <v>184.8</v>
+        <v>184.9</v>
       </c>
       <c r="D58" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="E58" t="n">
-        <v>184.8</v>
+        <v>184.9</v>
       </c>
       <c r="F58" t="n">
-        <v>3301.9171</v>
+        <v>3049.8046</v>
       </c>
       <c r="G58" t="n">
-        <v>185.26</v>
+        <v>185.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>184.8</v>
       </c>
       <c r="C59" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="D59" t="n">
         <v>185</v>
       </c>
       <c r="E59" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="F59" t="n">
-        <v>5560</v>
+        <v>3301.9171</v>
       </c>
       <c r="G59" t="n">
-        <v>185.21</v>
+        <v>185.26</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>184</v>
+        <v>184.8</v>
       </c>
       <c r="C60" t="n">
         <v>184</v>
       </c>
       <c r="D60" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E60" t="n">
         <v>184</v>
       </c>
       <c r="F60" t="n">
-        <v>150</v>
+        <v>5560</v>
       </c>
       <c r="G60" t="n">
-        <v>185.13</v>
+        <v>185.21</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>184</v>
       </c>
       <c r="F61" t="n">
-        <v>996.6911</v>
+        <v>150</v>
       </c>
       <c r="G61" t="n">
-        <v>185.0833333333333</v>
+        <v>185.13</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>184</v>
       </c>
       <c r="F62" t="n">
-        <v>209.1961</v>
+        <v>996.6911</v>
       </c>
       <c r="G62" t="n">
-        <v>185.0666666666667</v>
+        <v>185.0833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>183.6</v>
+        <v>184</v>
       </c>
       <c r="C63" t="n">
-        <v>183.6</v>
+        <v>184</v>
       </c>
       <c r="D63" t="n">
-        <v>183.6</v>
+        <v>184</v>
       </c>
       <c r="E63" t="n">
-        <v>183.6</v>
+        <v>184</v>
       </c>
       <c r="F63" t="n">
-        <v>114.9112</v>
+        <v>209.1961</v>
       </c>
       <c r="G63" t="n">
-        <v>185.0266666666667</v>
+        <v>185.0666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>184</v>
+        <v>183.6</v>
       </c>
       <c r="C64" t="n">
-        <v>183.3</v>
+        <v>183.6</v>
       </c>
       <c r="D64" t="n">
-        <v>184</v>
+        <v>183.6</v>
       </c>
       <c r="E64" t="n">
-        <v>183.3</v>
+        <v>183.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1917.9997</v>
+        <v>114.9112</v>
       </c>
       <c r="G64" t="n">
-        <v>184.9483333333333</v>
+        <v>185.0266666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>183.5</v>
+        <v>184</v>
       </c>
       <c r="C65" t="n">
-        <v>183.5</v>
+        <v>183.3</v>
       </c>
       <c r="D65" t="n">
-        <v>183.5</v>
+        <v>184</v>
       </c>
       <c r="E65" t="n">
-        <v>183.5</v>
+        <v>183.3</v>
       </c>
       <c r="F65" t="n">
-        <v>1420</v>
+        <v>1917.9997</v>
       </c>
       <c r="G65" t="n">
-        <v>184.93</v>
+        <v>184.9483333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>183.5</v>
       </c>
       <c r="C66" t="n">
-        <v>184.9</v>
+        <v>183.5</v>
       </c>
       <c r="D66" t="n">
-        <v>184.9</v>
+        <v>183.5</v>
       </c>
       <c r="E66" t="n">
         <v>183.5</v>
       </c>
       <c r="F66" t="n">
-        <v>5068.9131</v>
+        <v>1420</v>
       </c>
       <c r="G66" t="n">
-        <v>184.88</v>
+        <v>184.93</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>184</v>
+        <v>183.5</v>
       </c>
       <c r="C67" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="D67" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="E67" t="n">
-        <v>184</v>
+        <v>183.5</v>
       </c>
       <c r="F67" t="n">
-        <v>618.8668</v>
+        <v>5068.9131</v>
       </c>
       <c r="G67" t="n">
-        <v>184.8566666666667</v>
+        <v>184.88</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="C68" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="D68" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="E68" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="F68" t="n">
-        <v>3049.8046</v>
+        <v>618.8668</v>
       </c>
       <c r="G68" t="n">
-        <v>184.7933333333334</v>
+        <v>184.8566666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>184.1</v>
       </c>
       <c r="F69" t="n">
-        <v>109.6371</v>
+        <v>3049.8046</v>
       </c>
       <c r="G69" t="n">
-        <v>184.7666666666667</v>
+        <v>184.7933333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>184.1</v>
       </c>
       <c r="C70" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="D70" t="n">
         <v>184.1</v>
       </c>
       <c r="E70" t="n">
-        <v>184</v>
+        <v>184.1</v>
       </c>
       <c r="F70" t="n">
-        <v>344.4405</v>
+        <v>109.6371</v>
       </c>
       <c r="G70" t="n">
-        <v>184.755</v>
+        <v>184.7666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>183.8</v>
+        <v>184.1</v>
       </c>
       <c r="C71" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="D71" t="n">
-        <v>183.8</v>
+        <v>184.1</v>
       </c>
       <c r="E71" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="F71" t="n">
-        <v>84.01909999999999</v>
+        <v>344.4405</v>
       </c>
       <c r="G71" t="n">
-        <v>184.74</v>
+        <v>184.755</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="C72" t="n">
-        <v>183.3</v>
+        <v>183.8</v>
       </c>
       <c r="D72" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="E72" t="n">
-        <v>183.3</v>
+        <v>183.8</v>
       </c>
       <c r="F72" t="n">
-        <v>534.8477</v>
+        <v>84.01909999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>184.6683333333333</v>
+        <v>184.74</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,32 +2918,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C73" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D73" t="n">
         <v>184</v>
       </c>
-      <c r="D73" t="n">
-        <v>185</v>
-      </c>
       <c r="E73" t="n">
-        <v>184</v>
+        <v>183.3</v>
       </c>
       <c r="F73" t="n">
-        <v>110</v>
+        <v>534.8477</v>
       </c>
       <c r="G73" t="n">
-        <v>184.6199999999999</v>
+        <v>184.6683333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>183.8</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +2962,19 @@
         <v>185</v>
       </c>
       <c r="C74" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" t="n">
         <v>185</v>
       </c>
       <c r="E74" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F74" t="n">
-        <v>25.13513513513514</v>
+        <v>110</v>
       </c>
       <c r="G74" t="n">
-        <v>184.6533333333333</v>
+        <v>184.6199999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +2984,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3010,10 @@
         <v>185</v>
       </c>
       <c r="F75" t="n">
-        <v>112.7362</v>
+        <v>25.13513513513514</v>
       </c>
       <c r="G75" t="n">
-        <v>184.6316666666666</v>
+        <v>184.6533333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3023,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3037,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C76" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D76" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E76" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F76" t="n">
-        <v>60</v>
+        <v>112.7362</v>
       </c>
       <c r="G76" t="n">
-        <v>184.6233333333333</v>
+        <v>184.6316666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3062,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3088,10 @@
         <v>184</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G77" t="n">
-        <v>184.615</v>
+        <v>184.6233333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3101,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3127,10 @@
         <v>184</v>
       </c>
       <c r="F78" t="n">
-        <v>67.3253</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>184.6033333333333</v>
+        <v>184.615</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3140,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3166,10 @@
         <v>184</v>
       </c>
       <c r="F79" t="n">
-        <v>1540</v>
+        <v>67.3253</v>
       </c>
       <c r="G79" t="n">
-        <v>184.5916666666666</v>
+        <v>184.6033333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3179,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3193,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="C80" t="n">
         <v>184</v>
       </c>
       <c r="D80" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
       <c r="E80" t="n">
         <v>184</v>
       </c>
       <c r="F80" t="n">
-        <v>2180</v>
+        <v>1540</v>
       </c>
       <c r="G80" t="n">
-        <v>184.5833333333333</v>
+        <v>184.5916666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3218,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3244,10 @@
         <v>184</v>
       </c>
       <c r="F81" t="n">
-        <v>5000</v>
+        <v>2180</v>
       </c>
       <c r="G81" t="n">
-        <v>184.5749999999999</v>
+        <v>184.5833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3257,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3271,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>186.3</v>
+        <v>184.1</v>
       </c>
       <c r="C82" t="n">
-        <v>186.3</v>
+        <v>184</v>
       </c>
       <c r="D82" t="n">
-        <v>186.3</v>
+        <v>184.1</v>
       </c>
       <c r="E82" t="n">
-        <v>186.3</v>
+        <v>184</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>184.5699999999999</v>
+        <v>184.5749999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3296,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3271,19 +3313,19 @@
         <v>186.3</v>
       </c>
       <c r="C83" t="n">
-        <v>183.4</v>
+        <v>186.3</v>
       </c>
       <c r="D83" t="n">
         <v>186.3</v>
       </c>
       <c r="E83" t="n">
-        <v>183.4</v>
+        <v>186.3</v>
       </c>
       <c r="F83" t="n">
-        <v>13177.267</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>184.5233333333332</v>
+        <v>184.5699999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3335,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3349,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>183.8</v>
+        <v>186.3</v>
       </c>
       <c r="C84" t="n">
-        <v>183.8</v>
+        <v>183.4</v>
       </c>
       <c r="D84" t="n">
-        <v>183.8</v>
+        <v>186.3</v>
       </c>
       <c r="E84" t="n">
-        <v>183.8</v>
+        <v>183.4</v>
       </c>
       <c r="F84" t="n">
-        <v>129.9539</v>
+        <v>13177.267</v>
       </c>
       <c r="G84" t="n">
-        <v>184.5033333333332</v>
+        <v>184.5233333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3374,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3388,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>183.5</v>
+        <v>183.8</v>
       </c>
       <c r="C85" t="n">
-        <v>183.5</v>
+        <v>183.8</v>
       </c>
       <c r="D85" t="n">
-        <v>183.5</v>
+        <v>183.8</v>
       </c>
       <c r="E85" t="n">
-        <v>183.5</v>
+        <v>183.8</v>
       </c>
       <c r="F85" t="n">
-        <v>2185.411</v>
+        <v>129.9539</v>
       </c>
       <c r="G85" t="n">
-        <v>184.4933333333332</v>
+        <v>184.5033333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3413,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3427,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>183.6</v>
+        <v>183.5</v>
       </c>
       <c r="C86" t="n">
-        <v>183</v>
+        <v>183.5</v>
       </c>
       <c r="D86" t="n">
-        <v>183.6</v>
+        <v>183.5</v>
       </c>
       <c r="E86" t="n">
-        <v>183</v>
+        <v>183.5</v>
       </c>
       <c r="F86" t="n">
-        <v>5795.6671</v>
+        <v>2185.411</v>
       </c>
       <c r="G86" t="n">
-        <v>184.4599999999999</v>
+        <v>184.4933333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3452,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3466,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>182.4</v>
+        <v>183.6</v>
       </c>
       <c r="C87" t="n">
-        <v>181.2</v>
+        <v>183</v>
       </c>
       <c r="D87" t="n">
-        <v>182.4</v>
+        <v>183.6</v>
       </c>
       <c r="E87" t="n">
-        <v>181.2</v>
+        <v>183</v>
       </c>
       <c r="F87" t="n">
-        <v>4106.9484</v>
+        <v>5795.6671</v>
       </c>
       <c r="G87" t="n">
-        <v>184.3966666666666</v>
+        <v>184.4599999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3491,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3508,19 @@
         <v>182.4</v>
       </c>
       <c r="C88" t="n">
-        <v>182.4</v>
+        <v>181.2</v>
       </c>
       <c r="D88" t="n">
         <v>182.4</v>
       </c>
       <c r="E88" t="n">
-        <v>182.4</v>
+        <v>181.2</v>
       </c>
       <c r="F88" t="n">
-        <v>4510.9475</v>
+        <v>4106.9484</v>
       </c>
       <c r="G88" t="n">
-        <v>184.3533333333332</v>
+        <v>184.3966666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3530,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3490,10 +3556,10 @@
         <v>182.4</v>
       </c>
       <c r="F89" t="n">
-        <v>410.9572</v>
+        <v>4510.9475</v>
       </c>
       <c r="G89" t="n">
-        <v>184.3066666666665</v>
+        <v>184.3533333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3569,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3595,10 @@
         <v>182.4</v>
       </c>
       <c r="F90" t="n">
-        <v>150</v>
+        <v>410.9572</v>
       </c>
       <c r="G90" t="n">
-        <v>184.2633333333332</v>
+        <v>184.3066666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3608,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3634,10 @@
         <v>182.4</v>
       </c>
       <c r="F91" t="n">
-        <v>39.0428</v>
+        <v>150</v>
       </c>
       <c r="G91" t="n">
-        <v>184.2216666666665</v>
+        <v>184.2633333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3647,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3661,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>182.1</v>
+        <v>182.4</v>
       </c>
       <c r="C92" t="n">
-        <v>182.1</v>
+        <v>182.4</v>
       </c>
       <c r="D92" t="n">
-        <v>182.1</v>
+        <v>182.4</v>
       </c>
       <c r="E92" t="n">
-        <v>182.1</v>
+        <v>182.4</v>
       </c>
       <c r="F92" t="n">
         <v>39.0428</v>
       </c>
       <c r="G92" t="n">
-        <v>184.1749999999999</v>
+        <v>184.2216666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3686,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3700,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
       </c>
       <c r="C93" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
       </c>
       <c r="D93" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
       </c>
       <c r="E93" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
       </c>
       <c r="F93" t="n">
-        <v>2428.7261</v>
+        <v>39.0428</v>
       </c>
       <c r="G93" t="n">
-        <v>184.1333333333332</v>
+        <v>184.1749999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3725,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3739,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>182.6</v>
+        <v>182.5</v>
       </c>
       <c r="C94" t="n">
-        <v>182.6</v>
+        <v>182.5</v>
       </c>
       <c r="D94" t="n">
-        <v>182.6</v>
+        <v>182.5</v>
       </c>
       <c r="E94" t="n">
-        <v>182.6</v>
+        <v>182.5</v>
       </c>
       <c r="F94" t="n">
-        <v>1829.8982</v>
+        <v>2428.7261</v>
       </c>
       <c r="G94" t="n">
-        <v>184.0949999999999</v>
+        <v>184.1333333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3764,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,10 +3790,10 @@
         <v>182.6</v>
       </c>
       <c r="F95" t="n">
-        <v>358.1817</v>
+        <v>1829.8982</v>
       </c>
       <c r="G95" t="n">
-        <v>184.0233333333332</v>
+        <v>184.0949999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3803,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3817,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>184</v>
+        <v>182.6</v>
       </c>
       <c r="C96" t="n">
-        <v>184</v>
+        <v>182.6</v>
       </c>
       <c r="D96" t="n">
-        <v>184</v>
+        <v>182.6</v>
       </c>
       <c r="E96" t="n">
-        <v>184</v>
+        <v>182.6</v>
       </c>
       <c r="F96" t="n">
-        <v>69.9834</v>
+        <v>358.1817</v>
       </c>
       <c r="G96" t="n">
-        <v>183.9749999999999</v>
+        <v>184.0233333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3842,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +3868,10 @@
         <v>184</v>
       </c>
       <c r="F97" t="n">
-        <v>3.8471</v>
+        <v>69.9834</v>
       </c>
       <c r="G97" t="n">
-        <v>183.9249999999999</v>
+        <v>183.9749999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3881,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3895,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="C98" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="D98" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="E98" t="n">
-        <v>184.9</v>
+        <v>184</v>
       </c>
       <c r="F98" t="n">
-        <v>696.8404</v>
+        <v>3.8471</v>
       </c>
       <c r="G98" t="n">
-        <v>183.9083333333332</v>
+        <v>183.9249999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +3920,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +3946,10 @@
         <v>184.9</v>
       </c>
       <c r="F99" t="n">
-        <v>1682</v>
+        <v>696.8404</v>
       </c>
       <c r="G99" t="n">
-        <v>183.8899999999999</v>
+        <v>183.9083333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +3959,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3973,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="C100" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="D100" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="E100" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="F100" t="n">
-        <v>131.4605</v>
+        <v>1682</v>
       </c>
       <c r="G100" t="n">
-        <v>183.9066666666666</v>
+        <v>183.8899999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +3998,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4012,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="C101" t="n">
-        <v>182.6</v>
+        <v>185</v>
       </c>
       <c r="D101" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="E101" t="n">
-        <v>182.6</v>
+        <v>185</v>
       </c>
       <c r="F101" t="n">
-        <v>10887.9234</v>
+        <v>131.4605</v>
       </c>
       <c r="G101" t="n">
-        <v>183.8349999999999</v>
+        <v>183.9066666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4037,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4051,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>183.1</v>
+        <v>186.3</v>
       </c>
       <c r="C102" t="n">
-        <v>185</v>
+        <v>182.6</v>
       </c>
       <c r="D102" t="n">
-        <v>185</v>
+        <v>186.3</v>
       </c>
       <c r="E102" t="n">
-        <v>183.1</v>
+        <v>182.6</v>
       </c>
       <c r="F102" t="n">
-        <v>846.8404</v>
+        <v>10887.9234</v>
       </c>
       <c r="G102" t="n">
-        <v>183.8199999999999</v>
+        <v>183.8349999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4076,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,7 +4090,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>185</v>
+        <v>183.1</v>
       </c>
       <c r="C103" t="n">
         <v>185</v>
@@ -3977,13 +4099,13 @@
         <v>185</v>
       </c>
       <c r="E103" t="n">
-        <v>185</v>
+        <v>183.1</v>
       </c>
       <c r="F103" t="n">
-        <v>40.4127</v>
+        <v>846.8404</v>
       </c>
       <c r="G103" t="n">
-        <v>183.8249999999999</v>
+        <v>183.8199999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4115,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4141,10 @@
         <v>185</v>
       </c>
       <c r="F104" t="n">
-        <v>5830</v>
+        <v>40.4127</v>
       </c>
       <c r="G104" t="n">
-        <v>183.8299999999999</v>
+        <v>183.8249999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4154,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4168,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="C105" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="D105" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="E105" t="n">
-        <v>186.3</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
-        <v>1861.9035</v>
+        <v>5830</v>
       </c>
       <c r="G105" t="n">
-        <v>183.8366666666666</v>
+        <v>183.8299999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4193,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4207,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>185.2</v>
+        <v>186.3</v>
       </c>
       <c r="C106" t="n">
-        <v>185.2</v>
+        <v>186.3</v>
       </c>
       <c r="D106" t="n">
-        <v>185.2</v>
+        <v>186.3</v>
       </c>
       <c r="E106" t="n">
-        <v>185.2</v>
+        <v>186.3</v>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>1861.9035</v>
       </c>
       <c r="G106" t="n">
-        <v>183.8583333333332</v>
+        <v>183.8366666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4232,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4246,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>186.2</v>
+        <v>185.2</v>
       </c>
       <c r="C107" t="n">
-        <v>185.1</v>
+        <v>185.2</v>
       </c>
       <c r="D107" t="n">
-        <v>186.2</v>
+        <v>185.2</v>
       </c>
       <c r="E107" t="n">
-        <v>185.1</v>
+        <v>185.2</v>
       </c>
       <c r="F107" t="n">
-        <v>10933.0304</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>183.8299999999999</v>
+        <v>183.8583333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4271,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4285,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>186.4</v>
+        <v>186.2</v>
       </c>
       <c r="C108" t="n">
-        <v>186.4</v>
+        <v>185.1</v>
       </c>
       <c r="D108" t="n">
-        <v>186.4</v>
+        <v>186.2</v>
       </c>
       <c r="E108" t="n">
-        <v>186.4</v>
+        <v>185.1</v>
       </c>
       <c r="F108" t="n">
-        <v>24.8461</v>
+        <v>10933.0304</v>
       </c>
       <c r="G108" t="n">
-        <v>183.8816666666666</v>
+        <v>183.8299999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4310,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +4336,10 @@
         <v>186.4</v>
       </c>
       <c r="F109" t="n">
-        <v>73</v>
+        <v>24.8461</v>
       </c>
       <c r="G109" t="n">
-        <v>183.9366666666666</v>
+        <v>183.8816666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4349,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4225,10 +4375,10 @@
         <v>186.4</v>
       </c>
       <c r="F110" t="n">
-        <v>3055.9129</v>
+        <v>73</v>
       </c>
       <c r="G110" t="n">
-        <v>183.9899999999999</v>
+        <v>183.9366666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4388,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,10 +4414,10 @@
         <v>186.4</v>
       </c>
       <c r="F111" t="n">
-        <v>5425.787</v>
+        <v>3055.9129</v>
       </c>
       <c r="G111" t="n">
-        <v>184.0433333333332</v>
+        <v>183.9899999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4427,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4295,10 +4453,10 @@
         <v>186.4</v>
       </c>
       <c r="F112" t="n">
-        <v>3821.0905</v>
+        <v>5425.787</v>
       </c>
       <c r="G112" t="n">
-        <v>184.0966666666665</v>
+        <v>184.0433333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4466,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4330,10 +4492,10 @@
         <v>186.4</v>
       </c>
       <c r="F113" t="n">
-        <v>1332.1542</v>
+        <v>3821.0905</v>
       </c>
       <c r="G113" t="n">
-        <v>184.1483333333332</v>
+        <v>184.0966666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4505,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4519,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>187.4</v>
+        <v>186.4</v>
       </c>
       <c r="C114" t="n">
-        <v>187.4</v>
+        <v>186.4</v>
       </c>
       <c r="D114" t="n">
-        <v>187.4</v>
+        <v>186.4</v>
       </c>
       <c r="E114" t="n">
-        <v>187.4</v>
+        <v>186.4</v>
       </c>
       <c r="F114" t="n">
-        <v>6141</v>
+        <v>1332.1542</v>
       </c>
       <c r="G114" t="n">
-        <v>184.2166666666666</v>
+        <v>184.1483333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4544,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4391,19 +4561,19 @@
         <v>187.4</v>
       </c>
       <c r="C115" t="n">
-        <v>188.9</v>
+        <v>187.4</v>
       </c>
       <c r="D115" t="n">
-        <v>188.9</v>
+        <v>187.4</v>
       </c>
       <c r="E115" t="n">
-        <v>187</v>
+        <v>187.4</v>
       </c>
       <c r="F115" t="n">
-        <v>6333.112562466914</v>
+        <v>6141</v>
       </c>
       <c r="G115" t="n">
-        <v>184.3099999999999</v>
+        <v>184.2166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4583,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,7 +4597,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>188.9</v>
+        <v>187.4</v>
       </c>
       <c r="C116" t="n">
         <v>188.9</v>
@@ -4432,13 +4606,13 @@
         <v>188.9</v>
       </c>
       <c r="E116" t="n">
-        <v>185.3</v>
+        <v>187</v>
       </c>
       <c r="F116" t="n">
-        <v>9928.717437533087</v>
+        <v>6333.112562466914</v>
       </c>
       <c r="G116" t="n">
-        <v>184.3916666666665</v>
+        <v>184.3099999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4622,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4636,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>186.9</v>
+        <v>188.9</v>
       </c>
       <c r="C117" t="n">
-        <v>186.9</v>
+        <v>188.9</v>
       </c>
       <c r="D117" t="n">
-        <v>186.9</v>
+        <v>188.9</v>
       </c>
       <c r="E117" t="n">
-        <v>186.9</v>
+        <v>185.3</v>
       </c>
       <c r="F117" t="n">
-        <v>1370</v>
+        <v>9928.717437533087</v>
       </c>
       <c r="G117" t="n">
-        <v>184.4249999999999</v>
+        <v>184.3916666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4661,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4675,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>188.9</v>
+        <v>186.9</v>
       </c>
       <c r="C118" t="n">
         <v>186.9</v>
       </c>
       <c r="D118" t="n">
-        <v>188.9</v>
+        <v>186.9</v>
       </c>
       <c r="E118" t="n">
         <v>186.9</v>
       </c>
       <c r="F118" t="n">
-        <v>496.0717</v>
+        <v>1370</v>
       </c>
       <c r="G118" t="n">
-        <v>184.4599999999999</v>
+        <v>184.4249999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4700,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4714,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>186.9</v>
+        <v>188.9</v>
       </c>
       <c r="C119" t="n">
         <v>186.9</v>
       </c>
       <c r="D119" t="n">
-        <v>186.9</v>
+        <v>188.9</v>
       </c>
       <c r="E119" t="n">
         <v>186.9</v>
       </c>
       <c r="F119" t="n">
-        <v>422.9877</v>
+        <v>496.0717</v>
       </c>
       <c r="G119" t="n">
-        <v>184.5083333333332</v>
+        <v>184.4599999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4739,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4575,10 +4765,10 @@
         <v>186.9</v>
       </c>
       <c r="F120" t="n">
-        <v>52.938</v>
+        <v>422.9877</v>
       </c>
       <c r="G120" t="n">
-        <v>184.5566666666665</v>
+        <v>184.5083333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4778,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4610,10 +4804,10 @@
         <v>186.9</v>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>52.938</v>
       </c>
       <c r="G121" t="n">
-        <v>184.6049999999999</v>
+        <v>184.5566666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +4817,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4645,10 +4843,10 @@
         <v>186.9</v>
       </c>
       <c r="F122" t="n">
-        <v>951.0128999999999</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>184.6533333333332</v>
+        <v>184.6049999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +4856,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +4882,10 @@
         <v>186.9</v>
       </c>
       <c r="F123" t="n">
-        <v>9134.6453</v>
+        <v>951.0128999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>184.7083333333332</v>
+        <v>184.6533333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4895,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4909,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>189</v>
+        <v>186.9</v>
       </c>
       <c r="C124" t="n">
-        <v>188</v>
+        <v>186.9</v>
       </c>
       <c r="D124" t="n">
-        <v>190</v>
+        <v>186.9</v>
       </c>
       <c r="E124" t="n">
-        <v>188</v>
+        <v>186.9</v>
       </c>
       <c r="F124" t="n">
-        <v>1404.0611</v>
+        <v>9134.6453</v>
       </c>
       <c r="G124" t="n">
-        <v>184.7866666666665</v>
+        <v>184.7083333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +4934,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4948,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="C125" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="D125" t="n">
-        <v>187.9</v>
+        <v>190</v>
       </c>
       <c r="E125" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="F125" t="n">
-        <v>150</v>
+        <v>1404.0611</v>
       </c>
       <c r="G125" t="n">
-        <v>184.8599999999998</v>
+        <v>184.7866666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +4973,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4785,10 +4999,10 @@
         <v>187.9</v>
       </c>
       <c r="F126" t="n">
-        <v>1861.9035</v>
+        <v>150</v>
       </c>
       <c r="G126" t="n">
-        <v>184.9099999999999</v>
+        <v>184.8599999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +5012,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4820,10 +5038,10 @@
         <v>187.9</v>
       </c>
       <c r="F127" t="n">
-        <v>10053.2701</v>
+        <v>1861.9035</v>
       </c>
       <c r="G127" t="n">
-        <v>184.9749999999999</v>
+        <v>184.9099999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +5051,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4855,10 +5077,10 @@
         <v>187.9</v>
       </c>
       <c r="F128" t="n">
-        <v>1213.0005</v>
+        <v>10053.2701</v>
       </c>
       <c r="G128" t="n">
-        <v>185.0383333333332</v>
+        <v>184.9749999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +5090,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +5104,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="C129" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="D129" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="E129" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="F129" t="n">
-        <v>220.0002</v>
+        <v>1213.0005</v>
       </c>
       <c r="G129" t="n">
-        <v>185.0999999999998</v>
+        <v>185.0383333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,7 +5129,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5143,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="C130" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="D130" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="E130" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="F130" t="n">
-        <v>40.0412</v>
+        <v>220.0002</v>
       </c>
       <c r="G130" t="n">
-        <v>185.1833333333331</v>
+        <v>185.0999999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,7 +5168,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5182,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C131" t="n">
-        <v>188.9</v>
+        <v>189</v>
       </c>
       <c r="D131" t="n">
-        <v>188.9</v>
+        <v>189</v>
       </c>
       <c r="E131" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F131" t="n">
-        <v>7032</v>
+        <v>40.0412</v>
       </c>
       <c r="G131" t="n">
-        <v>185.2683333333331</v>
+        <v>185.1833333333331</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,7 +5207,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5221,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>188.8</v>
+        <v>187</v>
       </c>
       <c r="C132" t="n">
-        <v>188.8</v>
+        <v>188.9</v>
       </c>
       <c r="D132" t="n">
-        <v>188.8</v>
+        <v>188.9</v>
       </c>
       <c r="E132" t="n">
-        <v>188.8</v>
+        <v>187</v>
       </c>
       <c r="F132" t="n">
-        <v>837</v>
+        <v>7032</v>
       </c>
       <c r="G132" t="n">
-        <v>185.3599999999998</v>
+        <v>185.2683333333331</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,7 +5246,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5260,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
       </c>
       <c r="C133" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
       </c>
       <c r="D133" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
       </c>
       <c r="E133" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
       </c>
       <c r="F133" t="n">
-        <v>100</v>
+        <v>837</v>
       </c>
       <c r="G133" t="n">
-        <v>185.4316666666665</v>
+        <v>185.3599999999998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,7 +5285,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5299,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>187</v>
+        <v>188.3</v>
       </c>
       <c r="C134" t="n">
-        <v>187</v>
+        <v>188.3</v>
       </c>
       <c r="D134" t="n">
-        <v>187</v>
+        <v>188.3</v>
       </c>
       <c r="E134" t="n">
-        <v>187</v>
+        <v>188.3</v>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>185.4649999999998</v>
+        <v>185.4316666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,7 +5324,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5338,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>188.3</v>
+        <v>187</v>
       </c>
       <c r="C135" t="n">
-        <v>187.5</v>
+        <v>187</v>
       </c>
       <c r="D135" t="n">
-        <v>188.3</v>
+        <v>187</v>
       </c>
       <c r="E135" t="n">
-        <v>187.5</v>
+        <v>187</v>
       </c>
       <c r="F135" t="n">
-        <v>1474.3661</v>
+        <v>1500</v>
       </c>
       <c r="G135" t="n">
-        <v>185.5066666666665</v>
+        <v>185.4649999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,7 +5363,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5377,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>187.8</v>
+        <v>188.3</v>
       </c>
       <c r="C136" t="n">
-        <v>188.5</v>
+        <v>187.5</v>
       </c>
       <c r="D136" t="n">
-        <v>188.5</v>
+        <v>188.3</v>
       </c>
       <c r="E136" t="n">
-        <v>187.8</v>
+        <v>187.5</v>
       </c>
       <c r="F136" t="n">
-        <v>462.6782</v>
+        <v>1474.3661</v>
       </c>
       <c r="G136" t="n">
-        <v>185.5816666666665</v>
+        <v>185.5066666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,7 +5402,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,7 +5416,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>188.5</v>
+        <v>187.8</v>
       </c>
       <c r="C137" t="n">
         <v>188.5</v>
@@ -5167,13 +5425,13 @@
         <v>188.5</v>
       </c>
       <c r="E137" t="n">
-        <v>188.5</v>
+        <v>187.8</v>
       </c>
       <c r="F137" t="n">
-        <v>495</v>
+        <v>462.6782</v>
       </c>
       <c r="G137" t="n">
-        <v>185.6566666666665</v>
+        <v>185.5816666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,7 +5441,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5455,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>189</v>
+        <v>188.5</v>
       </c>
       <c r="C138" t="n">
-        <v>187.7</v>
+        <v>188.5</v>
       </c>
       <c r="D138" t="n">
-        <v>189.9</v>
+        <v>188.5</v>
       </c>
       <c r="E138" t="n">
-        <v>187.7</v>
+        <v>188.5</v>
       </c>
       <c r="F138" t="n">
-        <v>2287.6665</v>
+        <v>495</v>
       </c>
       <c r="G138" t="n">
-        <v>185.7183333333332</v>
+        <v>185.6566666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,7 +5480,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5494,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C139" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="D139" t="n">
         <v>189.9</v>
       </c>
-      <c r="D139" t="n">
-        <v>192.5</v>
-      </c>
       <c r="E139" t="n">
-        <v>188</v>
+        <v>187.7</v>
       </c>
       <c r="F139" t="n">
-        <v>44040.285</v>
+        <v>2287.6665</v>
       </c>
       <c r="G139" t="n">
-        <v>185.8166666666665</v>
+        <v>185.7183333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,7 +5519,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5533,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C140" t="n">
         <v>189.9</v>
       </c>
       <c r="D140" t="n">
-        <v>194</v>
+        <v>192.5</v>
       </c>
       <c r="E140" t="n">
-        <v>189.9</v>
+        <v>188</v>
       </c>
       <c r="F140" t="n">
-        <v>6000.7814</v>
+        <v>44040.285</v>
       </c>
       <c r="G140" t="n">
-        <v>185.9149999999998</v>
+        <v>185.8166666666665</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,7 +5558,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5572,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C141" t="n">
         <v>189.9</v>
       </c>
       <c r="D141" t="n">
-        <v>190.9</v>
+        <v>194</v>
       </c>
       <c r="E141" t="n">
         <v>189.9</v>
       </c>
       <c r="F141" t="n">
-        <v>770.7578</v>
+        <v>6000.7814</v>
       </c>
       <c r="G141" t="n">
-        <v>186.0133333333332</v>
+        <v>185.9149999999998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5597,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5611,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>194</v>
+        <v>190.9</v>
       </c>
       <c r="C142" t="n">
         <v>189.9</v>
       </c>
       <c r="D142" t="n">
-        <v>194</v>
+        <v>190.9</v>
       </c>
       <c r="E142" t="n">
         <v>189.9</v>
       </c>
       <c r="F142" t="n">
-        <v>2542.3447</v>
+        <v>770.7578</v>
       </c>
       <c r="G142" t="n">
-        <v>186.0733333333332</v>
+        <v>186.0133333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5636,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,10 +5650,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>194</v>
+      </c>
+      <c r="C143" t="n">
         <v>189.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>194</v>
       </c>
       <c r="D143" t="n">
         <v>194</v>
@@ -5380,10 +5662,10 @@
         <v>189.9</v>
       </c>
       <c r="F143" t="n">
-        <v>3359.0199</v>
+        <v>2542.3447</v>
       </c>
       <c r="G143" t="n">
-        <v>186.2499999999998</v>
+        <v>186.0733333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5675,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5689,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>193</v>
+        <v>189.9</v>
       </c>
       <c r="C144" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D144" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E144" t="n">
-        <v>193</v>
+        <v>189.9</v>
       </c>
       <c r="F144" t="n">
-        <v>422.4021</v>
+        <v>3359.0199</v>
       </c>
       <c r="G144" t="n">
-        <v>186.4033333333332</v>
+        <v>186.2499999999998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5714,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5441,19 +5731,19 @@
         <v>193</v>
       </c>
       <c r="C145" t="n">
-        <v>195.9</v>
+        <v>193</v>
       </c>
       <c r="D145" t="n">
-        <v>195.9</v>
+        <v>193</v>
       </c>
       <c r="E145" t="n">
         <v>193</v>
       </c>
       <c r="F145" t="n">
-        <v>4302.5982</v>
+        <v>422.4021</v>
       </c>
       <c r="G145" t="n">
-        <v>186.6099999999998</v>
+        <v>186.4033333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5753,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5767,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>193</v>
+      </c>
+      <c r="C146" t="n">
         <v>195.9</v>
       </c>
-      <c r="C146" t="n">
-        <v>202</v>
-      </c>
       <c r="D146" t="n">
-        <v>202</v>
+        <v>195.9</v>
       </c>
       <c r="E146" t="n">
-        <v>195.9</v>
+        <v>193</v>
       </c>
       <c r="F146" t="n">
-        <v>55093.9469189604</v>
+        <v>4302.5982</v>
       </c>
       <c r="G146" t="n">
-        <v>186.9266666666665</v>
+        <v>186.6099999999998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5792,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5806,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>201.9</v>
+        <v>195.9</v>
       </c>
       <c r="C147" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D147" t="n">
-        <v>211.5</v>
+        <v>202</v>
       </c>
       <c r="E147" t="n">
-        <v>201.9</v>
+        <v>195.9</v>
       </c>
       <c r="F147" t="n">
-        <v>104315.2083462743</v>
+        <v>55093.9469189604</v>
       </c>
       <c r="G147" t="n">
-        <v>187.4066666666665</v>
+        <v>186.9266666666665</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +5831,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +5845,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>206</v>
+        <v>201.9</v>
       </c>
       <c r="C148" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D148" t="n">
-        <v>209</v>
+        <v>211.5</v>
       </c>
       <c r="E148" t="n">
-        <v>204</v>
+        <v>201.9</v>
       </c>
       <c r="F148" t="n">
-        <v>17345.843</v>
+        <v>104315.2083462743</v>
       </c>
       <c r="G148" t="n">
-        <v>187.8499999999998</v>
+        <v>187.4066666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +5870,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,32 +5884,36 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>206</v>
+      </c>
+      <c r="C149" t="n">
         <v>209</v>
-      </c>
-      <c r="C149" t="n">
-        <v>203</v>
       </c>
       <c r="D149" t="n">
         <v>209</v>
       </c>
       <c r="E149" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F149" t="n">
-        <v>106076.6586</v>
+        <v>17345.843</v>
       </c>
       <c r="G149" t="n">
-        <v>188.1933333333332</v>
+        <v>187.8499999999998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,32 +5923,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C150" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D150" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E150" t="n">
-        <v>195.2</v>
+        <v>192</v>
       </c>
       <c r="F150" t="n">
-        <v>15855.09333</v>
+        <v>106076.6586</v>
       </c>
       <c r="G150" t="n">
-        <v>188.5199999999998</v>
+        <v>188.1933333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +5962,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>196</v>
+      </c>
+      <c r="C151" t="n">
         <v>202</v>
-      </c>
-      <c r="C151" t="n">
-        <v>201</v>
       </c>
       <c r="D151" t="n">
         <v>202</v>
       </c>
       <c r="E151" t="n">
-        <v>200.1</v>
+        <v>195.2</v>
       </c>
       <c r="F151" t="n">
-        <v>27330.86496257426</v>
+        <v>15855.09333</v>
       </c>
       <c r="G151" t="n">
-        <v>188.8299999999998</v>
+        <v>188.5199999999998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +5987,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +6001,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C152" t="n">
         <v>201</v>
       </c>
       <c r="D152" t="n">
-        <v>201.1</v>
+        <v>202</v>
       </c>
       <c r="E152" t="n">
-        <v>200</v>
+        <v>200.1</v>
       </c>
       <c r="F152" t="n">
-        <v>3430.9112</v>
+        <v>27330.86496257426</v>
       </c>
       <c r="G152" t="n">
-        <v>189.1449999999998</v>
+        <v>188.8299999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,7 +6026,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5721,19 +6043,19 @@
         <v>201</v>
       </c>
       <c r="C153" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D153" t="n">
-        <v>204</v>
+        <v>201.1</v>
       </c>
       <c r="E153" t="n">
         <v>200</v>
       </c>
       <c r="F153" t="n">
-        <v>12053.89255882353</v>
+        <v>3430.9112</v>
       </c>
       <c r="G153" t="n">
-        <v>189.4366666666665</v>
+        <v>189.1449999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,7 +6065,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +6079,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>201.3</v>
+        <v>201</v>
       </c>
       <c r="C154" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D154" t="n">
-        <v>201.3</v>
+        <v>204</v>
       </c>
       <c r="E154" t="n">
         <v>200</v>
       </c>
       <c r="F154" t="n">
-        <v>13942.2131</v>
+        <v>12053.89255882353</v>
       </c>
       <c r="G154" t="n">
-        <v>189.7433333333332</v>
+        <v>189.4366666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,7 +6104,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +6118,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>202</v>
+        <v>201.3</v>
       </c>
       <c r="C155" t="n">
-        <v>203.9</v>
+        <v>201</v>
       </c>
       <c r="D155" t="n">
-        <v>203.9</v>
+        <v>201.3</v>
       </c>
       <c r="E155" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F155" t="n">
-        <v>281.2423</v>
+        <v>13942.2131</v>
       </c>
       <c r="G155" t="n">
-        <v>190.0983333333332</v>
+        <v>189.7433333333332</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,7 +6143,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +6157,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>202</v>
+      </c>
+      <c r="C156" t="n">
         <v>203.9</v>
-      </c>
-      <c r="C156" t="n">
-        <v>201.5</v>
       </c>
       <c r="D156" t="n">
         <v>203.9</v>
       </c>
       <c r="E156" t="n">
-        <v>201.5</v>
+        <v>202</v>
       </c>
       <c r="F156" t="n">
-        <v>980.0167</v>
+        <v>281.2423</v>
       </c>
       <c r="G156" t="n">
-        <v>190.3899999999998</v>
+        <v>190.0983333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,7 +6182,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6196,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>202</v>
+        <v>203.9</v>
       </c>
       <c r="C157" t="n">
-        <v>195.2</v>
+        <v>201.5</v>
       </c>
       <c r="D157" t="n">
-        <v>202</v>
+        <v>203.9</v>
       </c>
       <c r="E157" t="n">
-        <v>195.2</v>
+        <v>201.5</v>
       </c>
       <c r="F157" t="n">
-        <v>4742.1027</v>
+        <v>980.0167</v>
       </c>
       <c r="G157" t="n">
-        <v>190.5766666666665</v>
+        <v>190.3899999999998</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,7 +6221,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6235,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C158" t="n">
-        <v>203</v>
+        <v>195.2</v>
       </c>
       <c r="D158" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E158" t="n">
-        <v>199.2</v>
+        <v>195.2</v>
       </c>
       <c r="F158" t="n">
-        <v>766.7354</v>
+        <v>4742.1027</v>
       </c>
       <c r="G158" t="n">
-        <v>190.8783333333332</v>
+        <v>190.5766666666665</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,7 +6260,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,22 +6274,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>203.2</v>
+        <v>201</v>
       </c>
       <c r="C159" t="n">
-        <v>206.8</v>
+        <v>203</v>
       </c>
       <c r="D159" t="n">
-        <v>206.8</v>
+        <v>203</v>
       </c>
       <c r="E159" t="n">
-        <v>203.2</v>
+        <v>199.2</v>
       </c>
       <c r="F159" t="n">
-        <v>28308.6185</v>
+        <v>766.7354</v>
       </c>
       <c r="G159" t="n">
-        <v>191.2433333333332</v>
+        <v>190.8783333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,7 +6299,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6313,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>206.9</v>
+        <v>203.2</v>
       </c>
       <c r="C160" t="n">
-        <v>212</v>
+        <v>206.8</v>
       </c>
       <c r="D160" t="n">
-        <v>212.6</v>
+        <v>206.8</v>
       </c>
       <c r="E160" t="n">
-        <v>204</v>
+        <v>203.2</v>
       </c>
       <c r="F160" t="n">
-        <v>47032.24212261489</v>
+        <v>28308.6185</v>
       </c>
       <c r="G160" t="n">
-        <v>191.6933333333332</v>
+        <v>191.2433333333332</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,7 +6338,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6352,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>211</v>
+        <v>206.9</v>
       </c>
       <c r="C161" t="n">
-        <v>213.5</v>
+        <v>212</v>
       </c>
       <c r="D161" t="n">
-        <v>213.5</v>
+        <v>212.6</v>
       </c>
       <c r="E161" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F161" t="n">
-        <v>38983.60057738511</v>
+        <v>47032.24212261489</v>
       </c>
       <c r="G161" t="n">
-        <v>192.2083333333331</v>
+        <v>191.6933333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,7 +6377,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +6391,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>211</v>
+      </c>
+      <c r="C162" t="n">
         <v>213.5</v>
       </c>
-      <c r="C162" t="n">
-        <v>211</v>
-      </c>
       <c r="D162" t="n">
-        <v>217.8</v>
+        <v>213.5</v>
       </c>
       <c r="E162" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F162" t="n">
-        <v>94356.66012040012</v>
+        <v>38983.60057738511</v>
       </c>
       <c r="G162" t="n">
-        <v>192.6416666666665</v>
+        <v>192.2083333333331</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,7 +6416,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6068,63 +6430,65 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>212</v>
+        <v>213.5</v>
       </c>
       <c r="C163" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D163" t="n">
-        <v>215.8</v>
+        <v>217.8</v>
       </c>
       <c r="E163" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F163" t="n">
-        <v>19645.64198943166</v>
+        <v>94356.66012040012</v>
       </c>
       <c r="G163" t="n">
-        <v>193.1083333333331</v>
+        <v>192.6416666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>212</v>
+      </c>
+      <c r="C164" t="n">
+        <v>213</v>
+      </c>
+      <c r="D164" t="n">
         <v>215.8</v>
       </c>
-      <c r="C164" t="n">
-        <v>218</v>
-      </c>
-      <c r="D164" t="n">
-        <v>218</v>
-      </c>
       <c r="E164" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F164" t="n">
-        <v>93773.11810000001</v>
+        <v>19645.64198943166</v>
       </c>
       <c r="G164" t="n">
-        <v>193.6583333333332</v>
+        <v>193.1083333333331</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6138,28 +6502,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>218.3</v>
+        <v>215.8</v>
       </c>
       <c r="C165" t="n">
-        <v>226.2</v>
+        <v>218</v>
       </c>
       <c r="D165" t="n">
-        <v>226.2</v>
+        <v>218</v>
       </c>
       <c r="E165" t="n">
-        <v>218.3</v>
+        <v>214</v>
       </c>
       <c r="F165" t="n">
-        <v>157976.7356117595</v>
+        <v>93773.11810000001</v>
       </c>
       <c r="G165" t="n">
-        <v>194.3233333333332</v>
+        <v>193.6583333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6173,7 +6537,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>223.5</v>
+        <v>218.3</v>
       </c>
       <c r="C166" t="n">
         <v>226.2</v>
@@ -6182,19 +6546,19 @@
         <v>226.2</v>
       </c>
       <c r="E166" t="n">
-        <v>223.5</v>
+        <v>218.3</v>
       </c>
       <c r="F166" t="n">
-        <v>24626.44746569408</v>
+        <v>157976.7356117595</v>
       </c>
       <c r="G166" t="n">
-        <v>195.0066666666665</v>
+        <v>194.3233333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6208,28 +6572,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>225</v>
+        <v>223.5</v>
       </c>
       <c r="C167" t="n">
         <v>226.2</v>
       </c>
       <c r="D167" t="n">
-        <v>227</v>
+        <v>226.2</v>
       </c>
       <c r="E167" t="n">
-        <v>219.8</v>
+        <v>223.5</v>
       </c>
       <c r="F167" t="n">
-        <v>49555.7137</v>
+        <v>24626.44746569408</v>
       </c>
       <c r="G167" t="n">
-        <v>195.6916666666665</v>
+        <v>195.0066666666665</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6243,28 +6607,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>225</v>
+      </c>
+      <c r="C168" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="D168" t="n">
         <v>227</v>
       </c>
-      <c r="C168" t="n">
-        <v>230.9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>233.2</v>
-      </c>
       <c r="E168" t="n">
-        <v>223</v>
+        <v>219.8</v>
       </c>
       <c r="F168" t="n">
-        <v>66172.58219013781</v>
+        <v>49555.7137</v>
       </c>
       <c r="G168" t="n">
-        <v>196.4333333333332</v>
+        <v>195.6916666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6278,22 +6642,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>227</v>
+      </c>
+      <c r="C169" t="n">
         <v>230.9</v>
       </c>
-      <c r="C169" t="n">
-        <v>225.1</v>
-      </c>
       <c r="D169" t="n">
-        <v>233</v>
+        <v>233.2</v>
       </c>
       <c r="E169" t="n">
-        <v>208.2</v>
+        <v>223</v>
       </c>
       <c r="F169" t="n">
-        <v>39477.20457411317</v>
+        <v>66172.58219013781</v>
       </c>
       <c r="G169" t="n">
-        <v>197.0783333333332</v>
+        <v>196.4333333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6677,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>222.9</v>
+        <v>230.9</v>
       </c>
       <c r="C170" t="n">
-        <v>225</v>
+        <v>225.1</v>
       </c>
       <c r="D170" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E170" t="n">
-        <v>222.9</v>
+        <v>208.2</v>
       </c>
       <c r="F170" t="n">
-        <v>44404.3076</v>
+        <v>39477.20457411317</v>
       </c>
       <c r="G170" t="n">
-        <v>197.7216666666665</v>
+        <v>197.0783333333332</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6712,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C171" t="n">
         <v>225</v>
-      </c>
-      <c r="C171" t="n">
-        <v>218.8</v>
       </c>
       <c r="D171" t="n">
         <v>225</v>
       </c>
       <c r="E171" t="n">
-        <v>218.8</v>
+        <v>222.9</v>
       </c>
       <c r="F171" t="n">
-        <v>46825.3094</v>
+        <v>44404.3076</v>
       </c>
       <c r="G171" t="n">
-        <v>198.2616666666665</v>
+        <v>197.7216666666665</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6747,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>215.5</v>
+        <v>225</v>
       </c>
       <c r="C172" t="n">
-        <v>221.7</v>
+        <v>218.8</v>
       </c>
       <c r="D172" t="n">
-        <v>224.1</v>
+        <v>225</v>
       </c>
       <c r="E172" t="n">
-        <v>215.3</v>
+        <v>218.8</v>
       </c>
       <c r="F172" t="n">
-        <v>21911.21280951736</v>
+        <v>46825.3094</v>
       </c>
       <c r="G172" t="n">
-        <v>198.8499999999999</v>
+        <v>198.2616666666665</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,7 +6782,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>221.7</v>
+        <v>215.5</v>
       </c>
       <c r="C173" t="n">
         <v>221.7</v>
@@ -6427,13 +6791,13 @@
         <v>224.1</v>
       </c>
       <c r="E173" t="n">
-        <v>220</v>
+        <v>215.3</v>
       </c>
       <c r="F173" t="n">
-        <v>63455.65709048264</v>
+        <v>21911.21280951736</v>
       </c>
       <c r="G173" t="n">
-        <v>199.4383333333332</v>
+        <v>198.8499999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6817,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>224</v>
+        <v>221.7</v>
       </c>
       <c r="C174" t="n">
         <v>221.7</v>
       </c>
       <c r="D174" t="n">
-        <v>224</v>
+        <v>224.1</v>
       </c>
       <c r="E174" t="n">
-        <v>221.7</v>
+        <v>220</v>
       </c>
       <c r="F174" t="n">
-        <v>1020</v>
+        <v>63455.65709048264</v>
       </c>
       <c r="G174" t="n">
-        <v>200.0099999999999</v>
+        <v>199.4383333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6852,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>223.9</v>
+        <v>224</v>
       </c>
       <c r="C175" t="n">
-        <v>224</v>
+        <v>221.7</v>
       </c>
       <c r="D175" t="n">
         <v>224</v>
       </c>
       <c r="E175" t="n">
-        <v>221.9</v>
+        <v>221.7</v>
       </c>
       <c r="F175" t="n">
-        <v>3431.4157</v>
+        <v>1020</v>
       </c>
       <c r="G175" t="n">
-        <v>200.5949999999999</v>
+        <v>200.0099999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6887,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>221.9</v>
+        <v>223.9</v>
       </c>
       <c r="C176" t="n">
         <v>224</v>
@@ -6535,10 +6899,10 @@
         <v>221.9</v>
       </c>
       <c r="F176" t="n">
-        <v>2683.5054</v>
+        <v>3431.4157</v>
       </c>
       <c r="G176" t="n">
-        <v>201.1799999999999</v>
+        <v>200.5949999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6922,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>222</v>
+        <v>221.9</v>
       </c>
       <c r="C177" t="n">
-        <v>221.4</v>
+        <v>224</v>
       </c>
       <c r="D177" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E177" t="n">
-        <v>221.4</v>
+        <v>221.9</v>
       </c>
       <c r="F177" t="n">
-        <v>31426.7184</v>
+        <v>2683.5054</v>
       </c>
       <c r="G177" t="n">
-        <v>201.7549999999999</v>
+        <v>201.1799999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6957,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>221.7</v>
+        <v>222</v>
       </c>
       <c r="C178" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="D178" t="n">
         <v>222</v>
       </c>
-      <c r="D178" t="n">
-        <v>225.5</v>
-      </c>
       <c r="E178" t="n">
-        <v>216</v>
+        <v>221.4</v>
       </c>
       <c r="F178" t="n">
-        <v>24365.1629</v>
+        <v>31426.7184</v>
       </c>
       <c r="G178" t="n">
-        <v>202.3399999999999</v>
+        <v>201.7549999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6992,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>223.4</v>
+        <v>221.7</v>
       </c>
       <c r="C179" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D179" t="n">
-        <v>224.4</v>
+        <v>225.5</v>
       </c>
       <c r="E179" t="n">
-        <v>213.2</v>
+        <v>216</v>
       </c>
       <c r="F179" t="n">
-        <v>68526.0775</v>
+        <v>24365.1629</v>
       </c>
       <c r="G179" t="n">
-        <v>202.8749999999999</v>
+        <v>202.3399999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7027,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>217</v>
+        <v>223.4</v>
       </c>
       <c r="C180" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D180" t="n">
-        <v>219</v>
+        <v>224.4</v>
       </c>
       <c r="E180" t="n">
-        <v>214.1</v>
+        <v>213.2</v>
       </c>
       <c r="F180" t="n">
-        <v>11332.8019</v>
+        <v>68526.0775</v>
       </c>
       <c r="G180" t="n">
-        <v>203.3766666666666</v>
+        <v>202.8749999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +7065,19 @@
         <v>217</v>
       </c>
       <c r="C181" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D181" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E181" t="n">
-        <v>217</v>
+        <v>214.1</v>
       </c>
       <c r="F181" t="n">
-        <v>14638.0744</v>
+        <v>11332.8019</v>
       </c>
       <c r="G181" t="n">
-        <v>203.895</v>
+        <v>203.3766666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +7097,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C182" t="n">
         <v>218</v>
       </c>
       <c r="D182" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E182" t="n">
-        <v>215.3</v>
+        <v>217</v>
       </c>
       <c r="F182" t="n">
-        <v>7268.286496788991</v>
+        <v>14638.0744</v>
       </c>
       <c r="G182" t="n">
-        <v>204.4133333333333</v>
+        <v>203.895</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6771,19 +7135,19 @@
         <v>218</v>
       </c>
       <c r="C183" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D183" t="n">
-        <v>222.1</v>
+        <v>218</v>
       </c>
       <c r="E183" t="n">
-        <v>218</v>
+        <v>215.3</v>
       </c>
       <c r="F183" t="n">
-        <v>33143.28350321101</v>
+        <v>7268.286496788991</v>
       </c>
       <c r="G183" t="n">
-        <v>204.965</v>
+        <v>204.4133333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +7167,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C184" t="n">
         <v>220</v>
       </c>
       <c r="D184" t="n">
-        <v>220</v>
+        <v>222.1</v>
       </c>
       <c r="E184" t="n">
         <v>218</v>
       </c>
       <c r="F184" t="n">
-        <v>15613.1598</v>
+        <v>33143.28350321101</v>
       </c>
       <c r="G184" t="n">
-        <v>205.4983333333333</v>
+        <v>204.965</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7202,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>221.1</v>
+        <v>220</v>
       </c>
       <c r="C185" t="n">
-        <v>223.2</v>
+        <v>220</v>
       </c>
       <c r="D185" t="n">
-        <v>223.2</v>
+        <v>220</v>
       </c>
       <c r="E185" t="n">
-        <v>221.1</v>
+        <v>218</v>
       </c>
       <c r="F185" t="n">
-        <v>13922.7768</v>
+        <v>15613.1598</v>
       </c>
       <c r="G185" t="n">
-        <v>206.0866666666666</v>
+        <v>205.4983333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7237,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>224.3</v>
+        <v>221.1</v>
       </c>
       <c r="C186" t="n">
-        <v>224.3</v>
+        <v>223.2</v>
       </c>
       <c r="D186" t="n">
-        <v>224.3</v>
+        <v>223.2</v>
       </c>
       <c r="E186" t="n">
-        <v>222.2</v>
+        <v>221.1</v>
       </c>
       <c r="F186" t="n">
-        <v>12752.8499</v>
+        <v>13922.7768</v>
       </c>
       <c r="G186" t="n">
-        <v>206.6933333333333</v>
+        <v>206.0866666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7272,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>224.2</v>
+        <v>224.3</v>
       </c>
       <c r="C187" t="n">
-        <v>223.3</v>
+        <v>224.3</v>
       </c>
       <c r="D187" t="n">
-        <v>225</v>
+        <v>224.3</v>
       </c>
       <c r="E187" t="n">
-        <v>215.5</v>
+        <v>222.2</v>
       </c>
       <c r="F187" t="n">
-        <v>34179.99506444445</v>
+        <v>12752.8499</v>
       </c>
       <c r="G187" t="n">
-        <v>207.2833333333333</v>
+        <v>206.6933333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +7307,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="C188" t="n">
         <v>223.3</v>
       </c>
-      <c r="C188" t="n">
-        <v>225.5</v>
-      </c>
       <c r="D188" t="n">
-        <v>225.5</v>
+        <v>225</v>
       </c>
       <c r="E188" t="n">
-        <v>222</v>
+        <v>215.5</v>
       </c>
       <c r="F188" t="n">
-        <v>14162.8441</v>
+        <v>34179.99506444445</v>
       </c>
       <c r="G188" t="n">
-        <v>207.91</v>
+        <v>207.2833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7342,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>223</v>
+        <v>223.3</v>
       </c>
       <c r="C189" t="n">
-        <v>227.7</v>
+        <v>225.5</v>
       </c>
       <c r="D189" t="n">
-        <v>227.7</v>
+        <v>225.5</v>
       </c>
       <c r="E189" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F189" t="n">
-        <v>12850.41423555556</v>
+        <v>14162.8441</v>
       </c>
       <c r="G189" t="n">
-        <v>208.575</v>
+        <v>207.91</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7377,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>227.8</v>
+        <v>223</v>
       </c>
       <c r="C190" t="n">
-        <v>226.8</v>
+        <v>227.7</v>
       </c>
       <c r="D190" t="n">
-        <v>229.6</v>
+        <v>227.7</v>
       </c>
       <c r="E190" t="n">
-        <v>223.3</v>
+        <v>223</v>
       </c>
       <c r="F190" t="n">
-        <v>62217.45985516249</v>
+        <v>12850.41423555556</v>
       </c>
       <c r="G190" t="n">
-        <v>209.205</v>
+        <v>208.575</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7412,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>224</v>
+        <v>227.8</v>
       </c>
       <c r="C191" t="n">
         <v>226.8</v>
       </c>
       <c r="D191" t="n">
-        <v>226.8</v>
+        <v>229.6</v>
       </c>
       <c r="E191" t="n">
-        <v>223.9</v>
+        <v>223.3</v>
       </c>
       <c r="F191" t="n">
-        <v>4605.2506</v>
+        <v>62217.45985516249</v>
       </c>
       <c r="G191" t="n">
-        <v>209.8366666666666</v>
+        <v>209.205</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7447,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>224.5</v>
+        <v>224</v>
       </c>
       <c r="C192" t="n">
-        <v>227.8</v>
+        <v>226.8</v>
       </c>
       <c r="D192" t="n">
-        <v>229</v>
+        <v>226.8</v>
       </c>
       <c r="E192" t="n">
-        <v>224.5</v>
+        <v>223.9</v>
       </c>
       <c r="F192" t="n">
-        <v>52979.61699473222</v>
+        <v>4605.2506</v>
       </c>
       <c r="G192" t="n">
-        <v>210.4866666666667</v>
+        <v>209.8366666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7482,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>226.1</v>
+        <v>224.5</v>
       </c>
       <c r="C193" t="n">
-        <v>226.8</v>
+        <v>227.8</v>
       </c>
       <c r="D193" t="n">
-        <v>228.1</v>
+        <v>229</v>
       </c>
       <c r="E193" t="n">
-        <v>225</v>
+        <v>224.5</v>
       </c>
       <c r="F193" t="n">
-        <v>17257.3165</v>
+        <v>52979.61699473222</v>
       </c>
       <c r="G193" t="n">
-        <v>211.1283333333333</v>
+        <v>210.4866666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7517,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C194" t="n">
         <v>226.8</v>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
+        <v>228.1</v>
+      </c>
+      <c r="E194" t="n">
         <v>225</v>
       </c>
-      <c r="D194" t="n">
-        <v>228</v>
-      </c>
-      <c r="E194" t="n">
-        <v>224.6</v>
-      </c>
       <c r="F194" t="n">
-        <v>27758.35473385965</v>
+        <v>17257.3165</v>
       </c>
       <c r="G194" t="n">
-        <v>211.7616666666667</v>
+        <v>211.1283333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7552,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>228.1</v>
+        <v>226.8</v>
       </c>
       <c r="C195" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D195" t="n">
-        <v>228.1</v>
+        <v>228</v>
       </c>
       <c r="E195" t="n">
-        <v>223.3</v>
+        <v>224.6</v>
       </c>
       <c r="F195" t="n">
-        <v>30871.7556</v>
+        <v>27758.35473385965</v>
       </c>
       <c r="G195" t="n">
-        <v>212.4033333333333</v>
+        <v>211.7616666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7587,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>223.4</v>
+        <v>228.1</v>
       </c>
       <c r="C196" t="n">
         <v>226</v>
       </c>
       <c r="D196" t="n">
-        <v>226</v>
+        <v>228.1</v>
       </c>
       <c r="E196" t="n">
         <v>223.3</v>
       </c>
       <c r="F196" t="n">
-        <v>56665.75008761062</v>
+        <v>30871.7556</v>
       </c>
       <c r="G196" t="n">
-        <v>213.0283333333333</v>
+        <v>212.4033333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7622,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="C197" t="n">
         <v>226</v>
-      </c>
-      <c r="C197" t="n">
-        <v>224</v>
       </c>
       <c r="D197" t="n">
         <v>226</v>
       </c>
       <c r="E197" t="n">
-        <v>224</v>
+        <v>223.3</v>
       </c>
       <c r="F197" t="n">
-        <v>22077.3567</v>
+        <v>56665.75008761062</v>
       </c>
       <c r="G197" t="n">
-        <v>213.62</v>
+        <v>213.0283333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7657,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>226</v>
+      </c>
+      <c r="C198" t="n">
         <v>224</v>
       </c>
-      <c r="C198" t="n">
-        <v>220</v>
-      </c>
       <c r="D198" t="n">
+        <v>226</v>
+      </c>
+      <c r="E198" t="n">
         <v>224</v>
       </c>
-      <c r="E198" t="n">
-        <v>218</v>
-      </c>
       <c r="F198" t="n">
-        <v>13422.8366</v>
+        <v>22077.3567</v>
       </c>
       <c r="G198" t="n">
-        <v>214.1583333333333</v>
+        <v>213.62</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7692,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C199" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D199" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E199" t="n">
-        <v>218.1</v>
+        <v>218</v>
       </c>
       <c r="F199" t="n">
-        <v>24017.2914</v>
+        <v>13422.8366</v>
       </c>
       <c r="G199" t="n">
-        <v>214.6433333333333</v>
+        <v>214.1583333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7727,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C200" t="n">
-        <v>219.9</v>
+        <v>219</v>
       </c>
       <c r="D200" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E200" t="n">
-        <v>218</v>
+        <v>218.1</v>
       </c>
       <c r="F200" t="n">
-        <v>30656.4574</v>
+        <v>24017.2914</v>
       </c>
       <c r="G200" t="n">
-        <v>215.1433333333333</v>
+        <v>214.6433333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7762,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>220</v>
+      </c>
+      <c r="C201" t="n">
         <v>219.9</v>
       </c>
-      <c r="C201" t="n">
-        <v>217.1</v>
-      </c>
       <c r="D201" t="n">
-        <v>227.9</v>
+        <v>220</v>
       </c>
       <c r="E201" t="n">
-        <v>213.7</v>
+        <v>218</v>
       </c>
       <c r="F201" t="n">
-        <v>85007.5307758666</v>
+        <v>30656.4574</v>
       </c>
       <c r="G201" t="n">
-        <v>215.5966666666667</v>
+        <v>215.1433333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7797,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>219.1</v>
+        <v>219.9</v>
       </c>
       <c r="C202" t="n">
-        <v>213.2</v>
+        <v>217.1</v>
       </c>
       <c r="D202" t="n">
-        <v>220</v>
+        <v>227.9</v>
       </c>
       <c r="E202" t="n">
-        <v>213.2</v>
+        <v>213.7</v>
       </c>
       <c r="F202" t="n">
-        <v>18543.63545895454</v>
+        <v>85007.5307758666</v>
       </c>
       <c r="G202" t="n">
-        <v>215.985</v>
+        <v>215.5966666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7832,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="C203" t="n">
         <v>213.2</v>
       </c>
-      <c r="C203" t="n">
-        <v>221</v>
-      </c>
       <c r="D203" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E203" t="n">
         <v>213.2</v>
       </c>
       <c r="F203" t="n">
-        <v>16313.3030555455</v>
+        <v>18543.63545895454</v>
       </c>
       <c r="G203" t="n">
-        <v>216.435</v>
+        <v>215.985</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7867,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>220.9</v>
+        <v>213.2</v>
       </c>
       <c r="C204" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D204" t="n">
         <v>221</v>
       </c>
       <c r="E204" t="n">
-        <v>218</v>
+        <v>213.2</v>
       </c>
       <c r="F204" t="n">
-        <v>3584.7507</v>
+        <v>16313.3030555455</v>
       </c>
       <c r="G204" t="n">
-        <v>216.8683333333333</v>
+        <v>216.435</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7902,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>220.9</v>
+      </c>
+      <c r="C205" t="n">
         <v>219</v>
       </c>
-      <c r="C205" t="n">
-        <v>220</v>
-      </c>
       <c r="D205" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E205" t="n">
-        <v>217.5</v>
+        <v>218</v>
       </c>
       <c r="F205" t="n">
-        <v>2484.225045454546</v>
+        <v>3584.7507</v>
       </c>
       <c r="G205" t="n">
-        <v>217.27</v>
+        <v>216.8683333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7576,19 +7940,19 @@
         <v>219</v>
       </c>
       <c r="C206" t="n">
-        <v>217.3</v>
+        <v>220</v>
       </c>
       <c r="D206" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E206" t="n">
-        <v>217.3</v>
+        <v>217.5</v>
       </c>
       <c r="F206" t="n">
-        <v>17345.687</v>
+        <v>2484.225045454546</v>
       </c>
       <c r="G206" t="n">
-        <v>217.525</v>
+        <v>217.27</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7972,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>219</v>
+      </c>
+      <c r="C207" t="n">
         <v>217.3</v>
       </c>
-      <c r="C207" t="n">
-        <v>215</v>
-      </c>
       <c r="D207" t="n">
-        <v>218.8</v>
+        <v>219</v>
       </c>
       <c r="E207" t="n">
-        <v>215</v>
+        <v>217.3</v>
       </c>
       <c r="F207" t="n">
-        <v>65480.431</v>
+        <v>17345.687</v>
       </c>
       <c r="G207" t="n">
-        <v>217.6083333333333</v>
+        <v>217.525</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +8007,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>215</v>
+        <v>217.3</v>
       </c>
       <c r="C208" t="n">
         <v>215</v>
       </c>
       <c r="D208" t="n">
-        <v>216</v>
+        <v>218.8</v>
       </c>
       <c r="E208" t="n">
         <v>215</v>
       </c>
       <c r="F208" t="n">
-        <v>9635.2325</v>
+        <v>65480.431</v>
       </c>
       <c r="G208" t="n">
-        <v>217.7083333333333</v>
+        <v>217.6083333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7681,19 +8045,19 @@
         <v>215</v>
       </c>
       <c r="C209" t="n">
-        <v>213.7</v>
+        <v>215</v>
       </c>
       <c r="D209" t="n">
+        <v>216</v>
+      </c>
+      <c r="E209" t="n">
         <v>215</v>
       </c>
-      <c r="E209" t="n">
-        <v>211.2</v>
-      </c>
       <c r="F209" t="n">
-        <v>30095.2292</v>
+        <v>9635.2325</v>
       </c>
       <c r="G209" t="n">
-        <v>217.8866666666667</v>
+        <v>217.7083333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +8077,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>215</v>
+      </c>
+      <c r="C210" t="n">
         <v>213.7</v>
-      </c>
-      <c r="C210" t="n">
-        <v>215</v>
       </c>
       <c r="D210" t="n">
         <v>215</v>
       </c>
       <c r="E210" t="n">
-        <v>211.3</v>
+        <v>211.2</v>
       </c>
       <c r="F210" t="n">
-        <v>20454.3241</v>
+        <v>30095.2292</v>
       </c>
       <c r="G210" t="n">
-        <v>218.1033333333334</v>
+        <v>217.8866666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +8112,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="C211" t="n">
         <v>215</v>
       </c>
-      <c r="C211" t="n">
-        <v>205.9</v>
-      </c>
       <c r="D211" t="n">
-        <v>216.4</v>
+        <v>215</v>
       </c>
       <c r="E211" t="n">
-        <v>205.9</v>
+        <v>211.3</v>
       </c>
       <c r="F211" t="n">
-        <v>79116.8668</v>
+        <v>20454.3241</v>
       </c>
       <c r="G211" t="n">
-        <v>218.185</v>
+        <v>218.1033333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +8147,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C212" t="n">
-        <v>213.2</v>
+        <v>205.9</v>
       </c>
       <c r="D212" t="n">
-        <v>213.2</v>
+        <v>216.4</v>
       </c>
       <c r="E212" t="n">
         <v>205.9</v>
       </c>
       <c r="F212" t="n">
-        <v>15938.6943</v>
+        <v>79116.8668</v>
       </c>
       <c r="G212" t="n">
-        <v>218.3883333333333</v>
+        <v>218.185</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +8182,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C213" t="n">
-        <v>208.9</v>
+        <v>213.2</v>
       </c>
       <c r="D213" t="n">
-        <v>214</v>
+        <v>213.2</v>
       </c>
       <c r="E213" t="n">
-        <v>207.8</v>
+        <v>205.9</v>
       </c>
       <c r="F213" t="n">
-        <v>14595.64875070423</v>
+        <v>15938.6943</v>
       </c>
       <c r="G213" t="n">
-        <v>218.5366666666667</v>
+        <v>218.3883333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +8217,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>209.9</v>
+        <v>211</v>
       </c>
       <c r="C214" t="n">
-        <v>210.9</v>
+        <v>208.9</v>
       </c>
       <c r="D214" t="n">
-        <v>211.5</v>
+        <v>214</v>
       </c>
       <c r="E214" t="n">
-        <v>209.9</v>
+        <v>207.8</v>
       </c>
       <c r="F214" t="n">
-        <v>6314.1077</v>
+        <v>14595.64875070423</v>
       </c>
       <c r="G214" t="n">
-        <v>218.7016666666667</v>
+        <v>218.5366666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +8252,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="C215" t="n">
         <v>210.9</v>
       </c>
-      <c r="C215" t="n">
-        <v>207.8</v>
-      </c>
       <c r="D215" t="n">
-        <v>210.9</v>
+        <v>211.5</v>
       </c>
       <c r="E215" t="n">
-        <v>207.8</v>
+        <v>209.9</v>
       </c>
       <c r="F215" t="n">
-        <v>41954.5831</v>
+        <v>6314.1077</v>
       </c>
       <c r="G215" t="n">
-        <v>218.7666666666667</v>
+        <v>218.7016666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +8287,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>210.8</v>
+        <v>210.9</v>
       </c>
       <c r="C216" t="n">
-        <v>207</v>
+        <v>207.8</v>
       </c>
       <c r="D216" t="n">
-        <v>210.8</v>
+        <v>210.9</v>
       </c>
       <c r="E216" t="n">
-        <v>207</v>
+        <v>207.8</v>
       </c>
       <c r="F216" t="n">
-        <v>10886.6077</v>
+        <v>41954.5831</v>
       </c>
       <c r="G216" t="n">
-        <v>218.8583333333333</v>
+        <v>218.7666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +8322,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="C217" t="n">
         <v>207</v>
       </c>
-      <c r="C217" t="n">
-        <v>207.2</v>
-      </c>
       <c r="D217" t="n">
-        <v>210.4</v>
+        <v>210.8</v>
       </c>
       <c r="E217" t="n">
         <v>207</v>
       </c>
       <c r="F217" t="n">
-        <v>17172.30344486692</v>
+        <v>10886.6077</v>
       </c>
       <c r="G217" t="n">
-        <v>219.0583333333333</v>
+        <v>218.8583333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8357,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>207</v>
+      </c>
+      <c r="C218" t="n">
         <v>207.2</v>
       </c>
-      <c r="C218" t="n">
-        <v>209</v>
-      </c>
       <c r="D218" t="n">
-        <v>209</v>
+        <v>210.4</v>
       </c>
       <c r="E218" t="n">
-        <v>207.1</v>
+        <v>207</v>
       </c>
       <c r="F218" t="n">
-        <v>14429.0035</v>
+        <v>17172.30344486692</v>
       </c>
       <c r="G218" t="n">
-        <v>219.1583333333333</v>
+        <v>219.0583333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8392,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>208.9</v>
+        <v>207.2</v>
       </c>
       <c r="C219" t="n">
-        <v>208.8</v>
+        <v>209</v>
       </c>
       <c r="D219" t="n">
-        <v>208.9</v>
+        <v>209</v>
       </c>
       <c r="E219" t="n">
-        <v>208.8</v>
+        <v>207.1</v>
       </c>
       <c r="F219" t="n">
-        <v>4656.7637</v>
+        <v>14429.0035</v>
       </c>
       <c r="G219" t="n">
-        <v>219.1916666666667</v>
+        <v>219.1583333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8427,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="C220" t="n">
         <v>208.8</v>
       </c>
-      <c r="C220" t="n">
-        <v>209</v>
-      </c>
       <c r="D220" t="n">
-        <v>209</v>
+        <v>208.9</v>
       </c>
       <c r="E220" t="n">
-        <v>206.9</v>
+        <v>208.8</v>
       </c>
       <c r="F220" t="n">
-        <v>14169.6641</v>
+        <v>4656.7637</v>
       </c>
       <c r="G220" t="n">
-        <v>219.1416666666667</v>
+        <v>219.1916666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8462,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>208.9</v>
+        <v>208.8</v>
       </c>
       <c r="C221" t="n">
-        <v>207.1</v>
+        <v>209</v>
       </c>
       <c r="D221" t="n">
-        <v>208.9</v>
+        <v>209</v>
       </c>
       <c r="E221" t="n">
-        <v>207</v>
+        <v>206.9</v>
       </c>
       <c r="F221" t="n">
-        <v>3918.1817</v>
+        <v>14169.6641</v>
       </c>
       <c r="G221" t="n">
-        <v>219.035</v>
+        <v>219.1416666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8497,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="C222" t="n">
         <v>207.1</v>
       </c>
-      <c r="C222" t="n">
-        <v>207.2</v>
-      </c>
       <c r="D222" t="n">
-        <v>208.8</v>
+        <v>208.9</v>
       </c>
       <c r="E222" t="n">
-        <v>207.1</v>
+        <v>207</v>
       </c>
       <c r="F222" t="n">
-        <v>2059.2093</v>
+        <v>3918.1817</v>
       </c>
       <c r="G222" t="n">
-        <v>218.9716666666667</v>
+        <v>219.035</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8532,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="D223" t="n">
         <v>208.8</v>
       </c>
-      <c r="C223" t="n">
-        <v>210</v>
-      </c>
-      <c r="D223" t="n">
-        <v>210</v>
-      </c>
       <c r="E223" t="n">
-        <v>208.8</v>
+        <v>207.1</v>
       </c>
       <c r="F223" t="n">
-        <v>2814.8926</v>
+        <v>2059.2093</v>
       </c>
       <c r="G223" t="n">
-        <v>218.9216666666667</v>
+        <v>218.9716666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8567,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="C224" t="n">
         <v>210</v>
       </c>
-      <c r="C224" t="n">
-        <v>210.5</v>
-      </c>
       <c r="D224" t="n">
-        <v>210.5</v>
+        <v>210</v>
       </c>
       <c r="E224" t="n">
-        <v>210</v>
+        <v>208.8</v>
       </c>
       <c r="F224" t="n">
-        <v>862.0682185273159</v>
+        <v>2814.8926</v>
       </c>
       <c r="G224" t="n">
-        <v>218.7966666666667</v>
+        <v>218.9216666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8602,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C225" t="n">
-        <v>210.4</v>
+        <v>210.5</v>
       </c>
       <c r="D225" t="n">
-        <v>210.7</v>
+        <v>210.5</v>
       </c>
       <c r="E225" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F225" t="n">
-        <v>6168.22616044753</v>
+        <v>862.0682185273159</v>
       </c>
       <c r="G225" t="n">
-        <v>218.5333333333333</v>
+        <v>218.7966666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8637,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>209</v>
+      </c>
+      <c r="C226" t="n">
         <v>210.4</v>
       </c>
-      <c r="C226" t="n">
-        <v>209.1</v>
-      </c>
       <c r="D226" t="n">
-        <v>210.4</v>
+        <v>210.7</v>
       </c>
       <c r="E226" t="n">
-        <v>209.1</v>
+        <v>209</v>
       </c>
       <c r="F226" t="n">
-        <v>217.0404</v>
+        <v>6168.22616044753</v>
       </c>
       <c r="G226" t="n">
-        <v>218.2483333333333</v>
+        <v>218.5333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8672,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>209.1</v>
+        <v>210.4</v>
       </c>
       <c r="C227" t="n">
         <v>209.1</v>
       </c>
       <c r="D227" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="E227" t="n">
         <v>209.1</v>
       </c>
-      <c r="E227" t="n">
-        <v>209</v>
-      </c>
       <c r="F227" t="n">
-        <v>5166.8041</v>
+        <v>217.0404</v>
       </c>
       <c r="G227" t="n">
-        <v>217.9633333333333</v>
+        <v>218.2483333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8707,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>210.5</v>
+        <v>209.1</v>
       </c>
       <c r="C228" t="n">
-        <v>209</v>
+        <v>209.1</v>
       </c>
       <c r="D228" t="n">
-        <v>210.5</v>
+        <v>209.1</v>
       </c>
       <c r="E228" t="n">
         <v>209</v>
       </c>
       <c r="F228" t="n">
-        <v>3769.335928266033</v>
+        <v>5166.8041</v>
       </c>
       <c r="G228" t="n">
-        <v>217.5983333333333</v>
+        <v>217.9633333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8742,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>210.4</v>
+        <v>210.5</v>
       </c>
       <c r="C229" t="n">
-        <v>210.5</v>
+        <v>209</v>
       </c>
       <c r="D229" t="n">
         <v>210.5</v>
       </c>
       <c r="E229" t="n">
-        <v>209.1</v>
+        <v>209</v>
       </c>
       <c r="F229" t="n">
-        <v>2592.414</v>
+        <v>3769.335928266033</v>
       </c>
       <c r="G229" t="n">
-        <v>217.355</v>
+        <v>217.5983333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8416,19 +8780,19 @@
         <v>210.4</v>
       </c>
       <c r="C230" t="n">
-        <v>210.4</v>
+        <v>210.5</v>
       </c>
       <c r="D230" t="n">
-        <v>210.4</v>
+        <v>210.5</v>
       </c>
       <c r="E230" t="n">
-        <v>210.4</v>
+        <v>209.1</v>
       </c>
       <c r="F230" t="n">
-        <v>911.8194</v>
+        <v>2592.414</v>
       </c>
       <c r="G230" t="n">
-        <v>217.1116666666667</v>
+        <v>217.355</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8812,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>210</v>
+        <v>210.4</v>
       </c>
       <c r="C231" t="n">
         <v>210.4</v>
       </c>
       <c r="D231" t="n">
-        <v>210.5</v>
+        <v>210.4</v>
       </c>
       <c r="E231" t="n">
-        <v>210</v>
+        <v>210.4</v>
       </c>
       <c r="F231" t="n">
-        <v>179.0269</v>
+        <v>911.8194</v>
       </c>
       <c r="G231" t="n">
-        <v>216.9716666666667</v>
+        <v>217.1116666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8847,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>210.4</v>
+        <v>210</v>
       </c>
       <c r="C232" t="n">
         <v>210.4</v>
       </c>
       <c r="D232" t="n">
-        <v>210.4</v>
+        <v>210.5</v>
       </c>
       <c r="E232" t="n">
-        <v>210.4</v>
+        <v>210</v>
       </c>
       <c r="F232" t="n">
-        <v>32.6599</v>
+        <v>179.0269</v>
       </c>
       <c r="G232" t="n">
-        <v>216.7833333333333</v>
+        <v>216.9716666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8882,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>210</v>
+        <v>210.4</v>
       </c>
       <c r="C233" t="n">
-        <v>210</v>
+        <v>210.4</v>
       </c>
       <c r="D233" t="n">
-        <v>210</v>
+        <v>210.4</v>
       </c>
       <c r="E233" t="n">
-        <v>210</v>
+        <v>210.4</v>
       </c>
       <c r="F233" t="n">
-        <v>1088.8473</v>
+        <v>32.6599</v>
       </c>
       <c r="G233" t="n">
-        <v>216.5883333333333</v>
+        <v>216.7833333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8556,19 +8920,19 @@
         <v>210</v>
       </c>
       <c r="C234" t="n">
-        <v>209.7</v>
+        <v>210</v>
       </c>
       <c r="D234" t="n">
         <v>210</v>
       </c>
       <c r="E234" t="n">
-        <v>209.7</v>
+        <v>210</v>
       </c>
       <c r="F234" t="n">
-        <v>490.8475</v>
+        <v>1088.8473</v>
       </c>
       <c r="G234" t="n">
-        <v>216.3883333333333</v>
+        <v>216.5883333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8952,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>210</v>
+      </c>
+      <c r="C235" t="n">
         <v>209.7</v>
       </c>
-      <c r="C235" t="n">
-        <v>209.1</v>
-      </c>
       <c r="D235" t="n">
+        <v>210</v>
+      </c>
+      <c r="E235" t="n">
         <v>209.7</v>
       </c>
-      <c r="E235" t="n">
-        <v>209.1</v>
-      </c>
       <c r="F235" t="n">
-        <v>323.3683</v>
+        <v>490.8475</v>
       </c>
       <c r="G235" t="n">
-        <v>216.14</v>
+        <v>216.3883333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8987,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>210</v>
+        <v>209.7</v>
       </c>
       <c r="C236" t="n">
-        <v>210</v>
+        <v>209.1</v>
       </c>
       <c r="D236" t="n">
-        <v>212</v>
+        <v>209.7</v>
       </c>
       <c r="E236" t="n">
-        <v>210</v>
+        <v>209.1</v>
       </c>
       <c r="F236" t="n">
-        <v>3001.4662</v>
+        <v>323.3683</v>
       </c>
       <c r="G236" t="n">
-        <v>215.9066666666666</v>
+        <v>216.14</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8661,19 +9025,19 @@
         <v>210</v>
       </c>
       <c r="C237" t="n">
-        <v>214.8</v>
+        <v>210</v>
       </c>
       <c r="D237" t="n">
-        <v>214.8</v>
+        <v>212</v>
       </c>
       <c r="E237" t="n">
         <v>210</v>
       </c>
       <c r="F237" t="n">
-        <v>3570.497</v>
+        <v>3001.4662</v>
       </c>
       <c r="G237" t="n">
-        <v>215.7966666666666</v>
+        <v>215.9066666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +9057,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>212.4</v>
+        <v>210</v>
       </c>
       <c r="C238" t="n">
-        <v>210.1</v>
+        <v>214.8</v>
       </c>
       <c r="D238" t="n">
-        <v>213.4</v>
+        <v>214.8</v>
       </c>
       <c r="E238" t="n">
-        <v>210.1</v>
+        <v>210</v>
       </c>
       <c r="F238" t="n">
-        <v>5453.867</v>
+        <v>3570.497</v>
       </c>
       <c r="G238" t="n">
-        <v>215.5983333333333</v>
+        <v>215.7966666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +9092,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="C239" t="n">
         <v>210.1</v>
       </c>
-      <c r="C239" t="n">
-        <v>212.8</v>
-      </c>
       <c r="D239" t="n">
-        <v>212.8</v>
+        <v>213.4</v>
       </c>
       <c r="E239" t="n">
         <v>210.1</v>
       </c>
       <c r="F239" t="n">
-        <v>3874.6348</v>
+        <v>5453.867</v>
       </c>
       <c r="G239" t="n">
-        <v>215.4949999999999</v>
+        <v>215.5983333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +9127,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="C240" t="n">
         <v>212.8</v>
       </c>
-      <c r="C240" t="n">
-        <v>212.9</v>
-      </c>
       <c r="D240" t="n">
-        <v>213.4</v>
+        <v>212.8</v>
       </c>
       <c r="E240" t="n">
-        <v>212.8</v>
+        <v>210.1</v>
       </c>
       <c r="F240" t="n">
-        <v>25342.404</v>
+        <v>3874.6348</v>
       </c>
       <c r="G240" t="n">
-        <v>215.4266666666666</v>
+        <v>215.4949999999999</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +9162,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>212.8</v>
+      </c>
+      <c r="C241" t="n">
         <v>212.9</v>
       </c>
-      <c r="C241" t="n">
-        <v>209.1</v>
-      </c>
       <c r="D241" t="n">
-        <v>212.9</v>
+        <v>213.4</v>
       </c>
       <c r="E241" t="n">
-        <v>208.1</v>
+        <v>212.8</v>
       </c>
       <c r="F241" t="n">
-        <v>14317.865</v>
+        <v>25342.404</v>
       </c>
       <c r="G241" t="n">
-        <v>215.2783333333333</v>
+        <v>215.4266666666666</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +9197,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>209</v>
+        <v>212.9</v>
       </c>
       <c r="C242" t="n">
-        <v>206.5</v>
+        <v>209.1</v>
       </c>
       <c r="D242" t="n">
-        <v>209.1</v>
+        <v>212.9</v>
       </c>
       <c r="E242" t="n">
-        <v>206.5</v>
+        <v>208.1</v>
       </c>
       <c r="F242" t="n">
-        <v>14563.9851</v>
+        <v>14317.865</v>
       </c>
       <c r="G242" t="n">
-        <v>215.0866666666666</v>
+        <v>215.2783333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +9232,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>206.8</v>
+        <v>209</v>
       </c>
       <c r="C243" t="n">
-        <v>205.8</v>
+        <v>206.5</v>
       </c>
       <c r="D243" t="n">
-        <v>207</v>
+        <v>209.1</v>
       </c>
       <c r="E243" t="n">
-        <v>205.8</v>
+        <v>206.5</v>
       </c>
       <c r="F243" t="n">
-        <v>48347.2242</v>
+        <v>14563.9851</v>
       </c>
       <c r="G243" t="n">
-        <v>214.8499999999999</v>
+        <v>215.0866666666666</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +9267,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="C244" t="n">
         <v>205.8</v>
       </c>
-      <c r="C244" t="n">
-        <v>205.4</v>
-      </c>
       <c r="D244" t="n">
+        <v>207</v>
+      </c>
+      <c r="E244" t="n">
         <v>205.8</v>
       </c>
-      <c r="E244" t="n">
-        <v>202.1</v>
-      </c>
       <c r="F244" t="n">
-        <v>75590.8778</v>
+        <v>48347.2242</v>
       </c>
       <c r="G244" t="n">
-        <v>214.6066666666666</v>
+        <v>214.8499999999999</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +9302,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="C245" t="n">
         <v>205.4</v>
       </c>
-      <c r="C245" t="n">
-        <v>202.3</v>
-      </c>
       <c r="D245" t="n">
-        <v>205.4</v>
+        <v>205.8</v>
       </c>
       <c r="E245" t="n">
-        <v>202.2</v>
+        <v>202.1</v>
       </c>
       <c r="F245" t="n">
-        <v>12028.048</v>
+        <v>75590.8778</v>
       </c>
       <c r="G245" t="n">
-        <v>214.2583333333332</v>
+        <v>214.6066666666666</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +9337,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="C246" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="D246" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="E246" t="n">
         <v>202.2</v>
       </c>
-      <c r="C246" t="n">
-        <v>202.2</v>
-      </c>
-      <c r="D246" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="E246" t="n">
-        <v>202.1</v>
-      </c>
       <c r="F246" t="n">
-        <v>33370.1215</v>
+        <v>12028.048</v>
       </c>
       <c r="G246" t="n">
-        <v>213.8899999999999</v>
+        <v>214.2583333333332</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9011,19 +9375,19 @@
         <v>202.2</v>
       </c>
       <c r="C247" t="n">
-        <v>203.1</v>
+        <v>202.2</v>
       </c>
       <c r="D247" t="n">
-        <v>213.9</v>
+        <v>204.4</v>
       </c>
       <c r="E247" t="n">
-        <v>202.2</v>
+        <v>202.1</v>
       </c>
       <c r="F247" t="n">
-        <v>24739.50497218326</v>
+        <v>33370.1215</v>
       </c>
       <c r="G247" t="n">
-        <v>213.5533333333333</v>
+        <v>213.8899999999999</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9407,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>204.1</v>
+        <v>202.2</v>
       </c>
       <c r="C248" t="n">
         <v>203.1</v>
       </c>
       <c r="D248" t="n">
-        <v>204.1</v>
+        <v>213.9</v>
       </c>
       <c r="E248" t="n">
-        <v>203.1</v>
+        <v>202.2</v>
       </c>
       <c r="F248" t="n">
-        <v>2285.182397942185</v>
+        <v>24739.50497218326</v>
       </c>
       <c r="G248" t="n">
-        <v>213.1799999999999</v>
+        <v>213.5533333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9442,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="C249" t="n">
         <v>203.1</v>
-      </c>
-      <c r="C249" t="n">
-        <v>204.1</v>
       </c>
       <c r="D249" t="n">
         <v>204.1</v>
       </c>
       <c r="E249" t="n">
-        <v>202.4</v>
+        <v>203.1</v>
       </c>
       <c r="F249" t="n">
-        <v>6107.8085</v>
+        <v>2285.182397942185</v>
       </c>
       <c r="G249" t="n">
-        <v>212.7866666666666</v>
+        <v>213.1799999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,7 +9477,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>203.3</v>
+        <v>203.1</v>
       </c>
       <c r="C250" t="n">
         <v>204.1</v>
@@ -9122,13 +9486,13 @@
         <v>204.1</v>
       </c>
       <c r="E250" t="n">
-        <v>202.8</v>
+        <v>202.4</v>
       </c>
       <c r="F250" t="n">
-        <v>1373.562</v>
+        <v>6107.8085</v>
       </c>
       <c r="G250" t="n">
-        <v>212.4083333333333</v>
+        <v>212.7866666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9512,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>202.8</v>
+        <v>203.3</v>
       </c>
       <c r="C251" t="n">
-        <v>202.8</v>
+        <v>204.1</v>
       </c>
       <c r="D251" t="n">
-        <v>202.8</v>
+        <v>204.1</v>
       </c>
       <c r="E251" t="n">
         <v>202.8</v>
       </c>
       <c r="F251" t="n">
-        <v>607.2043</v>
+        <v>1373.562</v>
       </c>
       <c r="G251" t="n">
-        <v>212.0083333333333</v>
+        <v>212.4083333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,38 +9547,32 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>203.2</v>
+        <v>202.8</v>
       </c>
       <c r="C252" t="n">
-        <v>202.7</v>
+        <v>202.8</v>
       </c>
       <c r="D252" t="n">
-        <v>203.2</v>
+        <v>202.8</v>
       </c>
       <c r="E252" t="n">
-        <v>202.7</v>
+        <v>202.8</v>
       </c>
       <c r="F252" t="n">
-        <v>1456.2711</v>
+        <v>607.2043</v>
       </c>
       <c r="G252" t="n">
-        <v>211.59</v>
+        <v>212.0083333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>202.8</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9224,38 +9582,32 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>204.1</v>
+        <v>203.2</v>
       </c>
       <c r="C253" t="n">
-        <v>204.1</v>
+        <v>202.7</v>
       </c>
       <c r="D253" t="n">
-        <v>204.1</v>
+        <v>203.2</v>
       </c>
       <c r="E253" t="n">
         <v>202.7</v>
       </c>
       <c r="F253" t="n">
-        <v>2284.7918</v>
+        <v>1456.2711</v>
       </c>
       <c r="G253" t="n">
-        <v>211.2116666666667</v>
+        <v>211.59</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>202.7</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9268,35 +9620,29 @@
         <v>204.1</v>
       </c>
       <c r="C254" t="n">
-        <v>205.8</v>
+        <v>204.1</v>
       </c>
       <c r="D254" t="n">
-        <v>205.8</v>
+        <v>204.1</v>
       </c>
       <c r="E254" t="n">
-        <v>204.1</v>
+        <v>202.7</v>
       </c>
       <c r="F254" t="n">
-        <v>13401.7265</v>
+        <v>2284.7918</v>
       </c>
       <c r="G254" t="n">
-        <v>210.8916666666667</v>
+        <v>211.2116666666667</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>204.1</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9309,7 +9655,7 @@
         <v>204.1</v>
       </c>
       <c r="C255" t="n">
-        <v>204.1</v>
+        <v>205.8</v>
       </c>
       <c r="D255" t="n">
         <v>205.8</v>
@@ -9318,26 +9664,20 @@
         <v>204.1</v>
       </c>
       <c r="F255" t="n">
-        <v>5515.874</v>
+        <v>13401.7265</v>
       </c>
       <c r="G255" t="n">
-        <v>210.5266666666667</v>
+        <v>210.8916666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>205.8</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9353,32 +9693,26 @@
         <v>204.1</v>
       </c>
       <c r="D256" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="E256" t="n">
         <v>204.1</v>
       </c>
-      <c r="E256" t="n">
-        <v>203.4</v>
-      </c>
       <c r="F256" t="n">
-        <v>4527.649</v>
+        <v>5515.874</v>
       </c>
       <c r="G256" t="n">
-        <v>210.1616666666667</v>
+        <v>210.5266666666667</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>204.1</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9388,22 +9722,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>205.8</v>
+        <v>204.1</v>
       </c>
       <c r="C257" t="n">
-        <v>207</v>
+        <v>204.1</v>
       </c>
       <c r="D257" t="n">
-        <v>207</v>
+        <v>204.1</v>
       </c>
       <c r="E257" t="n">
-        <v>205.8</v>
+        <v>203.4</v>
       </c>
       <c r="F257" t="n">
-        <v>802</v>
+        <v>4527.649</v>
       </c>
       <c r="G257" t="n">
-        <v>209.8783333333334</v>
+        <v>210.1616666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9413,11 +9747,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9427,22 +9757,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>206.6</v>
+        <v>205.8</v>
       </c>
       <c r="C258" t="n">
-        <v>206.6</v>
+        <v>207</v>
       </c>
       <c r="D258" t="n">
-        <v>206.6</v>
+        <v>207</v>
       </c>
       <c r="E258" t="n">
-        <v>206.6</v>
+        <v>205.8</v>
       </c>
       <c r="F258" t="n">
-        <v>2220.0215</v>
+        <v>802</v>
       </c>
       <c r="G258" t="n">
-        <v>209.655</v>
+        <v>209.8783333333334</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9452,11 +9782,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9466,22 +9792,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>205.3</v>
+        <v>206.6</v>
       </c>
       <c r="C259" t="n">
-        <v>203.4</v>
+        <v>206.6</v>
       </c>
       <c r="D259" t="n">
-        <v>205.5</v>
+        <v>206.6</v>
       </c>
       <c r="E259" t="n">
-        <v>203.4</v>
+        <v>206.6</v>
       </c>
       <c r="F259" t="n">
-        <v>11032.3558</v>
+        <v>2220.0215</v>
       </c>
       <c r="G259" t="n">
-        <v>209.395</v>
+        <v>209.655</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9491,11 +9817,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9505,22 +9827,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>203</v>
+        <v>205.3</v>
       </c>
       <c r="C260" t="n">
-        <v>205.5</v>
+        <v>203.4</v>
       </c>
       <c r="D260" t="n">
         <v>205.5</v>
       </c>
       <c r="E260" t="n">
-        <v>203</v>
+        <v>203.4</v>
       </c>
       <c r="F260" t="n">
-        <v>1022</v>
+        <v>11032.3558</v>
       </c>
       <c r="G260" t="n">
-        <v>209.155</v>
+        <v>209.395</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9530,11 +9852,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9544,22 +9862,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C261" t="n">
-        <v>204</v>
+        <v>205.5</v>
       </c>
       <c r="D261" t="n">
-        <v>204</v>
+        <v>205.5</v>
       </c>
       <c r="E261" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F261" t="n">
-        <v>205.7405</v>
+        <v>1022</v>
       </c>
       <c r="G261" t="n">
-        <v>208.9366666666667</v>
+        <v>209.155</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9569,11 +9887,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9583,22 +9897,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C262" t="n">
-        <v>204.5</v>
+        <v>204</v>
       </c>
       <c r="D262" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E262" t="n">
-        <v>204.5</v>
+        <v>204</v>
       </c>
       <c r="F262" t="n">
-        <v>5258.6259</v>
+        <v>205.7405</v>
       </c>
       <c r="G262" t="n">
-        <v>208.7916666666667</v>
+        <v>208.9366666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9608,11 +9922,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9625,19 +9935,19 @@
         <v>205</v>
       </c>
       <c r="C263" t="n">
-        <v>205</v>
+        <v>204.5</v>
       </c>
       <c r="D263" t="n">
         <v>205</v>
       </c>
       <c r="E263" t="n">
-        <v>205</v>
+        <v>204.5</v>
       </c>
       <c r="F263" t="n">
-        <v>2017.1673</v>
+        <v>5258.6259</v>
       </c>
       <c r="G263" t="n">
-        <v>208.525</v>
+        <v>208.7916666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9647,11 +9957,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9661,22 +9967,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C264" t="n">
-        <v>202.1</v>
+        <v>205</v>
       </c>
       <c r="D264" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E264" t="n">
-        <v>202.1</v>
+        <v>205</v>
       </c>
       <c r="F264" t="n">
-        <v>40779.7482</v>
+        <v>2017.1673</v>
       </c>
       <c r="G264" t="n">
-        <v>208.2433333333333</v>
+        <v>208.525</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9686,11 +9992,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9700,22 +10002,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C265" t="n">
-        <v>200</v>
+        <v>202.1</v>
       </c>
       <c r="D265" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E265" t="n">
-        <v>200</v>
+        <v>202.1</v>
       </c>
       <c r="F265" t="n">
-        <v>31708.4622</v>
+        <v>40779.7482</v>
       </c>
       <c r="G265" t="n">
-        <v>207.91</v>
+        <v>208.2433333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9725,11 +10027,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9739,22 +10037,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C266" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D266" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E266" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F266" t="n">
-        <v>682.8526000000001</v>
+        <v>31708.4622</v>
       </c>
       <c r="G266" t="n">
-        <v>207.6383333333333</v>
+        <v>207.91</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9764,12 +10062,43 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>203</v>
+      </c>
+      <c r="C267" t="n">
+        <v>201</v>
+      </c>
+      <c r="D267" t="n">
+        <v>204</v>
+      </c>
+      <c r="E267" t="n">
+        <v>201</v>
+      </c>
+      <c r="F267" t="n">
+        <v>682.8526000000001</v>
+      </c>
+      <c r="G267" t="n">
+        <v>207.6383333333333</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest AE.xlsx
+++ b/BackTest/2020-01-22 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:N277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>240.4507</v>
       </c>
       <c r="G2" t="n">
+        <v>187.3866666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>187.0016666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1808.1238</v>
       </c>
       <c r="G3" t="n">
+        <v>187.2066666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>187.0650000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>252.2576</v>
       </c>
       <c r="G4" t="n">
+        <v>187.0866666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>187.1116666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>209.5578</v>
       </c>
       <c r="G5" t="n">
+        <v>187.1866666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>187.2250000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>509.1591</v>
       </c>
       <c r="G6" t="n">
+        <v>187.02</v>
+      </c>
+      <c r="H6" t="n">
         <v>187.2200000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>30</v>
       </c>
       <c r="G7" t="n">
+        <v>187.08</v>
+      </c>
+      <c r="H7" t="n">
         <v>187.2866666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>108.8645</v>
       </c>
       <c r="G8" t="n">
+        <v>186.84</v>
+      </c>
+      <c r="H8" t="n">
         <v>187.3116666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,27 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
+        <v>186.8933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>187.3783333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +767,29 @@
         <v>190.8285</v>
       </c>
       <c r="G10" t="n">
+        <v>186.7933333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>187.3683333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +813,21 @@
         <v>11741.9782</v>
       </c>
       <c r="G11" t="n">
+        <v>186.6266666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>187.3383333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +851,25 @@
         <v>96.8565</v>
       </c>
       <c r="G12" t="n">
+        <v>186.46</v>
+      </c>
+      <c r="H12" t="n">
         <v>187.2916666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +893,27 @@
         <v>11660.2783</v>
       </c>
       <c r="G13" t="n">
+        <v>186.4866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>187.2816666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +937,27 @@
         <v>1143.1234</v>
       </c>
       <c r="G14" t="n">
+        <v>186.4666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>187.2933333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +981,27 @@
         <v>33413.2556</v>
       </c>
       <c r="G15" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H15" t="n">
         <v>187.2400000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1025,29 @@
         <v>23223.571</v>
       </c>
       <c r="G16" t="n">
+        <v>186.0333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>187.2333333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>183</v>
+      </c>
+      <c r="L16" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1071,29 @@
         <v>72</v>
       </c>
       <c r="G17" t="n">
+        <v>185.88</v>
+      </c>
+      <c r="H17" t="n">
         <v>187.2333333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1117,29 @@
         <v>15</v>
       </c>
       <c r="G18" t="n">
+        <v>185.8466666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>187.2333333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1163,27 @@
         <v>45</v>
       </c>
       <c r="G19" t="n">
+        <v>185.76</v>
+      </c>
+      <c r="H19" t="n">
         <v>187.2450000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1207,29 @@
         <v>42</v>
       </c>
       <c r="G20" t="n">
+        <v>185.54</v>
+      </c>
+      <c r="H20" t="n">
         <v>187.2100000000002</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1253,27 @@
         <v>33784000</v>
       </c>
       <c r="G21" t="n">
+        <v>185.5333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>187.1700000000002</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1297,27 @@
         <v>24720000</v>
       </c>
       <c r="G22" t="n">
+        <v>185.3066666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>187.1116666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1341,27 @@
         <v>1132.8007</v>
       </c>
       <c r="G23" t="n">
+        <v>185.3866666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>187.0883333333335</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1385,27 @@
         <v>430.6599</v>
       </c>
       <c r="G24" t="n">
+        <v>185.2733333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>187.0733333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1429,27 @@
         <v>15</v>
       </c>
       <c r="G25" t="n">
+        <v>185.2266666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>187.0383333333335</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1473,27 @@
         <v>7713.4861</v>
       </c>
       <c r="G26" t="n">
+        <v>185.1866666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>186.9733333333335</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1517,27 @@
         <v>201.848</v>
       </c>
       <c r="G27" t="n">
+        <v>185.2066666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>186.9233333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1561,27 @@
         <v>88.68000000000001</v>
       </c>
       <c r="G28" t="n">
+        <v>185.0333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>186.8733333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1605,27 @@
         <v>1274.5957</v>
       </c>
       <c r="G29" t="n">
+        <v>184.9066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>186.8233333333335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1649,27 @@
         <v>543.2245</v>
       </c>
       <c r="G30" t="n">
+        <v>185.0533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>186.7700000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1693,27 @@
         <v>11660.6059</v>
       </c>
       <c r="G31" t="n">
+        <v>184.9666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>186.6900000000002</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1737,27 @@
         <v>4758</v>
       </c>
       <c r="G32" t="n">
+        <v>184.9933333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>186.5716666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1781,27 @@
         <v>9828.773999999999</v>
       </c>
       <c r="G33" t="n">
+        <v>185.02</v>
+      </c>
+      <c r="H33" t="n">
         <v>186.5350000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1825,27 @@
         <v>548.7482</v>
       </c>
       <c r="G34" t="n">
+        <v>185.04</v>
+      </c>
+      <c r="H34" t="n">
         <v>186.3550000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1869,27 @@
         <v>21270.5323</v>
       </c>
       <c r="G35" t="n">
+        <v>185.0533333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>186.3166666666669</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1913,27 @@
         <v>8387</v>
       </c>
       <c r="G36" t="n">
+        <v>185.2133333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>186.2416666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1957,27 @@
         <v>860</v>
       </c>
       <c r="G37" t="n">
+        <v>185.3733333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>186.2366666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2001,27 @@
         <v>3302.7338</v>
       </c>
       <c r="G38" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>186.2333333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2045,27 @@
         <v>3108.336</v>
       </c>
       <c r="G39" t="n">
+        <v>185.3800000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>186.2116666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2089,27 @@
         <v>4964.7072</v>
       </c>
       <c r="G40" t="n">
+        <v>185.4466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>186.1916666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2133,27 @@
         <v>4765.2354</v>
       </c>
       <c r="G41" t="n">
+        <v>185.4400000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>186.1383333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2177,27 @@
         <v>502.2225</v>
       </c>
       <c r="G42" t="n">
+        <v>185.5666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>186.1333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2221,27 @@
         <v>1108.609</v>
       </c>
       <c r="G43" t="n">
+        <v>185.6266666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>186.1133333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2265,27 @@
         <v>15</v>
       </c>
       <c r="G44" t="n">
+        <v>185.6066666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>186.0733333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2309,27 @@
         <v>51.906</v>
       </c>
       <c r="G45" t="n">
+        <v>185.5733333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>186.0183333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2353,27 @@
         <v>25</v>
       </c>
       <c r="G46" t="n">
+        <v>185.6333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>185.9683333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2397,27 @@
         <v>17304.3624</v>
       </c>
       <c r="G47" t="n">
+        <v>185.5666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>185.9566666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2441,27 @@
         <v>334.9934</v>
       </c>
       <c r="G48" t="n">
+        <v>185.6933333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>185.9416666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2485,27 @@
         <v>444.9557</v>
       </c>
       <c r="G49" t="n">
+        <v>185.5800000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>185.8666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2529,27 @@
         <v>1132.8007</v>
       </c>
       <c r="G50" t="n">
+        <v>185.4600000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>185.8100000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2573,27 @@
         <v>11218.13</v>
       </c>
       <c r="G51" t="n">
+        <v>185.2133333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>185.7450000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2617,27 @@
         <v>8260</v>
       </c>
       <c r="G52" t="n">
+        <v>184.9666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>185.6816666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2661,27 @@
         <v>4350</v>
       </c>
       <c r="G53" t="n">
+        <v>184.7133333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>185.5850000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2705,27 @@
         <v>2230</v>
       </c>
       <c r="G54" t="n">
+        <v>184.54</v>
+      </c>
+      <c r="H54" t="n">
         <v>185.5216666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2749,27 @@
         <v>2170</v>
       </c>
       <c r="G55" t="n">
+        <v>184.36</v>
+      </c>
+      <c r="H55" t="n">
         <v>185.4566666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2793,27 @@
         <v>454.9565</v>
       </c>
       <c r="G56" t="n">
+        <v>184.3133333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>185.3916666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2837,27 @@
         <v>1670</v>
       </c>
       <c r="G57" t="n">
+        <v>184.12</v>
+      </c>
+      <c r="H57" t="n">
         <v>185.3383333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2881,29 @@
         <v>3049.8046</v>
       </c>
       <c r="G58" t="n">
+        <v>184.0533333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>185.3</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>184</v>
+      </c>
+      <c r="L58" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2927,29 @@
         <v>3301.9171</v>
       </c>
       <c r="G59" t="n">
+        <v>184.0600000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>185.26</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2973,29 @@
         <v>5560</v>
       </c>
       <c r="G60" t="n">
+        <v>184.0133333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>185.21</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="L60" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3019,29 @@
         <v>150</v>
       </c>
       <c r="G61" t="n">
+        <v>183.8866666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>185.13</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>184</v>
+      </c>
+      <c r="L61" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3065,29 @@
         <v>996.6911</v>
       </c>
       <c r="G62" t="n">
+        <v>183.8933333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>185.0833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>184</v>
+      </c>
+      <c r="L62" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3111,29 @@
         <v>209.1961</v>
       </c>
       <c r="G63" t="n">
+        <v>183.7066666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>185.0666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>184</v>
+      </c>
+      <c r="L63" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3157,29 @@
         <v>114.9112</v>
       </c>
       <c r="G64" t="n">
+        <v>183.7266666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>185.0266666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>184</v>
+      </c>
+      <c r="L64" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3203,29 @@
         <v>1917.9997</v>
       </c>
       <c r="G65" t="n">
+        <v>183.7400000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>184.9483333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="L65" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3249,29 @@
         <v>1420</v>
       </c>
       <c r="G66" t="n">
+        <v>183.7600000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>184.93</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3295,29 @@
         <v>5068.9131</v>
       </c>
       <c r="G67" t="n">
+        <v>183.8733333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>184.88</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3341,29 @@
         <v>618.8668</v>
       </c>
       <c r="G68" t="n">
+        <v>183.9266666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>184.8566666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L68" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3387,29 @@
         <v>3049.8046</v>
       </c>
       <c r="G69" t="n">
+        <v>183.9800000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>184.7933333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>184</v>
+      </c>
+      <c r="L69" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3433,29 @@
         <v>109.6371</v>
       </c>
       <c r="G70" t="n">
+        <v>184.0333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>184.7666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3479,29 @@
         <v>344.4405</v>
       </c>
       <c r="G71" t="n">
+        <v>184.08</v>
+      </c>
+      <c r="H71" t="n">
         <v>184.755</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3525,27 @@
         <v>84.01909999999999</v>
       </c>
       <c r="G72" t="n">
+        <v>184.0666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>184.74</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,24 +3569,27 @@
         <v>534.8477</v>
       </c>
       <c r="G73" t="n">
+        <v>183.9600000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>184.6683333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>183.8</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,22 +3613,27 @@
         <v>110</v>
       </c>
       <c r="G74" t="n">
+        <v>183.9066666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>184.6199999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,22 +3657,29 @@
         <v>25.13513513513514</v>
       </c>
       <c r="G75" t="n">
+        <v>183.9733333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>184.6533333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>184</v>
+      </c>
+      <c r="L75" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,22 +3703,29 @@
         <v>112.7362</v>
       </c>
       <c r="G76" t="n">
+        <v>184.04</v>
+      </c>
+      <c r="H76" t="n">
         <v>184.6316666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>185</v>
+      </c>
+      <c r="L76" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,22 +3749,29 @@
         <v>60</v>
       </c>
       <c r="G77" t="n">
+        <v>184.04</v>
+      </c>
+      <c r="H77" t="n">
         <v>184.6233333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>185</v>
+      </c>
+      <c r="L77" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,22 +3795,29 @@
         <v>100</v>
       </c>
       <c r="G78" t="n">
+        <v>184.04</v>
+      </c>
+      <c r="H78" t="n">
         <v>184.615</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>184</v>
+      </c>
+      <c r="L78" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,22 +3841,29 @@
         <v>67.3253</v>
       </c>
       <c r="G79" t="n">
+        <v>184.0666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>184.6033333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>184</v>
+      </c>
+      <c r="L79" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,22 +3887,29 @@
         <v>1540</v>
       </c>
       <c r="G80" t="n">
+        <v>184.1133333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>184.5916666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>184</v>
+      </c>
+      <c r="L80" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,22 +3933,29 @@
         <v>2180</v>
       </c>
       <c r="G81" t="n">
+        <v>184.1466666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>184.5833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>184</v>
+      </c>
+      <c r="L81" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,22 +3979,29 @@
         <v>5000</v>
       </c>
       <c r="G82" t="n">
+        <v>184.0866666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>184.5749999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>184</v>
+      </c>
+      <c r="L82" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,22 +4025,29 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
+        <v>184.2400000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>184.5699999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>184</v>
+      </c>
+      <c r="L83" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,22 +4071,29 @@
         <v>13177.267</v>
       </c>
       <c r="G84" t="n">
+        <v>184.1933333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>184.5233333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,22 +4117,29 @@
         <v>129.9539</v>
       </c>
       <c r="G85" t="n">
+        <v>184.1733333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>184.5033333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,22 +4163,29 @@
         <v>2185.411</v>
       </c>
       <c r="G86" t="n">
+        <v>184.1400000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>184.4933333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3481,22 +4209,29 @@
         <v>5795.6671</v>
       </c>
       <c r="G87" t="n">
+        <v>184.0866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>184.4599999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,22 +4255,29 @@
         <v>4106.9484</v>
       </c>
       <c r="G88" t="n">
+        <v>183.9466666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>184.3966666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>183</v>
+      </c>
+      <c r="L88" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,22 +4301,29 @@
         <v>4510.9475</v>
       </c>
       <c r="G89" t="n">
+        <v>183.8400000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>184.3533333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,22 +4347,29 @@
         <v>410.9572</v>
       </c>
       <c r="G90" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>184.3066666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="L90" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,22 +4393,29 @@
         <v>150</v>
       </c>
       <c r="G91" t="n">
+        <v>183.4933333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>184.2633333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,22 +4439,29 @@
         <v>39.0428</v>
       </c>
       <c r="G92" t="n">
+        <v>183.3866666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>184.2216666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="L92" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,22 +4485,29 @@
         <v>39.0428</v>
       </c>
       <c r="G93" t="n">
+        <v>183.2600000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>184.1749999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,22 +4531,29 @@
         <v>2428.7261</v>
       </c>
       <c r="G94" t="n">
+        <v>183.1600000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>184.1333333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,22 +4577,29 @@
         <v>1829.8982</v>
       </c>
       <c r="G95" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>184.0949999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,22 +4623,29 @@
         <v>358.1817</v>
       </c>
       <c r="G96" t="n">
+        <v>182.9733333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>184.0233333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="L96" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,22 +4669,29 @@
         <v>69.9834</v>
       </c>
       <c r="G97" t="n">
+        <v>182.9733333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>183.9749999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="L97" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,22 +4715,29 @@
         <v>3.8471</v>
       </c>
       <c r="G98" t="n">
+        <v>182.8200000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>183.9249999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>184</v>
+      </c>
+      <c r="L98" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,22 +4761,29 @@
         <v>696.8404</v>
       </c>
       <c r="G99" t="n">
+        <v>182.92</v>
+      </c>
+      <c r="H99" t="n">
         <v>183.9083333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>184</v>
+      </c>
+      <c r="L99" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,22 +4807,29 @@
         <v>1682</v>
       </c>
       <c r="G100" t="n">
+        <v>182.9933333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>183.8899999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L100" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,22 +4853,29 @@
         <v>131.4605</v>
       </c>
       <c r="G101" t="n">
+        <v>183.0933333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>183.9066666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L101" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,22 +4899,29 @@
         <v>10887.9234</v>
       </c>
       <c r="G102" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>183.8349999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>185</v>
+      </c>
+      <c r="L102" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,22 +4945,29 @@
         <v>846.8404</v>
       </c>
       <c r="G103" t="n">
+        <v>183.3200000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>183.8199999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="L103" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,22 +4991,29 @@
         <v>40.4127</v>
       </c>
       <c r="G104" t="n">
+        <v>183.4933333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>183.8249999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>185</v>
+      </c>
+      <c r="L104" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,22 +5037,29 @@
         <v>5830</v>
       </c>
       <c r="G105" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>183.8299999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>185</v>
+      </c>
+      <c r="L105" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,22 +5083,29 @@
         <v>1861.9035</v>
       </c>
       <c r="G106" t="n">
+        <v>183.9266666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>183.8366666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>185</v>
+      </c>
+      <c r="L106" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,22 +5129,29 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
+        <v>184.1133333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>183.8583333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="L107" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,22 +5175,29 @@
         <v>10933.0304</v>
       </c>
       <c r="G108" t="n">
+        <v>184.3133333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>183.8299999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4339,22 +5221,29 @@
         <v>24.8461</v>
       </c>
       <c r="G109" t="n">
+        <v>184.5733333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>183.8816666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,22 +5267,29 @@
         <v>73</v>
       </c>
       <c r="G110" t="n">
+        <v>184.8266666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>183.9366666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4417,22 +5313,29 @@
         <v>3055.9129</v>
       </c>
       <c r="G111" t="n">
+        <v>185.08</v>
+      </c>
+      <c r="H111" t="n">
         <v>183.9899999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="L111" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,22 +5359,29 @@
         <v>5425.787</v>
       </c>
       <c r="G112" t="n">
+        <v>185.2400000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>184.0433333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="L112" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,22 +5405,29 @@
         <v>3821.0905</v>
       </c>
       <c r="G113" t="n">
+        <v>185.4000000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>184.0966666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="L113" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,22 +5451,29 @@
         <v>1332.1542</v>
       </c>
       <c r="G114" t="n">
+        <v>185.5000000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>184.1483333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="L114" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,22 +5497,29 @@
         <v>6141</v>
       </c>
       <c r="G115" t="n">
+        <v>185.6666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>184.2166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,22 +5543,29 @@
         <v>6333.112562466914</v>
       </c>
       <c r="G116" t="n">
+        <v>185.9266666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>184.3099999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,22 +5589,29 @@
         <v>9928.717437533087</v>
       </c>
       <c r="G117" t="n">
+        <v>186.3466666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>184.3916666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="L117" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,22 +5635,29 @@
         <v>1370</v>
       </c>
       <c r="G118" t="n">
+        <v>186.4733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>184.4249999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="L118" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,22 +5681,29 @@
         <v>496.0717</v>
       </c>
       <c r="G119" t="n">
+        <v>186.6000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>184.4599999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="L119" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,22 +5727,29 @@
         <v>422.9877</v>
       </c>
       <c r="G120" t="n">
+        <v>186.7266666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>184.5083333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="L120" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,22 +5773,29 @@
         <v>52.938</v>
       </c>
       <c r="G121" t="n">
+        <v>186.7666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>184.5566666666665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="L121" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,22 +5819,29 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
+        <v>186.8800000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>184.6049999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="L122" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,22 +5865,27 @@
         <v>951.0128999999999</v>
       </c>
       <c r="G123" t="n">
+        <v>187.0000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>184.6533333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,22 +5909,27 @@
         <v>9134.6453</v>
       </c>
       <c r="G124" t="n">
+        <v>187.0333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>184.7083333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,22 +5953,27 @@
         <v>1404.0611</v>
       </c>
       <c r="G125" t="n">
+        <v>187.1400000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>184.7866666666665</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,22 +5997,27 @@
         <v>150</v>
       </c>
       <c r="G126" t="n">
+        <v>187.2400000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>184.8599999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5041,22 +6041,27 @@
         <v>1861.9035</v>
       </c>
       <c r="G127" t="n">
+        <v>187.3400000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>184.9099999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,22 +6085,27 @@
         <v>10053.2701</v>
       </c>
       <c r="G128" t="n">
+        <v>187.4400000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>184.9749999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,22 +6129,27 @@
         <v>1213.0005</v>
       </c>
       <c r="G129" t="n">
+        <v>187.5400000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>185.0383333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,22 +6173,27 @@
         <v>220.0002</v>
       </c>
       <c r="G130" t="n">
+        <v>187.5666666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>185.0999999999998</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5197,22 +6217,27 @@
         <v>40.0412</v>
       </c>
       <c r="G131" t="n">
+        <v>187.5733333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>185.1833333333331</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,22 +6261,27 @@
         <v>7032</v>
       </c>
       <c r="G132" t="n">
+        <v>187.5733333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>185.2683333333331</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,22 +6305,27 @@
         <v>837</v>
       </c>
       <c r="G133" t="n">
+        <v>187.7000000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>185.3599999999998</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,22 +6349,27 @@
         <v>100</v>
       </c>
       <c r="G134" t="n">
+        <v>187.7933333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>185.4316666666665</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,22 +6393,29 @@
         <v>1500</v>
       </c>
       <c r="G135" t="n">
+        <v>187.8000000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>185.4649999999998</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="L135" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,22 +6439,29 @@
         <v>1474.3661</v>
       </c>
       <c r="G136" t="n">
+        <v>187.8400000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>185.5066666666665</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>187</v>
+      </c>
+      <c r="L136" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,22 +6485,29 @@
         <v>462.6782</v>
       </c>
       <c r="G137" t="n">
+        <v>187.9466666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>185.5816666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="L137" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,22 +6531,29 @@
         <v>495</v>
       </c>
       <c r="G138" t="n">
+        <v>188.0533333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>185.6566666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="L138" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5509,22 +6577,29 @@
         <v>2287.6665</v>
       </c>
       <c r="G139" t="n">
+        <v>188.1066666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>185.7183333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="L139" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,22 +6623,29 @@
         <v>44040.285</v>
       </c>
       <c r="G140" t="n">
+        <v>188.2333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>185.8166666666665</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="L140" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,22 +6669,29 @@
         <v>6000.7814</v>
       </c>
       <c r="G141" t="n">
+        <v>188.3666666666668</v>
+      </c>
+      <c r="H141" t="n">
         <v>185.9149999999998</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="L141" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,22 +6715,29 @@
         <v>770.7578</v>
       </c>
       <c r="G142" t="n">
+        <v>188.5000000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>186.0133333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="L142" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5665,22 +6761,29 @@
         <v>2542.3447</v>
       </c>
       <c r="G143" t="n">
+        <v>188.6333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>186.0733333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="L143" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,22 +6807,29 @@
         <v>3359.0199</v>
       </c>
       <c r="G144" t="n">
+        <v>189.0400000000001</v>
+      </c>
+      <c r="H144" t="n">
         <v>186.2499999999998</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="L144" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,22 +6853,29 @@
         <v>422.4021</v>
       </c>
       <c r="G145" t="n">
+        <v>189.3866666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>186.4033333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>194</v>
+      </c>
+      <c r="L145" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,22 +6899,29 @@
         <v>4302.5982</v>
       </c>
       <c r="G146" t="n">
+        <v>189.8466666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>186.6099999999998</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>193</v>
+      </c>
+      <c r="L146" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,22 +6945,27 @@
         <v>55093.9469189604</v>
       </c>
       <c r="G147" t="n">
+        <v>190.7200000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>186.9266666666665</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,22 +6989,27 @@
         <v>104315.2083462743</v>
       </c>
       <c r="G148" t="n">
+        <v>192.1333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>187.4066666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5899,22 +7033,27 @@
         <v>17345.843</v>
       </c>
       <c r="G149" t="n">
+        <v>193.5133333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>187.8499999999998</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5938,22 +7077,27 @@
         <v>106076.6586</v>
       </c>
       <c r="G150" t="n">
+        <v>194.58</v>
+      </c>
+      <c r="H150" t="n">
         <v>188.1933333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,22 +7121,27 @@
         <v>15855.09333</v>
       </c>
       <c r="G151" t="n">
+        <v>195.5466666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>188.5199999999998</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,22 +7165,27 @@
         <v>27330.86496257426</v>
       </c>
       <c r="G152" t="n">
+        <v>196.3800000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>188.8299999999998</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,22 +7209,27 @@
         <v>3430.9112</v>
       </c>
       <c r="G153" t="n">
+        <v>197.2133333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>189.1449999999998</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,22 +7253,27 @@
         <v>12053.89255882353</v>
       </c>
       <c r="G154" t="n">
+        <v>198.0333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>189.4366666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,22 +7297,27 @@
         <v>13942.2131</v>
       </c>
       <c r="G155" t="n">
+        <v>198.7733333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>189.7433333333332</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,22 +7341,27 @@
         <v>281.2423</v>
       </c>
       <c r="G156" t="n">
+        <v>199.7066666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>190.0983333333332</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,22 +7385,27 @@
         <v>980.0167</v>
       </c>
       <c r="G157" t="n">
+        <v>200.48</v>
+      </c>
+      <c r="H157" t="n">
         <v>190.3899999999998</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,22 +7429,27 @@
         <v>4742.1027</v>
       </c>
       <c r="G158" t="n">
+        <v>200.8333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>190.5766666666665</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6289,22 +7473,27 @@
         <v>766.7354</v>
       </c>
       <c r="G159" t="n">
+        <v>201.4333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>190.8783333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,22 +7517,27 @@
         <v>28308.6185</v>
       </c>
       <c r="G160" t="n">
+        <v>202.3533333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>191.2433333333332</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6367,22 +7561,27 @@
         <v>47032.24212261489</v>
       </c>
       <c r="G161" t="n">
+        <v>203.4266666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>191.6933333333332</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6406,22 +7605,27 @@
         <v>38983.60057738511</v>
       </c>
       <c r="G162" t="n">
+        <v>204.1933333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>192.2083333333331</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6445,22 +7649,29 @@
         <v>94356.66012040012</v>
       </c>
       <c r="G163" t="n">
+        <v>204.26</v>
+      </c>
+      <c r="H163" t="n">
         <v>192.6416666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6482,18 +7693,27 @@
         <v>19645.64198943166</v>
       </c>
       <c r="G164" t="n">
+        <v>204.5266666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>193.1083333333331</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,18 +7737,27 @@
         <v>93773.11810000001</v>
       </c>
       <c r="G165" t="n">
+        <v>205.5266666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>193.6583333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6552,18 +7781,27 @@
         <v>157976.7356117595</v>
       </c>
       <c r="G166" t="n">
+        <v>207.14</v>
+      </c>
+      <c r="H166" t="n">
         <v>194.3233333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6587,18 +7825,27 @@
         <v>24626.44746569408</v>
       </c>
       <c r="G167" t="n">
+        <v>208.82</v>
+      </c>
+      <c r="H167" t="n">
         <v>195.0066666666665</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6622,18 +7869,27 @@
         <v>49555.7137</v>
       </c>
       <c r="G168" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="H168" t="n">
         <v>195.6916666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6657,18 +7913,27 @@
         <v>66172.58219013781</v>
       </c>
       <c r="G169" t="n">
+        <v>212.56</v>
+      </c>
+      <c r="H169" t="n">
         <v>196.4333333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6692,18 +7957,27 @@
         <v>39477.20457411317</v>
       </c>
       <c r="G170" t="n">
+        <v>214.1666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>197.0783333333332</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6727,18 +8001,27 @@
         <v>44404.3076</v>
       </c>
       <c r="G171" t="n">
+        <v>215.5733333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>197.7216666666665</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6762,18 +8045,27 @@
         <v>46825.3094</v>
       </c>
       <c r="G172" t="n">
+        <v>216.7266666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>198.2616666666665</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6797,18 +8089,27 @@
         <v>21911.21280951736</v>
       </c>
       <c r="G173" t="n">
+        <v>218.4933333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>198.8499999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,18 +8133,27 @@
         <v>63455.65709048264</v>
       </c>
       <c r="G174" t="n">
+        <v>219.74</v>
+      </c>
+      <c r="H174" t="n">
         <v>199.4383333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6867,18 +8177,27 @@
         <v>1020</v>
       </c>
       <c r="G175" t="n">
+        <v>220.7333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>200.0099999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6902,19 +8221,28 @@
         <v>3431.4157</v>
       </c>
       <c r="G176" t="n">
+        <v>221.5333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>200.5949999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
+      <c r="L176" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1.207777476989713</v>
       </c>
     </row>
     <row r="177">
@@ -6937,18 +8265,21 @@
         <v>2683.5054</v>
       </c>
       <c r="G177" t="n">
+        <v>222.2333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>201.1799999999999</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,18 +8303,21 @@
         <v>31426.7184</v>
       </c>
       <c r="G178" t="n">
+        <v>222.9266666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>201.7549999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7007,18 +8341,21 @@
         <v>24365.1629</v>
       </c>
       <c r="G179" t="n">
+        <v>223.5266666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>202.3399999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7042,18 +8379,21 @@
         <v>68526.0775</v>
       </c>
       <c r="G180" t="n">
+        <v>223.5933333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>202.8749999999999</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7077,18 +8417,21 @@
         <v>11332.8019</v>
       </c>
       <c r="G181" t="n">
+        <v>222.98</v>
+      </c>
+      <c r="H181" t="n">
         <v>203.3766666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7112,18 +8455,21 @@
         <v>14638.0744</v>
       </c>
       <c r="G182" t="n">
+        <v>222.4333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>203.895</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7147,18 +8493,21 @@
         <v>7268.286496788991</v>
       </c>
       <c r="G183" t="n">
+        <v>221.8866666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>204.4133333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7182,18 +8531,21 @@
         <v>33143.28350321101</v>
       </c>
       <c r="G184" t="n">
+        <v>221.16</v>
+      </c>
+      <c r="H184" t="n">
         <v>204.965</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7217,18 +8569,21 @@
         <v>15613.1598</v>
       </c>
       <c r="G185" t="n">
+        <v>220.82</v>
+      </c>
+      <c r="H185" t="n">
         <v>205.4983333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7252,18 +8607,21 @@
         <v>13922.7768</v>
       </c>
       <c r="G186" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="H186" t="n">
         <v>206.0866666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,18 +8645,21 @@
         <v>12752.8499</v>
       </c>
       <c r="G187" t="n">
+        <v>221.0666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>206.6933333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7322,18 +8683,21 @@
         <v>34179.99506444445</v>
       </c>
       <c r="G188" t="n">
+        <v>221.1733333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>207.2833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7357,18 +8721,21 @@
         <v>14162.8441</v>
       </c>
       <c r="G189" t="n">
+        <v>221.4266666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>207.91</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7392,18 +8759,21 @@
         <v>12850.41423555556</v>
       </c>
       <c r="G190" t="n">
+        <v>221.8266666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>208.575</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7427,18 +8797,21 @@
         <v>62217.45985516249</v>
       </c>
       <c r="G191" t="n">
+        <v>222.0133333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>209.205</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7462,18 +8835,21 @@
         <v>4605.2506</v>
       </c>
       <c r="G192" t="n">
+        <v>222.2000000000001</v>
+      </c>
+      <c r="H192" t="n">
         <v>209.8366666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7497,18 +8873,21 @@
         <v>52979.61699473222</v>
       </c>
       <c r="G193" t="n">
+        <v>222.6266666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>210.4866666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7532,18 +8911,21 @@
         <v>17257.3165</v>
       </c>
       <c r="G194" t="n">
+        <v>222.9466666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>211.1283333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7567,18 +8949,21 @@
         <v>27758.35473385965</v>
       </c>
       <c r="G195" t="n">
+        <v>223.3466666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>211.7616666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7602,18 +8987,21 @@
         <v>30871.7556</v>
       </c>
       <c r="G196" t="n">
+        <v>223.9466666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>212.4033333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7637,18 +9025,21 @@
         <v>56665.75008761062</v>
       </c>
       <c r="G197" t="n">
+        <v>224.4800000000001</v>
+      </c>
+      <c r="H197" t="n">
         <v>213.0283333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7672,18 +9063,21 @@
         <v>22077.3567</v>
       </c>
       <c r="G198" t="n">
+        <v>224.8800000000001</v>
+      </c>
+      <c r="H198" t="n">
         <v>213.62</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7707,18 +9101,21 @@
         <v>13422.8366</v>
       </c>
       <c r="G199" t="n">
+        <v>224.8800000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>214.1583333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7742,18 +9139,21 @@
         <v>24017.2914</v>
       </c>
       <c r="G200" t="n">
+        <v>224.8133333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>214.6433333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7777,18 +9177,21 @@
         <v>30656.4574</v>
       </c>
       <c r="G201" t="n">
+        <v>224.5933333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>215.1433333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7812,18 +9215,21 @@
         <v>85007.5307758666</v>
       </c>
       <c r="G202" t="n">
+        <v>224.1133333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>215.5966666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7847,18 +9253,21 @@
         <v>18543.63545895454</v>
       </c>
       <c r="G203" t="n">
+        <v>223.4400000000001</v>
+      </c>
+      <c r="H203" t="n">
         <v>215.985</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7882,18 +9291,21 @@
         <v>16313.3030555455</v>
       </c>
       <c r="G204" t="n">
+        <v>223.14</v>
+      </c>
+      <c r="H204" t="n">
         <v>216.435</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7917,18 +9329,21 @@
         <v>3584.7507</v>
       </c>
       <c r="G205" t="n">
+        <v>222.5600000000001</v>
+      </c>
+      <c r="H205" t="n">
         <v>216.8683333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7952,18 +9367,21 @@
         <v>2484.225045454546</v>
       </c>
       <c r="G206" t="n">
+        <v>222.1066666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>217.27</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7987,18 +9405,21 @@
         <v>17345.687</v>
       </c>
       <c r="G207" t="n">
+        <v>221.4733333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>217.525</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8022,18 +9443,21 @@
         <v>65480.431</v>
       </c>
       <c r="G208" t="n">
+        <v>220.62</v>
+      </c>
+      <c r="H208" t="n">
         <v>217.6083333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8057,18 +9481,21 @@
         <v>9635.2325</v>
       </c>
       <c r="G209" t="n">
+        <v>219.8333333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>217.7083333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8092,18 +9519,21 @@
         <v>30095.2292</v>
       </c>
       <c r="G210" t="n">
+        <v>219.08</v>
+      </c>
+      <c r="H210" t="n">
         <v>217.8866666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8127,18 +9557,21 @@
         <v>20454.3241</v>
       </c>
       <c r="G211" t="n">
+        <v>218.3466666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>218.1033333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8162,18 +9595,21 @@
         <v>79116.8668</v>
       </c>
       <c r="G212" t="n">
+        <v>217.0066666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>218.185</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8197,18 +9633,21 @@
         <v>15938.6943</v>
       </c>
       <c r="G213" t="n">
+        <v>216.2866666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>218.3883333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8232,18 +9671,21 @@
         <v>14595.64875070423</v>
       </c>
       <c r="G214" t="n">
+        <v>215.5466666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>218.5366666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8267,18 +9709,21 @@
         <v>6314.1077</v>
       </c>
       <c r="G215" t="n">
+        <v>215.0066666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>218.7016666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,18 +9747,21 @@
         <v>41954.5831</v>
       </c>
       <c r="G216" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="H216" t="n">
         <v>218.7666666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8337,18 +9785,21 @@
         <v>10886.6077</v>
       </c>
       <c r="G217" t="n">
+        <v>213.5266666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>218.8583333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8372,18 +9823,21 @@
         <v>17172.30344486692</v>
       </c>
       <c r="G218" t="n">
+        <v>213.1266666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>219.0583333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8407,18 +9861,21 @@
         <v>14429.0035</v>
       </c>
       <c r="G219" t="n">
+        <v>212.3266666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>219.1583333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8442,18 +9899,21 @@
         <v>4656.7637</v>
       </c>
       <c r="G220" t="n">
+        <v>211.6466666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>219.1916666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8477,18 +9937,21 @@
         <v>14169.6641</v>
       </c>
       <c r="G221" t="n">
+        <v>210.9133333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>219.1416666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8512,18 +9975,21 @@
         <v>3918.1817</v>
       </c>
       <c r="G222" t="n">
+        <v>210.2333333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>219.035</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8547,18 +10013,21 @@
         <v>2059.2093</v>
       </c>
       <c r="G223" t="n">
+        <v>209.7133333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>218.9716666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8582,18 +10051,21 @@
         <v>2814.8926</v>
       </c>
       <c r="G224" t="n">
+        <v>209.38</v>
+      </c>
+      <c r="H224" t="n">
         <v>218.9216666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8617,18 +10089,21 @@
         <v>862.0682185273159</v>
       </c>
       <c r="G225" t="n">
+        <v>209.1666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>218.7966666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8652,18 +10127,21 @@
         <v>6168.22616044753</v>
       </c>
       <c r="G226" t="n">
+        <v>208.86</v>
+      </c>
+      <c r="H226" t="n">
         <v>218.5333333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8687,18 +10165,21 @@
         <v>217.0404</v>
       </c>
       <c r="G227" t="n">
+        <v>209.0733333333334</v>
+      </c>
+      <c r="H227" t="n">
         <v>218.2483333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8722,18 +10203,21 @@
         <v>5166.8041</v>
       </c>
       <c r="G228" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="H228" t="n">
         <v>217.9633333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8757,18 +10241,21 @@
         <v>3769.335928266033</v>
       </c>
       <c r="G229" t="n">
+        <v>208.8066666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>217.5983333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8792,18 +10279,21 @@
         <v>2592.414</v>
       </c>
       <c r="G230" t="n">
+        <v>208.78</v>
+      </c>
+      <c r="H230" t="n">
         <v>217.355</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8827,18 +10317,21 @@
         <v>911.8194</v>
       </c>
       <c r="G231" t="n">
+        <v>208.9533333333333</v>
+      </c>
+      <c r="H231" t="n">
         <v>217.1116666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8862,18 +10355,21 @@
         <v>179.0269</v>
       </c>
       <c r="G232" t="n">
+        <v>209.18</v>
+      </c>
+      <c r="H232" t="n">
         <v>216.9716666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8897,18 +10393,21 @@
         <v>32.6599</v>
       </c>
       <c r="G233" t="n">
+        <v>209.3933333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>216.7833333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8932,18 +10431,21 @@
         <v>1088.8473</v>
       </c>
       <c r="G234" t="n">
+        <v>209.46</v>
+      </c>
+      <c r="H234" t="n">
         <v>216.5883333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8967,18 +10469,21 @@
         <v>490.8475</v>
       </c>
       <c r="G235" t="n">
+        <v>209.52</v>
+      </c>
+      <c r="H235" t="n">
         <v>216.3883333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9002,18 +10507,21 @@
         <v>323.3683</v>
       </c>
       <c r="G236" t="n">
+        <v>209.5266666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>216.14</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9037,18 +10545,21 @@
         <v>3001.4662</v>
       </c>
       <c r="G237" t="n">
+        <v>209.72</v>
+      </c>
+      <c r="H237" t="n">
         <v>215.9066666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9072,18 +10583,21 @@
         <v>3570.497</v>
       </c>
       <c r="G238" t="n">
+        <v>210.2266666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>215.7966666666666</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9107,18 +10621,21 @@
         <v>5453.867</v>
       </c>
       <c r="G239" t="n">
+        <v>210.2333333333334</v>
+      </c>
+      <c r="H239" t="n">
         <v>215.5983333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9142,18 +10659,21 @@
         <v>3874.6348</v>
       </c>
       <c r="G240" t="n">
+        <v>210.3866666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>215.4949999999999</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9177,18 +10697,21 @@
         <v>25342.404</v>
       </c>
       <c r="G241" t="n">
+        <v>210.5533333333334</v>
+      </c>
+      <c r="H241" t="n">
         <v>215.4266666666666</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9212,18 +10735,21 @@
         <v>14317.865</v>
       </c>
       <c r="G242" t="n">
+        <v>210.5533333333334</v>
+      </c>
+      <c r="H242" t="n">
         <v>215.2783333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9247,18 +10773,21 @@
         <v>14563.9851</v>
       </c>
       <c r="G243" t="n">
+        <v>210.3800000000001</v>
+      </c>
+      <c r="H243" t="n">
         <v>215.0866666666666</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9282,18 +10811,21 @@
         <v>48347.2242</v>
       </c>
       <c r="G244" t="n">
+        <v>210.1666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>214.8499999999999</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9317,18 +10849,21 @@
         <v>75590.8778</v>
       </c>
       <c r="G245" t="n">
+        <v>209.8266666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>214.6066666666666</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9352,18 +10887,21 @@
         <v>12028.048</v>
       </c>
       <c r="G246" t="n">
+        <v>209.2866666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>214.2583333333332</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9387,18 +10925,21 @@
         <v>33370.1215</v>
       </c>
       <c r="G247" t="n">
+        <v>208.7400000000001</v>
+      </c>
+      <c r="H247" t="n">
         <v>213.8899999999999</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9422,18 +10963,21 @@
         <v>24739.50497218326</v>
       </c>
       <c r="G248" t="n">
+        <v>208.2533333333334</v>
+      </c>
+      <c r="H248" t="n">
         <v>213.5533333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9457,18 +11001,21 @@
         <v>2285.182397942185</v>
       </c>
       <c r="G249" t="n">
+        <v>207.7933333333334</v>
+      </c>
+      <c r="H249" t="n">
         <v>213.1799999999999</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9492,18 +11039,21 @@
         <v>6107.8085</v>
       </c>
       <c r="G250" t="n">
+        <v>207.42</v>
+      </c>
+      <c r="H250" t="n">
         <v>212.7866666666666</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9527,18 +11077,21 @@
         <v>1373.562</v>
       </c>
       <c r="G251" t="n">
+        <v>207.0866666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>212.4083333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9562,18 +11115,21 @@
         <v>607.2043</v>
       </c>
       <c r="G252" t="n">
+        <v>206.6066666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>212.0083333333333</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9597,18 +11153,21 @@
         <v>1456.2711</v>
       </c>
       <c r="G253" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="H253" t="n">
         <v>211.59</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9632,18 +11191,21 @@
         <v>2284.7918</v>
       </c>
       <c r="G254" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="H254" t="n">
         <v>211.2116666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9667,18 +11229,21 @@
         <v>13401.7265</v>
       </c>
       <c r="G255" t="n">
+        <v>204.9333333333334</v>
+      </c>
+      <c r="H255" t="n">
         <v>210.8916666666667</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9702,18 +11267,21 @@
         <v>5515.874</v>
       </c>
       <c r="G256" t="n">
+        <v>204.3466666666667</v>
+      </c>
+      <c r="H256" t="n">
         <v>210.5266666666667</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9737,18 +11305,21 @@
         <v>4527.649</v>
       </c>
       <c r="G257" t="n">
+        <v>204.0133333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>210.1616666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9772,18 +11343,21 @@
         <v>802</v>
       </c>
       <c r="G258" t="n">
+        <v>204.0466666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>209.8783333333334</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9807,18 +11381,21 @@
         <v>2220.0215</v>
       </c>
       <c r="G259" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="H259" t="n">
         <v>209.655</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9842,18 +11419,21 @@
         <v>11032.3558</v>
       </c>
       <c r="G260" t="n">
+        <v>203.9666666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>209.395</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9877,18 +11457,21 @@
         <v>1022</v>
       </c>
       <c r="G261" t="n">
+        <v>204.18</v>
+      </c>
+      <c r="H261" t="n">
         <v>209.155</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9912,18 +11495,21 @@
         <v>205.7405</v>
       </c>
       <c r="G262" t="n">
+        <v>204.3</v>
+      </c>
+      <c r="H262" t="n">
         <v>208.9366666666667</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9947,18 +11533,21 @@
         <v>5258.6259</v>
       </c>
       <c r="G263" t="n">
+        <v>204.3933333333333</v>
+      </c>
+      <c r="H263" t="n">
         <v>208.7916666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9982,18 +11571,21 @@
         <v>2017.1673</v>
       </c>
       <c r="G264" t="n">
+        <v>204.52</v>
+      </c>
+      <c r="H264" t="n">
         <v>208.525</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10017,18 +11609,21 @@
         <v>40779.7482</v>
       </c>
       <c r="G265" t="n">
+        <v>204.3866666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>208.2433333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10052,18 +11647,21 @@
         <v>31708.4622</v>
       </c>
       <c r="G266" t="n">
+        <v>204.1133333333333</v>
+      </c>
+      <c r="H266" t="n">
         <v>207.91</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,18 +11685,401 @@
         <v>682.8526000000001</v>
       </c>
       <c r="G267" t="n">
+        <v>203.9933333333333</v>
+      </c>
+      <c r="H267" t="n">
         <v>207.6383333333333</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>201</v>
+      </c>
+      <c r="C268" t="n">
+        <v>200</v>
+      </c>
+      <c r="D268" t="n">
+        <v>201</v>
+      </c>
+      <c r="E268" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="F268" t="n">
+        <v>7248.1716</v>
+      </c>
+      <c r="G268" t="n">
+        <v>203.8133333333334</v>
+      </c>
+      <c r="H268" t="n">
+        <v>207.3883333333333</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C269" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="D269" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>25438.4954</v>
+      </c>
+      <c r="G269" t="n">
+        <v>203.22</v>
+      </c>
+      <c r="H269" t="n">
+        <v>207.0583333333334</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>199</v>
+      </c>
+      <c r="C270" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>197</v>
+      </c>
+      <c r="F270" t="n">
+        <v>52858.7739</v>
+      </c>
+      <c r="G270" t="n">
+        <v>202.8666666666667</v>
+      </c>
+      <c r="H270" t="n">
+        <v>206.8383333333333</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="C271" t="n">
+        <v>201.7</v>
+      </c>
+      <c r="D271" t="n">
+        <v>201.7</v>
+      </c>
+      <c r="E271" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="F271" t="n">
+        <v>86.3563</v>
+      </c>
+      <c r="G271" t="n">
+        <v>202.7066666666666</v>
+      </c>
+      <c r="H271" t="n">
+        <v>206.6166666666667</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="C272" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="E272" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="F272" t="n">
+        <v>4073.4146</v>
+      </c>
+      <c r="G272" t="n">
+        <v>202.4866666666667</v>
+      </c>
+      <c r="H272" t="n">
+        <v>206.5316666666667</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="D273" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="E273" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2348.1907</v>
+      </c>
+      <c r="G273" t="n">
+        <v>202.0733333333334</v>
+      </c>
+      <c r="H273" t="n">
+        <v>206.325</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="D274" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="E274" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6330.1669</v>
+      </c>
+      <c r="G274" t="n">
+        <v>201.6866666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>206.19</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="E275" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>24625.29282016683</v>
+      </c>
+      <c r="G275" t="n">
+        <v>201.7133333333334</v>
+      </c>
+      <c r="H275" t="n">
+        <v>206.0716666666667</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>7107.7671</v>
+      </c>
+      <c r="G276" t="n">
+        <v>201.3533333333334</v>
+      </c>
+      <c r="H276" t="n">
+        <v>205.9433333333333</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="E277" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4791.5395</v>
+      </c>
+      <c r="G277" t="n">
+        <v>201.1933333333334</v>
+      </c>
+      <c r="H277" t="n">
+        <v>205.8533333333334</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest AE.xlsx
+++ b/BackTest/2020-01-22 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,21 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1744,21 @@
         <v>-25292.11599378171</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1785,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1822,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1859,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1896,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1933,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1970,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2007,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2044,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2081,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2118,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2155,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2192,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2229,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2266,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2303,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2340,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2377,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2414,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2451,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2488,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2525,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2562,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2599,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2636,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2673,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2710,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2747,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2784,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2821,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2858,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2895,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2932,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2969,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3006,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3043,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3080,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3117,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3154,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3191,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3228,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3265,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3302,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3339,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3376,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3413,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3450,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3487,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3524,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3561,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3598,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3635,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3672,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3709,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3746,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3783,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3820,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3857,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3894,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3931,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3968,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4005,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,22 +4040,19 @@
         <v>-33892557.41919379</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K103" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4132,26 +4077,19 @@
         <v>-33892532.41919379</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4176,26 +4114,19 @@
         <v>-33909836.78159379</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,22 +4153,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4264,22 +4190,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4306,22 +4227,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4348,22 +4264,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4390,22 +4301,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4430,24 +4336,21 @@
         <v>-33899861.41459379</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>183.2</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4472,24 +4375,21 @@
         <v>-33897631.41459379</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>183.2</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4514,24 +4414,21 @@
         <v>-33897631.41459379</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>183.3</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4556,24 +4453,21 @@
         <v>-33897631.41459379</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>183.3</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4598,26 +4492,19 @@
         <v>-33895961.41459379</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4642,26 +4529,19 @@
         <v>-33892911.60999379</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>184</v>
-      </c>
-      <c r="K116" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4686,26 +4566,19 @@
         <v>-33896213.52709379</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K117" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4730,26 +4603,19 @@
         <v>-33901773.52709379</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="K118" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4774,26 +4640,19 @@
         <v>-33901773.52709379</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>184</v>
-      </c>
-      <c r="K119" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4818,26 +4677,19 @@
         <v>-33901773.52709379</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>184</v>
-      </c>
-      <c r="K120" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4862,26 +4714,19 @@
         <v>-33901773.52709379</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>184</v>
-      </c>
-      <c r="K121" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4908,22 +4753,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4950,22 +4790,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4992,22 +4827,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5034,22 +4864,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5076,22 +4901,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5118,22 +4938,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5160,22 +4975,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5202,22 +5012,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5244,22 +5049,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5286,22 +5086,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5328,22 +5123,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5370,22 +5160,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5412,22 +5197,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5454,22 +5234,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5494,24 +5269,21 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5538,22 +5310,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5578,24 +5345,21 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5620,24 +5384,21 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5662,24 +5423,21 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5704,24 +5462,21 @@
         <v>-33895674.75925867</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5746,24 +5501,21 @@
         <v>-33908852.02625866</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>186.3</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5790,22 +5542,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5832,22 +5579,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5874,22 +5616,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5914,24 +5651,21 @@
         <v>-33920810.09885865</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5956,24 +5690,21 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>181.2</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5998,24 +5729,21 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6040,24 +5768,21 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6082,24 +5807,21 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6124,24 +5846,21 @@
         <v>-33916338.19415866</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6166,24 +5885,21 @@
         <v>-33913909.46805866</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>182.1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6208,24 +5924,21 @@
         <v>-33912079.56985866</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6250,24 +5963,21 @@
         <v>-33912079.56985866</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>182.6</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6292,24 +6002,21 @@
         <v>-33912009.58645866</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>182.6</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6334,24 +6041,21 @@
         <v>-33912009.58645866</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6376,24 +6080,21 @@
         <v>-33911312.74605866</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6418,24 +6119,21 @@
         <v>-33911312.74605866</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>184.9</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6460,24 +6158,21 @@
         <v>-33911181.28555866</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>184.9</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6502,24 +6197,21 @@
         <v>-33922069.20895866</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6544,24 +6236,21 @@
         <v>-33921222.36855865</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>182.6</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6586,24 +6275,21 @@
         <v>-33921222.36855865</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6628,24 +6314,21 @@
         <v>-33921222.36855865</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6670,24 +6353,21 @@
         <v>-33919360.46505865</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6712,24 +6392,21 @@
         <v>-33919460.46505865</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>186.3</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6754,24 +6431,21 @@
         <v>-33930393.49545866</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>185.2</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6796,24 +6470,21 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>185.1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6838,24 +6509,21 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6880,24 +6548,21 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6924,22 +6589,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6966,22 +6626,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7008,22 +6663,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7050,22 +6700,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7092,22 +6737,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7134,22 +6774,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7176,22 +6811,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7218,22 +6848,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7260,22 +6885,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7302,22 +6922,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7344,22 +6959,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7386,22 +6996,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7428,22 +7033,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7470,22 +7070,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7512,22 +7107,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7554,22 +7144,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7596,22 +7181,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7638,22 +7218,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7680,22 +7255,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7722,22 +7292,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7764,22 +7329,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7806,22 +7366,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7848,22 +7403,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7890,22 +7440,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7932,22 +7477,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7974,22 +7514,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8016,22 +7551,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8058,22 +7588,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8100,22 +7625,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8142,22 +7662,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8184,22 +7699,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8226,22 +7736,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8268,22 +7773,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8310,22 +7810,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8352,22 +7847,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8394,22 +7884,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8436,22 +7921,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8478,22 +7958,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8520,22 +7995,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8562,22 +8032,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8604,22 +8069,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8646,22 +8106,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8688,22 +8143,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8730,22 +8180,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8772,22 +8217,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8814,22 +8254,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8856,22 +8291,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8898,22 +8328,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8940,22 +8365,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8982,22 +8402,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9024,22 +8439,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9066,22 +8476,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9108,22 +8513,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9148,24 +8548,17 @@
         <v>-33753329.12051333</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9192,22 +8585,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9232,24 +8616,15 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9274,26 +8649,15 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1.219688684353005</v>
-      </c>
-      <c r="N226" t="n">
-        <v>1.098233995584989</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9318,18 +8682,15 @@
         <v>-33529179.80271144</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9354,18 +8715,15 @@
         <v>-33568657.00728555</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9390,18 +8748,15 @@
         <v>-33613061.31488555</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9426,18 +8781,15 @@
         <v>-33659886.62428555</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9462,18 +8814,15 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9498,18 +8847,15 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9534,18 +8880,15 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9572,16 +8915,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9608,16 +8948,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9644,16 +8981,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9680,16 +9014,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9714,18 +9045,15 @@
         <v>-33710131.62877603</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9752,16 +9080,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9788,16 +9113,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9824,16 +9146,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9860,16 +9179,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9896,16 +9212,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9932,16 +9245,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9968,16 +9278,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10004,16 +9311,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10040,16 +9344,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10076,16 +9377,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10112,16 +9410,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10148,16 +9443,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10184,16 +9476,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10220,16 +9509,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10256,16 +9542,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10292,16 +9575,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10328,16 +9608,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10364,16 +9641,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10400,16 +9674,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10436,16 +9707,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10472,16 +9740,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10508,16 +9773,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10544,16 +9806,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10580,16 +9839,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10616,16 +9872,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10652,16 +9905,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10688,16 +9938,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10724,16 +9971,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10760,16 +10004,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10796,16 +10037,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10832,16 +10070,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10868,16 +10103,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10904,16 +10136,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10940,16 +10169,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10976,16 +10202,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11012,16 +10235,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11048,16 +10268,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11084,16 +10301,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11120,16 +10334,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11156,16 +10367,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11192,16 +10400,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11228,16 +10433,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11264,16 +10466,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11300,16 +10499,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11336,16 +10532,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11372,16 +10565,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11408,16 +10598,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11444,16 +10631,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11480,16 +10664,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11516,16 +10697,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11552,16 +10730,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11588,16 +10763,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11624,16 +10796,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11660,16 +10829,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11696,16 +10862,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11732,16 +10895,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11768,16 +10928,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11804,16 +10961,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11840,16 +10994,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11876,16 +11027,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11912,16 +11060,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11948,16 +11093,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11984,16 +11126,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12020,16 +11159,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12056,16 +11192,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12092,16 +11225,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12128,16 +11258,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12164,16 +11291,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12200,16 +11324,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12236,16 +11357,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12272,16 +11390,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12308,16 +11423,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12344,16 +11456,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12380,16 +11489,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12416,16 +11522,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12452,16 +11555,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12488,16 +11588,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12524,16 +11621,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12560,16 +11654,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12596,16 +11687,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12632,16 +11720,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12668,16 +11753,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12704,16 +11786,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12740,16 +11819,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12776,16 +11852,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12812,16 +11885,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12848,16 +11918,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12884,16 +11951,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12920,16 +11984,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12956,16 +12017,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12992,16 +12050,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13028,16 +12083,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13064,16 +12116,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13100,16 +12149,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13136,16 +12182,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13172,16 +12215,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13208,18 +12248,15 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AE.xlsx
+++ b/BackTest/2020-01-22 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>11016.59940621829</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4074.137793781709</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3835.925993781709</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,17 +1705,11 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>187.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1744,17 +1738,11 @@
         <v>-25292.11599378171</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>187.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1861,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1898,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2009,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2042,15 +2002,11 @@
         <v>-17990.62029378171</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2083,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2116,15 +2068,11 @@
         <v>-47411.87959378171</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2153,15 +2101,11 @@
         <v>-58951.87959378171</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2190,15 +2134,11 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2227,15 +2167,11 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2264,15 +2200,11 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2301,15 +2233,11 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2338,15 +2266,11 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2375,15 +2299,11 @@
         <v>-59494.12039378171</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2412,15 +2332,11 @@
         <v>-59491.12039378171</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2449,15 +2365,11 @@
         <v>-59731.57109378171</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2486,15 +2398,11 @@
         <v>-61539.69489378171</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2523,15 +2431,11 @@
         <v>-61287.43729378172</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2560,15 +2464,11 @@
         <v>-61077.87949378171</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2597,15 +2497,11 @@
         <v>-61587.03859378171</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2634,15 +2530,11 @@
         <v>-61557.03859378171</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2671,15 +2563,11 @@
         <v>-61665.90309378172</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2708,15 +2596,11 @@
         <v>-61662.90309378172</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2745,15 +2629,11 @@
         <v>-61853.73159378172</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2782,15 +2662,11 @@
         <v>-73595.70979378172</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2819,15 +2695,11 @@
         <v>-73595.70979378172</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2856,15 +2728,11 @@
         <v>-61935.43149378172</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2893,15 +2761,11 @@
         <v>-63078.55489378171</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2930,15 +2794,11 @@
         <v>-96491.81049378171</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2967,15 +2827,11 @@
         <v>-73268.23949378172</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3004,15 +2860,11 @@
         <v>-73340.23949378172</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3041,15 +2893,11 @@
         <v>-73340.23949378172</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3078,15 +2926,11 @@
         <v>-73295.23949378172</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3152,15 +2992,11 @@
         <v>-33857295.23949378</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3189,15 +3025,11 @@
         <v>-33857295.23949378</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3230,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3267,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3304,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3341,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3415,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3489,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3600,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3711,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3748,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3896,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3933,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4007,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4044,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4077,15 +3817,15 @@
         <v>-33892532.41919379</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4117,10 +3857,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -4151,10 +3893,14 @@
         <v>-33909501.78819379</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="J106" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,10 +3934,14 @@
         <v>-33909946.74389379</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,10 +3975,14 @@
         <v>-33911079.5445938</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,10 +4016,14 @@
         <v>-33899861.41459379</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,10 +4057,14 @@
         <v>-33899861.41459379</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,12 +4098,14 @@
         <v>-33899861.41459379</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>183.2</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,12 +4139,14 @@
         <v>-33897631.41459379</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>183.2</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4414,12 +4180,14 @@
         <v>-33897631.41459379</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>183.3</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,12 +4221,14 @@
         <v>-33897631.41459379</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>183.3</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,10 +4262,14 @@
         <v>-33895961.41459379</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,10 +4303,14 @@
         <v>-33892911.60999379</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>184</v>
+      </c>
+      <c r="J116" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,10 +4344,14 @@
         <v>-33896213.52709379</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="J117" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,10 +4385,14 @@
         <v>-33901773.52709379</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,7 +4429,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,7 +4468,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4717,7 +4507,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,7 +4546,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4791,7 +4585,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,10 +4621,14 @@
         <v>-33902386.43799379</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,10 +4662,14 @@
         <v>-33897317.5248938</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,10 +4703,14 @@
         <v>-33897936.3916938</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,7 +4747,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,7 +4786,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5013,7 +4825,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,7 +4864,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,7 +4903,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,7 +4942,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,7 +4981,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,10 +5017,14 @@
         <v>-33895714.75925867</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>185</v>
+      </c>
+      <c r="J134" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,10 +5058,14 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>185</v>
+      </c>
+      <c r="J135" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,12 +5099,14 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>184</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,10 +5140,14 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>184</v>
+      </c>
+      <c r="J137" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,12 +5181,14 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>184</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,12 +5222,14 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>184</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,12 +5263,14 @@
         <v>-33895774.75925867</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>184</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,12 +5304,14 @@
         <v>-33895674.75925867</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>184</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,12 +5345,14 @@
         <v>-33908852.02625866</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>186.3</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,10 +5386,14 @@
         <v>-33908722.07235866</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,10 +5427,14 @@
         <v>-33910907.48335866</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,10 +5468,14 @@
         <v>-33916703.15045866</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="J145" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5651,12 +5509,14 @@
         <v>-33920810.09885865</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>183</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,12 +5550,14 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>181.2</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,12 +5591,14 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>182.4</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5768,12 +5632,14 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>182.4</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,12 +5673,14 @@
         <v>-33916299.15135866</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>182.4</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5846,12 +5714,14 @@
         <v>-33916338.19415866</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>182.4</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5885,12 +5755,14 @@
         <v>-33913909.46805866</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>182.1</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5924,12 +5796,14 @@
         <v>-33912079.56985866</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>182.5</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,12 +5837,14 @@
         <v>-33912079.56985866</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>182.6</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,12 +5878,14 @@
         <v>-33912009.58645866</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>182.6</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6041,12 +5919,14 @@
         <v>-33912009.58645866</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>184</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6080,12 +5960,14 @@
         <v>-33911312.74605866</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>184</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6119,12 +6001,14 @@
         <v>-33911312.74605866</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>184.9</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6158,12 +6042,14 @@
         <v>-33911181.28555866</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>184.9</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,12 +6083,14 @@
         <v>-33922069.20895866</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>185</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6236,12 +6124,14 @@
         <v>-33921222.36855865</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>182.6</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6275,12 +6165,14 @@
         <v>-33921222.36855865</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>185</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6314,12 +6206,14 @@
         <v>-33921222.36855865</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>185</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,12 +6247,14 @@
         <v>-33919360.46505865</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>185</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6392,12 +6288,14 @@
         <v>-33919460.46505865</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>186.3</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6431,12 +6329,14 @@
         <v>-33930393.49545866</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>185.2</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6470,12 +6370,14 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>185.1</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6509,12 +6411,14 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>186.4</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,12 +6452,14 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>186.4</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,10 +6493,14 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="J170" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,10 +6534,14 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="J171" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6661,10 +6575,14 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="J172" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,10 +6616,14 @@
         <v>-33924227.64935865</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="J173" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6735,10 +6657,14 @@
         <v>-33917894.53679618</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="J174" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,10 +6698,14 @@
         <v>-33917894.53679618</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="J175" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,10 +6739,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="J176" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,10 +6780,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J177" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,10 +6821,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J178" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,10 +6862,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J179" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6957,10 +6903,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J180" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,10 +6944,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J181" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7031,10 +6985,14 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J182" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,10 +7026,14 @@
         <v>-33917860.47569618</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,10 +7067,14 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>188</v>
+      </c>
+      <c r="J184" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,10 +7108,14 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J185" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,10 +7149,14 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J186" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,10 +7190,14 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J187" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7253,10 +7231,14 @@
         <v>-33918230.47589619</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J188" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,10 +7272,14 @@
         <v>-33918190.43469619</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="J189" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,10 +7313,14 @@
         <v>-33925222.43469619</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>189</v>
+      </c>
+      <c r="J190" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,10 +7354,14 @@
         <v>-33926059.43469619</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="J191" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,10 +7395,14 @@
         <v>-33926159.43469619</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="J192" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7441,7 +7439,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,10 +7475,14 @@
         <v>-33926185.06859619</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>187</v>
+      </c>
+      <c r="J194" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,10 +7516,14 @@
         <v>-33925722.39039619</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,10 +7557,14 @@
         <v>-33925722.39039619</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="J196" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,10 +7598,14 @@
         <v>-33928010.05689619</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="J197" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,10 +7639,14 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="J198" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,10 +7680,14 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,10 +7721,14 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J200" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,10 +7762,14 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J201" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,10 +7803,14 @@
         <v>-33880610.7519962</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J202" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,10 +7844,14 @@
         <v>-33881033.15409619</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>194</v>
+      </c>
+      <c r="J203" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,10 +7885,14 @@
         <v>-33876730.55589619</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>193</v>
+      </c>
+      <c r="J204" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,7 +7929,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,7 +7968,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,7 +8007,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,7 +8046,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,7 +8085,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,7 +8124,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8107,7 +8163,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,7 +8202,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,7 +8241,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,7 +8280,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,7 +8319,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8292,7 +8358,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8329,7 +8397,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,7 +8436,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8403,7 +8475,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8440,7 +8514,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8477,7 +8553,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,7 +8592,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,16 +8628,20 @@
         <v>-33753329.12051333</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>184.7</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
       <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -8586,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8616,11 +8706,17 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8649,11 +8745,17 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8682,11 +8784,17 @@
         <v>-33529179.80271144</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8715,11 +8823,17 @@
         <v>-33568657.00728555</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8748,11 +8862,17 @@
         <v>-33613061.31488555</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8781,11 +8901,17 @@
         <v>-33659886.62428555</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8814,11 +8940,17 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8847,11 +8979,17 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +9018,17 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8916,8 +9060,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8949,8 +9099,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8982,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9015,8 +9177,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9045,11 +9213,17 @@
         <v>-33710131.62877603</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9081,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9114,8 +9294,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9147,8 +9333,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9180,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9213,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9246,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9279,8 +9489,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9312,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9345,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9378,8 +9606,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9411,8 +9645,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9444,8 +9684,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9477,8 +9723,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9510,8 +9762,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9543,8 +9801,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9576,8 +9840,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9609,8 +9879,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9642,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9675,8 +9957,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9708,8 +9996,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9741,8 +10035,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9774,8 +10074,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9807,8 +10113,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9840,8 +10152,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9873,8 +10191,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9906,8 +10230,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9939,8 +10269,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9972,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10005,8 +10347,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10038,8 +10386,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10071,8 +10425,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10104,8 +10464,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10137,8 +10503,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10170,8 +10542,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10203,8 +10581,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10236,8 +10620,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10269,8 +10659,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10302,8 +10698,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10335,8 +10737,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10368,8 +10776,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10401,8 +10815,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10434,8 +10854,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +10893,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10500,8 +10932,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10533,8 +10971,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10566,8 +11010,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10599,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10632,8 +11088,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10665,8 +11127,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10698,8 +11166,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10731,8 +11205,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10764,8 +11244,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10797,8 +11283,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10830,8 +11322,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10863,8 +11361,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10896,8 +11400,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10929,8 +11439,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10962,8 +11478,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10995,8 +11517,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11028,8 +11556,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11061,8 +11595,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11094,8 +11634,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11127,8 +11673,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11160,8 +11712,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11193,8 +11751,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11226,8 +11790,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11259,8 +11829,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11292,8 +11868,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11325,8 +11907,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11358,8 +11946,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11391,8 +11985,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11424,8 +12024,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11457,8 +12063,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11490,8 +12102,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11523,8 +12141,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11556,8 +12180,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11589,8 +12219,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11622,8 +12258,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11655,8 +12297,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11688,8 +12336,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11721,8 +12375,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11754,8 +12414,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11787,8 +12453,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11820,8 +12492,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11853,8 +12531,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11886,8 +12570,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11919,8 +12609,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11952,8 +12648,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11985,8 +12687,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12018,8 +12726,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12051,8 +12765,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12084,8 +12804,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12117,8 +12843,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12150,8 +12882,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12183,8 +12921,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12216,8 +12960,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12249,14 +12999,20 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AE.xlsx
+++ b/BackTest/2020-01-22 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>11016.59940621829</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4074.137793781709</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3835.925993781709</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-25033.16249378171</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-17990.62029378171</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-47411.87959378171</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-58951.87959378171</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-56994.12039378171</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-59494.12039378171</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-59491.12039378171</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-59731.57109378171</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-61539.69489378171</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-61287.43729378172</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-61077.87949378171</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-61587.03859378171</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-61557.03859378171</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-61665.90309378172</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-61662.90309378172</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-61853.73159378172</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-73595.70979378172</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-73595.70979378172</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-61935.43149378172</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-63078.55489378171</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-96491.81049378171</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-73268.23949378172</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-73340.23949378172</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-73340.23949378172</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-73295.23949378172</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-33857295.23949378</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-33857295.23949378</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3817,14 +3817,10 @@
         <v>-33892532.41919379</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>184.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
@@ -3857,1384 +3853,1170 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>334.9934</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-33909501.78819379</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>444.9557</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-33909946.74389379</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1132.8007</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-33911079.5445938</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11218.13</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-33899861.41459379</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8260</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-33899861.41459379</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4350</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-33899861.41459379</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2230</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-33897631.41459379</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2170</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-33897631.41459379</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>454.9565</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-33897631.41459379</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>184</v>
+      </c>
+      <c r="C115" t="n">
+        <v>184</v>
+      </c>
+      <c r="D115" t="n">
+        <v>184</v>
+      </c>
+      <c r="E115" t="n">
+        <v>184</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1670</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-33895961.41459379</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3049.8046</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-33892911.60999379</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>185</v>
+      </c>
+      <c r="E117" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3301.9171</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-33896213.52709379</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>184</v>
+      </c>
+      <c r="D118" t="n">
+        <v>185</v>
+      </c>
+      <c r="E118" t="n">
+        <v>184</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5560</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-33901773.52709379</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>184</v>
+      </c>
+      <c r="C119" t="n">
+        <v>184</v>
+      </c>
+      <c r="D119" t="n">
+        <v>184</v>
+      </c>
+      <c r="E119" t="n">
+        <v>184</v>
+      </c>
+      <c r="F119" t="n">
+        <v>150</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-33901773.52709379</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>184</v>
+      </c>
+      <c r="C120" t="n">
+        <v>184</v>
+      </c>
+      <c r="D120" t="n">
+        <v>184</v>
+      </c>
+      <c r="E120" t="n">
+        <v>184</v>
+      </c>
+      <c r="F120" t="n">
+        <v>996.6911</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-33901773.52709379</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>184</v>
+      </c>
+      <c r="C121" t="n">
+        <v>184</v>
+      </c>
+      <c r="D121" t="n">
+        <v>184</v>
+      </c>
+      <c r="E121" t="n">
+        <v>184</v>
+      </c>
+      <c r="F121" t="n">
+        <v>209.1961</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-33901773.52709379</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>114.9112</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-33901888.43829379</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>184</v>
+      </c>
+      <c r="C123" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>184</v>
+      </c>
+      <c r="E123" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1917.9997</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-33903806.43799379</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-33902386.43799379</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5068.9131</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-33897317.5248938</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>184</v>
+      </c>
+      <c r="C126" t="n">
+        <v>184</v>
+      </c>
+      <c r="D126" t="n">
+        <v>184</v>
+      </c>
+      <c r="E126" t="n">
+        <v>184</v>
+      </c>
+      <c r="F126" t="n">
+        <v>618.8668</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-33897936.3916938</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3049.8046</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-33894886.5870938</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>109.6371</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-33894886.5870938</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>184</v>
+      </c>
+      <c r="D129" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>184</v>
+      </c>
+      <c r="F129" t="n">
+        <v>344.4405</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-33895231.0275938</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>84.01909999999999</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-33895315.0466938</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>184</v>
+      </c>
+      <c r="C131" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>184</v>
+      </c>
+      <c r="E131" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>534.8477</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-33895849.8943938</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>185</v>
+      </c>
+      <c r="C132" t="n">
+        <v>184</v>
+      </c>
+      <c r="D132" t="n">
+        <v>185</v>
+      </c>
+      <c r="E132" t="n">
+        <v>184</v>
+      </c>
+      <c r="F132" t="n">
+        <v>110</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-33895739.8943938</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>185</v>
+      </c>
+      <c r="C133" t="n">
+        <v>185</v>
+      </c>
+      <c r="D133" t="n">
+        <v>185</v>
+      </c>
+      <c r="E133" t="n">
+        <v>185</v>
+      </c>
+      <c r="F133" t="n">
+        <v>25.13513513513514</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-33895714.75925867</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>185</v>
+      </c>
+      <c r="C134" t="n">
+        <v>185</v>
+      </c>
+      <c r="D134" t="n">
+        <v>185</v>
+      </c>
+      <c r="E134" t="n">
+        <v>185</v>
+      </c>
+      <c r="F134" t="n">
+        <v>112.7362</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-33895714.75925867</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>185</v>
+      </c>
+      <c r="J134" t="n">
+        <v>185</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>184</v>
+      </c>
+      <c r="C135" t="n">
+        <v>184</v>
+      </c>
+      <c r="D135" t="n">
+        <v>184</v>
+      </c>
+      <c r="E135" t="n">
+        <v>184</v>
+      </c>
+      <c r="F135" t="n">
+        <v>60</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-33895774.75925867</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>185</v>
+      </c>
+      <c r="J135" t="n">
+        <v>185</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>184</v>
+      </c>
+      <c r="C136" t="n">
+        <v>184</v>
+      </c>
+      <c r="D136" t="n">
+        <v>184</v>
+      </c>
+      <c r="E136" t="n">
+        <v>184</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-33895774.75925867</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>184</v>
+      </c>
+      <c r="J136" t="n">
+        <v>185</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>184</v>
+      </c>
+      <c r="C137" t="n">
+        <v>184</v>
+      </c>
+      <c r="D137" t="n">
+        <v>184</v>
+      </c>
+      <c r="E137" t="n">
+        <v>184</v>
+      </c>
+      <c r="F137" t="n">
+        <v>67.3253</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-33895774.75925867</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>184</v>
+      </c>
+      <c r="J137" t="n">
+        <v>184</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>184</v>
+      </c>
+      <c r="C138" t="n">
+        <v>184</v>
+      </c>
+      <c r="D138" t="n">
+        <v>184</v>
+      </c>
+      <c r="E138" t="n">
+        <v>184</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1540</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-33895774.75925867</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>184</v>
+      </c>
+      <c r="J138" t="n">
+        <v>184</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>184</v>
+      </c>
+      <c r="D139" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>184</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2180</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-33895774.75925867</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>184</v>
+      </c>
+      <c r="J139" t="n">
+        <v>184</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="C106" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>334.9934</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-33909501.78819379</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="J106" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C107" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E107" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>444.9557</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-33909946.74389379</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C108" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E108" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1132.8007</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-33911079.5445938</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C109" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E109" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>11218.13</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-33899861.41459379</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8260</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-33899861.41459379</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4350</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-33899861.41459379</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="C112" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2230</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-33897631.41459379</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="E113" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2170</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-33897631.41459379</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>454.9565</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-33897631.41459379</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>184</v>
-      </c>
-      <c r="C115" t="n">
-        <v>184</v>
-      </c>
-      <c r="D115" t="n">
-        <v>184</v>
-      </c>
-      <c r="E115" t="n">
-        <v>184</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1670</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-33895961.41459379</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3049.8046</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-33892911.60999379</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>184</v>
-      </c>
-      <c r="J116" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C117" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D117" t="n">
-        <v>185</v>
-      </c>
-      <c r="E117" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3301.9171</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-33896213.52709379</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J117" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>184</v>
-      </c>
-      <c r="D118" t="n">
-        <v>185</v>
-      </c>
-      <c r="E118" t="n">
-        <v>184</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5560</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-33901773.52709379</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="J118" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>184</v>
-      </c>
-      <c r="C119" t="n">
-        <v>184</v>
-      </c>
-      <c r="D119" t="n">
-        <v>184</v>
-      </c>
-      <c r="E119" t="n">
-        <v>184</v>
-      </c>
-      <c r="F119" t="n">
-        <v>150</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-33901773.52709379</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>184</v>
-      </c>
-      <c r="C120" t="n">
-        <v>184</v>
-      </c>
-      <c r="D120" t="n">
-        <v>184</v>
-      </c>
-      <c r="E120" t="n">
-        <v>184</v>
-      </c>
-      <c r="F120" t="n">
-        <v>996.6911</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-33901773.52709379</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>184</v>
-      </c>
-      <c r="C121" t="n">
-        <v>184</v>
-      </c>
-      <c r="D121" t="n">
-        <v>184</v>
-      </c>
-      <c r="E121" t="n">
-        <v>184</v>
-      </c>
-      <c r="F121" t="n">
-        <v>209.1961</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-33901773.52709379</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="C122" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="D122" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="E122" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="F122" t="n">
-        <v>114.9112</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-33901888.43829379</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>184</v>
-      </c>
-      <c r="C123" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>184</v>
-      </c>
-      <c r="E123" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1917.9997</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-33903806.43799379</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1420</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-33902386.43799379</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C125" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5068.9131</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-33897317.5248938</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J125" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>184</v>
-      </c>
-      <c r="C126" t="n">
-        <v>184</v>
-      </c>
-      <c r="D126" t="n">
-        <v>184</v>
-      </c>
-      <c r="E126" t="n">
-        <v>184</v>
-      </c>
-      <c r="F126" t="n">
-        <v>618.8668</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-33897936.3916938</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3049.8046</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-33894886.5870938</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>109.6371</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-33894886.5870938</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>184</v>
-      </c>
-      <c r="D129" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>184</v>
-      </c>
-      <c r="F129" t="n">
-        <v>344.4405</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-33895231.0275938</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>84.01909999999999</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-33895315.0466938</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>184</v>
-      </c>
-      <c r="C131" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D131" t="n">
-        <v>184</v>
-      </c>
-      <c r="E131" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F131" t="n">
-        <v>534.8477</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-33895849.8943938</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>185</v>
-      </c>
-      <c r="C132" t="n">
-        <v>184</v>
-      </c>
-      <c r="D132" t="n">
-        <v>185</v>
-      </c>
-      <c r="E132" t="n">
-        <v>184</v>
-      </c>
-      <c r="F132" t="n">
-        <v>110</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-33895739.8943938</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>185</v>
-      </c>
-      <c r="C133" t="n">
-        <v>185</v>
-      </c>
-      <c r="D133" t="n">
-        <v>185</v>
-      </c>
-      <c r="E133" t="n">
-        <v>185</v>
-      </c>
-      <c r="F133" t="n">
-        <v>25.13513513513514</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-33895714.75925867</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>185</v>
-      </c>
-      <c r="C134" t="n">
-        <v>185</v>
-      </c>
-      <c r="D134" t="n">
-        <v>185</v>
-      </c>
-      <c r="E134" t="n">
-        <v>185</v>
-      </c>
-      <c r="F134" t="n">
-        <v>112.7362</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-33895714.75925867</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>185</v>
-      </c>
-      <c r="J134" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>184</v>
-      </c>
-      <c r="C135" t="n">
-        <v>184</v>
-      </c>
-      <c r="D135" t="n">
-        <v>184</v>
-      </c>
-      <c r="E135" t="n">
-        <v>184</v>
-      </c>
-      <c r="F135" t="n">
-        <v>60</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-33895774.75925867</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>185</v>
-      </c>
-      <c r="J135" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>184</v>
-      </c>
-      <c r="C136" t="n">
-        <v>184</v>
-      </c>
-      <c r="D136" t="n">
-        <v>184</v>
-      </c>
-      <c r="E136" t="n">
-        <v>184</v>
-      </c>
-      <c r="F136" t="n">
-        <v>100</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-33895774.75925867</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>184</v>
-      </c>
-      <c r="J136" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>184</v>
-      </c>
-      <c r="C137" t="n">
-        <v>184</v>
-      </c>
-      <c r="D137" t="n">
-        <v>184</v>
-      </c>
-      <c r="E137" t="n">
-        <v>184</v>
-      </c>
-      <c r="F137" t="n">
-        <v>67.3253</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-33895774.75925867</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>184</v>
-      </c>
-      <c r="J137" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>184</v>
-      </c>
-      <c r="C138" t="n">
-        <v>184</v>
-      </c>
-      <c r="D138" t="n">
-        <v>184</v>
-      </c>
-      <c r="E138" t="n">
-        <v>184</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1540</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-33895774.75925867</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>184</v>
-      </c>
-      <c r="J138" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>184</v>
-      </c>
-      <c r="D139" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>184</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2180</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-33895774.75925867</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>184</v>
-      </c>
-      <c r="J139" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5269,7 +5051,7 @@
         <v>184</v>
       </c>
       <c r="J140" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5310,7 +5092,7 @@
         <v>184</v>
       </c>
       <c r="J141" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5351,7 +5133,7 @@
         <v>186.3</v>
       </c>
       <c r="J142" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5392,7 +5174,7 @@
         <v>183.4</v>
       </c>
       <c r="J143" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5433,7 +5215,7 @@
         <v>183.8</v>
       </c>
       <c r="J144" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5474,7 +5256,7 @@
         <v>183.5</v>
       </c>
       <c r="J145" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5515,7 +5297,7 @@
         <v>183</v>
       </c>
       <c r="J146" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5556,7 +5338,7 @@
         <v>181.2</v>
       </c>
       <c r="J147" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5597,7 +5379,7 @@
         <v>182.4</v>
       </c>
       <c r="J148" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5638,7 +5420,7 @@
         <v>182.4</v>
       </c>
       <c r="J149" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5679,7 +5461,7 @@
         <v>182.4</v>
       </c>
       <c r="J150" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5720,7 +5502,7 @@
         <v>182.4</v>
       </c>
       <c r="J151" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5761,7 +5543,7 @@
         <v>182.1</v>
       </c>
       <c r="J152" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5802,7 +5584,7 @@
         <v>182.5</v>
       </c>
       <c r="J153" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5843,7 +5625,7 @@
         <v>182.6</v>
       </c>
       <c r="J154" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5884,7 +5666,7 @@
         <v>182.6</v>
       </c>
       <c r="J155" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5925,7 +5707,7 @@
         <v>184</v>
       </c>
       <c r="J156" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5966,7 +5748,7 @@
         <v>184</v>
       </c>
       <c r="J157" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6007,7 +5789,7 @@
         <v>184.9</v>
       </c>
       <c r="J158" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6048,7 +5830,7 @@
         <v>184.9</v>
       </c>
       <c r="J159" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6089,7 +5871,7 @@
         <v>185</v>
       </c>
       <c r="J160" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6130,7 +5912,7 @@
         <v>182.6</v>
       </c>
       <c r="J161" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6171,7 +5953,7 @@
         <v>185</v>
       </c>
       <c r="J162" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6212,7 +5994,7 @@
         <v>185</v>
       </c>
       <c r="J163" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6253,7 +6035,7 @@
         <v>185</v>
       </c>
       <c r="J164" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6294,7 +6076,7 @@
         <v>186.3</v>
       </c>
       <c r="J165" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6335,7 +6117,7 @@
         <v>185.2</v>
       </c>
       <c r="J166" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6376,7 +6158,7 @@
         <v>185.1</v>
       </c>
       <c r="J167" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6417,7 +6199,7 @@
         <v>186.4</v>
       </c>
       <c r="J168" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6452,13 +6234,11 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6493,13 +6273,11 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6534,13 +6312,11 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6575,13 +6351,11 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6616,13 +6390,11 @@
         <v>-33924227.64935865</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6657,13 +6429,11 @@
         <v>-33917894.53679618</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>187.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6698,13 +6468,11 @@
         <v>-33917894.53679618</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>188.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6739,13 +6507,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>188.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6780,13 +6546,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6821,13 +6585,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6862,13 +6624,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6903,13 +6663,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6944,13 +6702,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6985,13 +6741,11 @@
         <v>-33919264.53679618</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7026,13 +6780,11 @@
         <v>-33917860.47569618</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7067,13 +6819,11 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7108,13 +6858,11 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>187.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7149,13 +6897,11 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>187.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7190,13 +6936,11 @@
         <v>-33918010.47569618</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>187.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7231,13 +6975,11 @@
         <v>-33918230.47589619</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>187.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7272,13 +7014,11 @@
         <v>-33918190.43469619</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>187.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7313,13 +7053,11 @@
         <v>-33925222.43469619</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7354,13 +7092,11 @@
         <v>-33926059.43469619</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>188.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7395,13 +7131,11 @@
         <v>-33926159.43469619</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>188.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7440,7 +7174,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7475,13 +7209,11 @@
         <v>-33926185.06859619</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7516,13 +7248,11 @@
         <v>-33925722.39039619</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>187.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7557,13 +7287,11 @@
         <v>-33925722.39039619</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>188.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7598,13 +7326,11 @@
         <v>-33928010.05689619</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>188.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7639,13 +7365,11 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>187.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7680,13 +7404,11 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>189.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7721,13 +7443,11 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>189.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7762,13 +7482,11 @@
         <v>-33883969.7718962</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>189.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7803,13 +7521,11 @@
         <v>-33880610.7519962</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>189.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7844,13 +7560,11 @@
         <v>-33881033.15409619</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7885,13 +7599,11 @@
         <v>-33876730.55589619</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7930,7 +7642,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7969,7 +7681,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8004,21 +7716,23 @@
         <v>-33734667.24363096</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>184.7</v>
+        <v>184</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>1.130869565217391</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1.098233995584989</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8043,17 +7757,11 @@
         <v>-33840743.90223096</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8082,17 +7790,11 @@
         <v>-33856598.99556097</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8121,17 +7823,11 @@
         <v>-33883929.86052354</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8160,17 +7856,11 @@
         <v>-33883929.86052354</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8199,17 +7889,11 @@
         <v>-33895983.75308236</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8238,17 +7922,11 @@
         <v>-33882041.53998236</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8277,17 +7955,11 @@
         <v>-33881760.29768237</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8316,17 +7988,11 @@
         <v>-33882740.31438237</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8355,17 +8021,11 @@
         <v>-33887482.41708237</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8394,17 +8054,11 @@
         <v>-33886715.68168237</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8433,17 +8087,11 @@
         <v>-33858407.06318237</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8472,17 +8120,11 @@
         <v>-33811374.82105976</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8511,17 +8153,11 @@
         <v>-33772391.22048237</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8550,17 +8186,11 @@
         <v>-33866747.88060277</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8592,14 +8222,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +8255,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +8288,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +8321,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8748,14 +8354,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +8420,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8865,14 +8453,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8904,14 +8486,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8943,14 +8519,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +8552,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9021,14 +8585,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9060,14 +8618,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9099,14 +8651,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9138,14 +8684,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9177,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9216,14 +8750,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9255,14 +8783,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9294,14 +8816,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9333,14 +8849,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +8882,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9411,14 +8915,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9450,14 +8948,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9489,14 +8981,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9528,14 +9014,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9567,14 +9047,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9606,14 +9080,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +9113,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9684,14 +9146,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9723,14 +9179,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9762,14 +9212,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9801,14 +9245,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9840,14 +9278,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9879,14 +9311,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9918,14 +9344,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9957,14 +9377,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9996,14 +9410,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10035,14 +9443,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10074,14 +9476,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10113,14 +9509,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10152,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10191,14 +9575,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10230,14 +9608,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10269,14 +9641,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10308,14 +9674,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10347,14 +9707,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10386,14 +9740,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10425,14 +9773,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10464,14 +9806,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10503,14 +9839,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10542,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10581,14 +9905,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10620,14 +9938,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10659,14 +9971,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10698,14 +10004,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10737,14 +10037,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10776,14 +10070,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10815,14 +10103,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10854,14 +10136,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10893,14 +10169,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10932,14 +10202,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10971,14 +10235,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11010,14 +10268,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11049,14 +10301,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11088,14 +10334,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11127,14 +10367,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11166,14 +10400,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11205,14 +10433,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11244,14 +10466,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11283,14 +10499,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11322,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11361,14 +10565,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11400,14 +10598,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11439,14 +10631,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11478,14 +10664,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11517,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11556,14 +10730,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11595,14 +10763,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11634,14 +10796,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11673,14 +10829,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11712,14 +10862,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11751,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11790,14 +10928,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11829,14 +10961,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11868,14 +10994,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11904,15 +11024,15 @@
         <v>-34122111.64173365</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>184.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -11946,9 +11066,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11985,9 +11103,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12024,9 +11140,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12063,9 +11177,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12102,9 +11214,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12141,9 +11251,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12180,9 +11288,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,9 +11325,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12258,9 +11362,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,9 +11399,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12336,9 +11436,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,9 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12414,9 +11510,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,9 +11547,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12492,9 +11584,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12531,9 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,9 +11658,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12609,9 +11695,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12648,9 +11732,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12687,9 +11769,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,9 +11806,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12765,9 +11843,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12804,9 +11880,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12843,9 +11917,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12882,9 +11954,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12921,9 +11991,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12960,9 +12028,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12999,9 +12065,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>184.7</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13013,6 +12077,6 @@
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AE.xlsx
+++ b/BackTest/2020-01-22 BackTest AE.xlsx
@@ -4543,10 +4543,14 @@
         <v>-33897936.3916938</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>184.9</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4576,11 +4580,19 @@
         <v>-33894886.5870938</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>184</v>
+      </c>
+      <c r="J127" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4621,19 @@
         <v>-33894886.5870938</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4662,19 @@
         <v>-33895231.0275938</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4703,19 @@
         <v>-33895315.0466938</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>184</v>
+      </c>
+      <c r="J130" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4747,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4786,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4825,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4813,9 +4867,13 @@
         <v>185</v>
       </c>
       <c r="J134" t="n">
-        <v>185</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+        <v>184.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4908,11 @@
         <v>185</v>
       </c>
       <c r="J135" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4891,11 +4949,11 @@
         <v>184</v>
       </c>
       <c r="J136" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4932,9 +4990,13 @@
         <v>184</v>
       </c>
       <c r="J137" t="n">
-        <v>184</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>184.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +5031,11 @@
         <v>184</v>
       </c>
       <c r="J138" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5010,11 +5072,11 @@
         <v>184</v>
       </c>
       <c r="J139" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5051,7 +5113,7 @@
         <v>184</v>
       </c>
       <c r="J140" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5092,7 +5154,7 @@
         <v>184</v>
       </c>
       <c r="J141" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5133,7 +5195,7 @@
         <v>186.3</v>
       </c>
       <c r="J142" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5174,7 +5236,7 @@
         <v>183.4</v>
       </c>
       <c r="J143" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5215,7 +5277,7 @@
         <v>183.8</v>
       </c>
       <c r="J144" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5256,7 +5318,7 @@
         <v>183.5</v>
       </c>
       <c r="J145" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5297,7 +5359,7 @@
         <v>183</v>
       </c>
       <c r="J146" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5338,7 +5400,7 @@
         <v>181.2</v>
       </c>
       <c r="J147" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5379,7 +5441,7 @@
         <v>182.4</v>
       </c>
       <c r="J148" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5420,7 +5482,7 @@
         <v>182.4</v>
       </c>
       <c r="J149" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5461,7 +5523,7 @@
         <v>182.4</v>
       </c>
       <c r="J150" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5502,7 +5564,7 @@
         <v>182.4</v>
       </c>
       <c r="J151" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5543,7 +5605,7 @@
         <v>182.1</v>
       </c>
       <c r="J152" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5584,7 +5646,7 @@
         <v>182.5</v>
       </c>
       <c r="J153" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5625,7 +5687,7 @@
         <v>182.6</v>
       </c>
       <c r="J154" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5666,7 +5728,7 @@
         <v>182.6</v>
       </c>
       <c r="J155" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5707,7 +5769,7 @@
         <v>184</v>
       </c>
       <c r="J156" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5748,7 +5810,7 @@
         <v>184</v>
       </c>
       <c r="J157" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5789,7 +5851,7 @@
         <v>184.9</v>
       </c>
       <c r="J158" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5830,7 +5892,7 @@
         <v>184.9</v>
       </c>
       <c r="J159" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5871,7 +5933,7 @@
         <v>185</v>
       </c>
       <c r="J160" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5912,7 +5974,7 @@
         <v>182.6</v>
       </c>
       <c r="J161" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5953,7 +6015,7 @@
         <v>185</v>
       </c>
       <c r="J162" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5994,7 +6056,7 @@
         <v>185</v>
       </c>
       <c r="J163" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6035,7 +6097,7 @@
         <v>185</v>
       </c>
       <c r="J164" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6076,7 +6138,7 @@
         <v>186.3</v>
       </c>
       <c r="J165" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6117,7 +6179,7 @@
         <v>185.2</v>
       </c>
       <c r="J166" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6158,7 +6220,7 @@
         <v>185.1</v>
       </c>
       <c r="J167" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6193,13 +6255,11 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6238,7 +6298,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6277,7 +6337,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6316,7 +6376,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6355,7 +6415,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6394,7 +6454,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6433,7 +6493,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6472,7 +6532,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6511,7 +6571,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6550,7 +6610,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6589,7 +6649,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6628,7 +6688,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6667,7 +6727,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6706,7 +6766,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6745,7 +6805,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6784,7 +6844,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6823,7 +6883,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6862,7 +6922,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6901,7 +6961,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6940,7 +7000,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6979,7 +7039,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7018,7 +7078,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7057,7 +7117,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7096,7 +7156,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7135,7 +7195,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7174,7 +7234,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7213,7 +7273,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7252,7 +7312,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7291,7 +7351,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7330,7 +7390,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7369,7 +7429,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7408,7 +7468,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7447,7 +7507,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7486,7 +7546,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7525,7 +7585,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7564,7 +7624,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7603,7 +7663,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7642,7 +7702,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7681,7 +7741,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7716,617 +7776,725 @@
         <v>-33734667.24363096</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>209</v>
+      </c>
+      <c r="C208" t="n">
+        <v>203</v>
+      </c>
+      <c r="D208" t="n">
+        <v>209</v>
+      </c>
+      <c r="E208" t="n">
+        <v>192</v>
+      </c>
+      <c r="F208" t="n">
+        <v>106076.6586</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-33840743.90223096</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>196</v>
+      </c>
+      <c r="C209" t="n">
+        <v>202</v>
+      </c>
+      <c r="D209" t="n">
+        <v>202</v>
+      </c>
+      <c r="E209" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>15855.09333</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-33856598.99556097</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>202</v>
+      </c>
+      <c r="C210" t="n">
+        <v>201</v>
+      </c>
+      <c r="D210" t="n">
+        <v>202</v>
+      </c>
+      <c r="E210" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27330.86496257426</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-33883929.86052354</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>201</v>
+      </c>
+      <c r="C211" t="n">
+        <v>201</v>
+      </c>
+      <c r="D211" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>200</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3430.9112</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-33883929.86052354</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>201</v>
+      </c>
+      <c r="C212" t="n">
+        <v>200</v>
+      </c>
+      <c r="D212" t="n">
+        <v>204</v>
+      </c>
+      <c r="E212" t="n">
+        <v>200</v>
+      </c>
+      <c r="F212" t="n">
+        <v>12053.89255882353</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-33895983.75308236</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>201</v>
+      </c>
+      <c r="D213" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>200</v>
+      </c>
+      <c r="F213" t="n">
+        <v>13942.2131</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-33882041.53998236</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>202</v>
+      </c>
+      <c r="C214" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>202</v>
+      </c>
+      <c r="F214" t="n">
+        <v>281.2423</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-33881760.29768237</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>980.0167</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-33882740.31438237</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>202</v>
+      </c>
+      <c r="C216" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>202</v>
+      </c>
+      <c r="E216" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4742.1027</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-33887482.41708237</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>201</v>
+      </c>
+      <c r="C217" t="n">
+        <v>203</v>
+      </c>
+      <c r="D217" t="n">
+        <v>203</v>
+      </c>
+      <c r="E217" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>766.7354</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-33886715.68168237</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="C218" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="E218" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28308.6185</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-33858407.06318237</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>206.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>212</v>
+      </c>
+      <c r="D219" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>204</v>
+      </c>
+      <c r="F219" t="n">
+        <v>47032.24212261489</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-33811374.82105976</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>211</v>
+      </c>
+      <c r="C220" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>206</v>
+      </c>
+      <c r="F220" t="n">
+        <v>38983.60057738511</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-33772391.22048237</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>211</v>
+      </c>
+      <c r="D221" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E221" t="n">
+        <v>211</v>
+      </c>
+      <c r="F221" t="n">
+        <v>94356.66012040012</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-33866747.88060277</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>212</v>
+      </c>
+      <c r="C222" t="n">
+        <v>213</v>
+      </c>
+      <c r="D222" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>212</v>
+      </c>
+      <c r="F222" t="n">
+        <v>19645.64198943166</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-33847102.23861334</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="C223" t="n">
+        <v>218</v>
+      </c>
+      <c r="D223" t="n">
+        <v>218</v>
+      </c>
+      <c r="E223" t="n">
+        <v>214</v>
+      </c>
+      <c r="F223" t="n">
+        <v>93773.11810000001</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-33753329.12051333</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>218.3</v>
+      </c>
+      <c r="C224" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>218.3</v>
+      </c>
+      <c r="F224" t="n">
+        <v>157976.7356117595</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-33595352.38490158</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="C225" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>24626.44746569408</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-33595352.38490158</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1.130869565217391</v>
-      </c>
-      <c r="M207" t="n">
+      <c r="L225" t="n">
+        <v>1.218363980530016</v>
+      </c>
+      <c r="M225" t="n">
         <v>1.098233995584989</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>209</v>
-      </c>
-      <c r="C208" t="n">
-        <v>203</v>
-      </c>
-      <c r="D208" t="n">
-        <v>209</v>
-      </c>
-      <c r="E208" t="n">
-        <v>192</v>
-      </c>
-      <c r="F208" t="n">
-        <v>106076.6586</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-33840743.90223096</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>196</v>
-      </c>
-      <c r="C209" t="n">
-        <v>202</v>
-      </c>
-      <c r="D209" t="n">
-        <v>202</v>
-      </c>
-      <c r="E209" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="F209" t="n">
-        <v>15855.09333</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-33856598.99556097</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>202</v>
-      </c>
-      <c r="C210" t="n">
-        <v>201</v>
-      </c>
-      <c r="D210" t="n">
-        <v>202</v>
-      </c>
-      <c r="E210" t="n">
-        <v>200.1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>27330.86496257426</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-33883929.86052354</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>201</v>
-      </c>
-      <c r="C211" t="n">
-        <v>201</v>
-      </c>
-      <c r="D211" t="n">
-        <v>201.1</v>
-      </c>
-      <c r="E211" t="n">
-        <v>200</v>
-      </c>
-      <c r="F211" t="n">
-        <v>3430.9112</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-33883929.86052354</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>201</v>
-      </c>
-      <c r="C212" t="n">
-        <v>200</v>
-      </c>
-      <c r="D212" t="n">
-        <v>204</v>
-      </c>
-      <c r="E212" t="n">
-        <v>200</v>
-      </c>
-      <c r="F212" t="n">
-        <v>12053.89255882353</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-33895983.75308236</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>201.3</v>
-      </c>
-      <c r="C213" t="n">
-        <v>201</v>
-      </c>
-      <c r="D213" t="n">
-        <v>201.3</v>
-      </c>
-      <c r="E213" t="n">
-        <v>200</v>
-      </c>
-      <c r="F213" t="n">
-        <v>13942.2131</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-33882041.53998236</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>202</v>
-      </c>
-      <c r="C214" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="D214" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="E214" t="n">
-        <v>202</v>
-      </c>
-      <c r="F214" t="n">
-        <v>281.2423</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-33881760.29768237</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="C215" t="n">
-        <v>201.5</v>
-      </c>
-      <c r="D215" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="E215" t="n">
-        <v>201.5</v>
-      </c>
-      <c r="F215" t="n">
-        <v>980.0167</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-33882740.31438237</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>202</v>
-      </c>
-      <c r="C216" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="D216" t="n">
-        <v>202</v>
-      </c>
-      <c r="E216" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="F216" t="n">
-        <v>4742.1027</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-33887482.41708237</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>201</v>
-      </c>
-      <c r="C217" t="n">
-        <v>203</v>
-      </c>
-      <c r="D217" t="n">
-        <v>203</v>
-      </c>
-      <c r="E217" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="F217" t="n">
-        <v>766.7354</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-33886715.68168237</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="C218" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="D218" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="E218" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="F218" t="n">
-        <v>28308.6185</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-33858407.06318237</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>206.9</v>
-      </c>
-      <c r="C219" t="n">
-        <v>212</v>
-      </c>
-      <c r="D219" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="E219" t="n">
-        <v>204</v>
-      </c>
-      <c r="F219" t="n">
-        <v>47032.24212261489</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-33811374.82105976</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>211</v>
-      </c>
-      <c r="C220" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="D220" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="E220" t="n">
-        <v>206</v>
-      </c>
-      <c r="F220" t="n">
-        <v>38983.60057738511</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-33772391.22048237</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="C221" t="n">
-        <v>211</v>
-      </c>
-      <c r="D221" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E221" t="n">
-        <v>211</v>
-      </c>
-      <c r="F221" t="n">
-        <v>94356.66012040012</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-33866747.88060277</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>212</v>
-      </c>
-      <c r="C222" t="n">
-        <v>213</v>
-      </c>
-      <c r="D222" t="n">
-        <v>215.8</v>
-      </c>
-      <c r="E222" t="n">
-        <v>212</v>
-      </c>
-      <c r="F222" t="n">
-        <v>19645.64198943166</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-33847102.23861334</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>215.8</v>
-      </c>
-      <c r="C223" t="n">
-        <v>218</v>
-      </c>
-      <c r="D223" t="n">
-        <v>218</v>
-      </c>
-      <c r="E223" t="n">
-        <v>214</v>
-      </c>
-      <c r="F223" t="n">
-        <v>93773.11810000001</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-33753329.12051333</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>218.3</v>
-      </c>
-      <c r="C224" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="D224" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E224" t="n">
-        <v>218.3</v>
-      </c>
-      <c r="F224" t="n">
-        <v>157976.7356117595</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-33595352.38490158</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>223.5</v>
-      </c>
-      <c r="C225" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="D225" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E225" t="n">
-        <v>223.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>24626.44746569408</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-33595352.38490158</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8351,7 +8519,7 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8384,7 +8552,7 @@
         <v>-33529179.80271144</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8417,7 +8585,7 @@
         <v>-33568657.00728555</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8450,7 +8618,7 @@
         <v>-33613061.31488555</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8483,7 +8651,7 @@
         <v>-33659886.62428555</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8615,7 +8783,7 @@
         <v>-33634543.99577603</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8648,7 +8816,7 @@
         <v>-33634543.99577603</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8681,7 +8849,7 @@
         <v>-33665970.71417603</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8714,7 +8882,7 @@
         <v>-33641605.55127603</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -11024,17 +11192,11 @@
         <v>-34122111.64173365</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>203.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11067,11 +11229,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11104,11 +11262,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11141,11 +11295,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +11328,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11215,11 +11361,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +11394,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11289,11 +11427,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11326,11 +11460,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11363,11 +11493,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11400,11 +11526,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11437,11 +11559,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11474,11 +11592,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +11625,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +11658,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11585,11 +11691,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11724,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11659,11 +11757,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11696,11 +11790,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11733,11 +11823,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11856,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11807,11 +11889,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11844,11 +11922,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +11955,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11918,11 +11988,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11955,11 +12021,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +12054,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12029,11 +12087,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12066,11 +12120,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
